--- a/QandA(2016_2).xlsx
+++ b/QandA(2016_2).xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\QandA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,9 +54,9 @@
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
+    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
     <customWorkbookView name="POOFEE - 个人视图" guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1382" windowHeight="744" tabRatio="238" activeSheetId="1"/>
-    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
-    <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="315">
   <si>
     <t>周</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1349,6 +1349,63 @@
   </si>
   <si>
     <t>不添加其他的磁场，先仿真一下，看看结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github好像别人都可以下载看到，也可以fork，但是不能对我的版本进行修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不介意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加永磁之后，程序需要哪些修改？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.几何模型发生了变化，之前的变化不一样了，新增加了永磁区域，最好是能够新建几个变量标识这几个区域，这样后面的程序就不用改了；
+2.单元装配方面，主要需要修改的是右侧，需要添加永磁激励；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两本书里讲的静磁场的单元装配公式不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永磁周围有线圈的话，会被充磁和退磁？线圈去掉之后，又可以恢复？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是的话，如何通过公式来表达这个关系式？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁化强度矢量M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HB曲线和HM曲线一样吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线圈产生的磁场会对永磁有什么影响吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛顿迭代法真的是计算雅可比矩阵啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样写模块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>femm好像是对V进行了relax。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1643,6 +1700,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1650,15 +1716,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1680,7 +1737,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1DB8DE1B-7CFF-4A6A-A952-142DB857881B}" diskRevisions="1" revisionId="585" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4627E6AE-6A49-4DC1-AA3F-AA66A64E5F98}" diskRevisions="1" revisionId="611" version="11">
   <header guid="{0169B994-8017-4400-92CE-F58C1FB2AF73}" dateTime="2016-10-12T10:09:09" maxSheetId="5" userName="USER-" r:id="rId116" minRId="326" maxRId="329">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2289,6 +2346,78 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{D97FF02F-E9F3-4FE8-9777-8A6CC52901E3}" dateTime="2016-11-09T14:31:26" maxSheetId="5" userName="USER-" r:id="rId192" minRId="586" maxRId="587">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5E3FDCAD-3969-4336-BB9A-C2EE45EE0773}" dateTime="2016-11-09T14:32:42" maxSheetId="5" userName="USER-" r:id="rId193" minRId="588">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{86157A48-74E5-4B6A-A8C9-032E853E8810}" dateTime="2016-11-09T16:09:14" maxSheetId="5" userName="USER-" r:id="rId194" minRId="589" maxRId="593">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{41828843-0933-489A-A090-FBF06B1597FB}" dateTime="2016-11-09T17:14:31" maxSheetId="5" userName="USER-" r:id="rId195" minRId="594" maxRId="597">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82A38D94-ED50-4512-A0C1-49D4B5B9D0DD}" dateTime="2016-11-10T09:50:29" maxSheetId="5" userName="USER-" r:id="rId196" minRId="598" maxRId="601">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD3745A7-8031-4D64-9C9C-B390482A3ADD}" dateTime="2016-11-10T14:22:56" maxSheetId="5" userName="USER-" r:id="rId197" minRId="602" maxRId="605">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F9C82D86-989C-43A8-8835-E74BD5586DE1}" dateTime="2016-11-10T15:09:49" maxSheetId="5" userName="USER-" r:id="rId198" minRId="606" maxRId="607">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{44DEEB65-BCBC-4EA5-B6D4-D70744019F81}" dateTime="2016-11-10T15:33:41" maxSheetId="5" userName="USER-" r:id="rId199" minRId="608" maxRId="609">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4627E6AE-6A49-4DC1-AA3F-AA66A64E5F98}" dateTime="2016-11-10T15:48:05" maxSheetId="5" userName="USER-" r:id="rId200" minRId="610" maxRId="611">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2357,6 +2486,20 @@
     <nc r="B231" t="inlineStr">
       <is>
         <t>不添加其他的磁场，先仿真一下，看看结果。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="610" sId="1" eol="1" ref="A242:XFD242" action="insertRow"/>
+  <rcc rId="611" sId="1">
+    <nc r="A242" t="inlineStr">
+      <is>
+        <t>femm好像是对V进行了relax。。。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4967,6 +5110,215 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="586" sId="1" eol="1" ref="A232:XFD232" action="insertRow"/>
+  <rcc rId="587" sId="1">
+    <nc r="A232" t="inlineStr">
+      <is>
+        <t>github好像别人都可以下载看到，也可以fork，但是不能对我的版本进行修改。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="588" sId="1">
+    <nc r="B232" t="inlineStr">
+      <is>
+        <t>不介意</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="589" sId="1" eol="1" ref="A233:XFD233" action="insertRow"/>
+  <rcc rId="590" sId="1">
+    <nc r="A233" t="inlineStr">
+      <is>
+        <t>添加永磁之后，程序需要哪些修改？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B233">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="591" sId="1">
+    <nc r="B233" t="inlineStr">
+      <is>
+        <t>1.几何模型发生了变化，之前的变化不一样了，新增加了永磁区域，最好是能够新建几个变量标识这几个区域，这样后面的程序就不用改了；
+2.单元装配方面，主要需要修改的是右侧，需要添加永磁激励；</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="592" sId="1" eol="1" ref="A234:XFD234" action="insertRow"/>
+  <rcc rId="593" sId="1">
+    <nc r="A234" t="inlineStr">
+      <is>
+        <t>两本书里讲的静磁场的单元装配公式不一样。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="594" sId="1">
+    <nc r="C226" t="inlineStr">
+      <is>
+        <t xml:space="preserve">    </t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="595" sId="1" eol="1" ref="A235:XFD235" action="insertRow"/>
+  <rcc rId="596" sId="1">
+    <nc r="A235" t="inlineStr">
+      <is>
+        <t>永磁周围有线圈的话，会被充磁和退磁？线圈去掉之后，又可以恢复？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="597" sId="1">
+    <nc r="B235" t="inlineStr">
+      <is>
+        <t>如果是的话，如何通过公式来表达这个关系式？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="598" sId="1" eol="1" ref="A236:XFD236" action="insertRow"/>
+  <rcc rId="599" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A236">
+      <v>42684</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A236:XFD236">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="600" sId="1" eol="1" ref="A237:XFD237" action="insertRow"/>
+  <rcc rId="601" sId="1">
+    <nc r="A237" t="inlineStr">
+      <is>
+        <t>磁化强度矢量M</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="602" sId="1" eol="1" ref="A238:XFD238" action="insertRow"/>
+  <rcc rId="603" sId="1">
+    <nc r="A238" t="inlineStr">
+      <is>
+        <t>HB曲线和HM曲线一样吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="604" sId="1" eol="1" ref="A239:XFD239" action="insertRow"/>
+  <rcc rId="605" sId="1">
+    <nc r="A239" t="inlineStr">
+      <is>
+        <t>线圈产生的磁场会对永磁有什么影响吗？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="606" sId="1" eol="1" ref="A240:XFD240" action="insertRow"/>
+  <rcc rId="607" sId="1">
+    <nc r="A240" t="inlineStr">
+      <is>
+        <t>牛顿迭代法真的是计算雅可比矩阵啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="608" sId="1" eol="1" ref="A241:XFD241" action="insertRow"/>
+  <rcc rId="609" sId="1">
+    <nc r="A241" t="inlineStr">
+      <is>
+        <t>怎么样写模块？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
@@ -5261,10 +5613,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A242" sqref="A242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -6636,22 +6988,25 @@
         <v>292</v>
       </c>
     </row>
-    <row r="225" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A225" s="10" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="226" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A226" s="10" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C226" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A227" s="10" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="228" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A228" s="10" t="s">
         <v>296</v>
       </c>
@@ -6659,22 +7014,86 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A229" s="10" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A230" s="12">
         <v>42683</v>
       </c>
     </row>
-    <row r="231" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A231" s="10" t="s">
         <v>299</v>
       </c>
       <c r="B231" s="10" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A232" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A233" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="12">
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="10" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -6683,8 +7102,8 @@
   </protectedRanges>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
-      <selection activeCell="C1172" sqref="C1172"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A195">
+      <selection activeCell="B203" sqref="B203"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
@@ -6693,8 +7112,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A195">
-      <selection activeCell="B203" sqref="B203"/>
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
+      <selection activeCell="C1172" sqref="C1172"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
@@ -6751,72 +7170,72 @@
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -6865,70 +7284,70 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -6977,70 +7396,70 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -7089,70 +7508,70 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -7174,7 +7593,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7184,18 +7603,68 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="76">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="J7:L7"/>
@@ -7212,61 +7681,11 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19595,7 +20014,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -19605,7 +20024,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -19818,8 +20237,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
-      <selection activeCell="A30" sqref="A30"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+      <selection activeCell="A33" sqref="A33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
@@ -19828,8 +20247,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
-      <selection activeCell="A33" sqref="A33"/>
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+      <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>

--- a/QandA(2016_2).xlsx
+++ b/QandA(2016_2).xlsx
@@ -55,8 +55,8 @@
   <calcPr calcId="162913" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
+    <customWorkbookView name="POOFEE - 个人视图" guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1382" windowHeight="744" tabRatio="238" activeSheetId="1"/>
     <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
-    <customWorkbookView name="POOFEE - 个人视图" guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1382" windowHeight="744" tabRatio="238" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="320">
   <si>
     <t>周</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1406,6 +1406,28 @@
   </si>
   <si>
     <t>femm好像是对V进行了relax。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面轴对称磁场当中，H和B的方向是怎样的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该是在平面里，H更类似于电路里面的电压，而B类似于电流，取决于材料的属性，H是由电流产生的，不同的材料，磁导率不一样，这样产生的B不一样，也就是材料本身感受到的不一样。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永磁的种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。
+永磁体的材料种类原则上不受任何限制 ,既可以是钕铁硼、钐钴等高性能永磁材料 ,也可以是铝镍
+钴、铁氧体、铁铬钴等磁性能较低的永磁材料 ;既可以是各向异性磁体 ,也可以是各向同性磁体。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BH曲线是什么意思？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1624,7 +1646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1700,6 +1722,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1709,14 +1740,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1737,39 +1762,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4627E6AE-6A49-4DC1-AA3F-AA66A64E5F98}" diskRevisions="1" revisionId="611" version="11">
-  <header guid="{0169B994-8017-4400-92CE-F58C1FB2AF73}" dateTime="2016-10-12T10:09:09" maxSheetId="5" userName="USER-" r:id="rId116" minRId="326" maxRId="329">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0F74B0DD-84DE-46CF-8FFF-3F0C03B4BE11}" dateTime="2016-10-12T10:10:24" maxSheetId="5" userName="USER-" r:id="rId117" minRId="330" maxRId="331">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8B72CBE9-33B5-40A4-AD0E-9BD03269BD8C}" dateTime="2016-10-12T13:30:08" maxSheetId="5" userName="USER-" r:id="rId118" minRId="332">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{073BAC6E-E546-4153-AE5A-653DA192D55E}" dateTime="2016-10-12T13:43:43" maxSheetId="5" userName="USER-" r:id="rId119" minRId="333" maxRId="334">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{43360B44-B4A0-40A2-BCEB-F9EE2A1E8E09}" diskRevisions="1" revisionId="624" version="17">
   <header guid="{434A2013-F060-4EA5-8250-0F5DA28349FB}" dateTime="2016-10-14T08:24:08" maxSheetId="5" userName="USER-" r:id="rId120" minRId="335" maxRId="336">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2418,6 +2411,54 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{3A3CA8C1-C514-4A1F-A821-8926D81AB451}" dateTime="2016-11-10T20:37:40" maxSheetId="5" userName="USER-" r:id="rId201" minRId="612" maxRId="614">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A8BF1503-4151-4F33-B9A0-37DC1CC6A406}" dateTime="2016-11-10T21:55:59" maxSheetId="5" userName="USER-" r:id="rId202" minRId="615">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{51C36070-E1FB-4E87-AC5E-10C495B4AD36}" dateTime="2016-11-11T09:23:11" maxSheetId="5" userName="USER-" r:id="rId203" minRId="616" maxRId="617">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B4616072-D3F1-4557-B043-3B6501551FEE}" dateTime="2016-11-11T10:28:54" maxSheetId="5" userName="USER-" r:id="rId204" minRId="618" maxRId="620">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{588130F3-BB5A-4178-890C-C7A3FDA71DD0}" dateTime="2016-11-11T10:29:34" maxSheetId="5" userName="USER-" r:id="rId205" minRId="621">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{43360B44-B4A0-40A2-BCEB-F9EE2A1E8E09}" dateTime="2016-11-11T13:45:57" maxSheetId="5" userName="USER-" r:id="rId206" minRId="623" maxRId="624">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2507,104 +2548,21 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="326" sId="1" eol="1" ref="A137:XFD137" action="insertRow"/>
-  <rcc rId="327" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A137">
-      <v>42655</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A137:XFD137">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="328" sId="1" eol="1" ref="A138:XFD138" action="insertRow"/>
-  <rcc rId="329" sId="1">
-    <nc r="A138" t="inlineStr">
+  <rrc rId="612" sId="1" eol="1" ref="A243:XFD243" action="insertRow"/>
+  <rcc rId="613" sId="1">
+    <nc r="A243" t="inlineStr">
       <is>
-        <t>平行板电容器的方程式是一个拉普拉斯方程，净电荷为0，电势是强加上去的。</t>
+        <t>平面轴对称磁场当中，H和B的方向是怎样的？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="330" sId="1" eol="1" ref="A139:XFD139" action="insertRow"/>
-  <rcc rId="331" sId="1">
-    <nc r="A139" t="inlineStr">
+  <rcc rId="614" sId="1">
+    <nc r="B243" t="inlineStr">
       <is>
-        <t>需要找到所有在边界上的点，然后这些点的电势都是已知的</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="332" sId="1">
-    <nc r="B138" t="inlineStr">
-      <is>
-        <t>净电荷虽然为0，也就是方程组的右侧是0，这不是意味着电路当中没有了电流源，因为某些节点的电势是已知的，移到右侧，就有了。对于边界值为0的地方，这些点就不用处理。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="333" sId="1" eol="1" ref="A140:XFD140" action="insertRow"/>
-  <rcc rId="334" sId="1">
-    <nc r="A140" t="inlineStr">
-      <is>
-        <t>对啊，如果边界值不为0，怎么装配矩阵啊？</t>
+        <t>应该是在平面里，</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -2769,6 +2727,25 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="615" sId="1">
+    <oc r="B243" t="inlineStr">
+      <is>
+        <t>应该是在平面里，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B243" t="inlineStr">
+      <is>
+        <t>应该是在平面里，H更类似于电路里面的电压，而B类似于电流，取决于材料的属性，H是由电流产生的，不同的材料，磁导率不一样，这样产生的B不一样，也就是材料本身感受到的不一样。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -3271,6 +3248,61 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="616" sId="1" eol="1" ref="A244:XFD244" action="insertRow"/>
+  <rcc rId="617" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A244">
+      <v>42685</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A244:XFD244">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog130.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="407" sId="1">
@@ -3579,6 +3611,48 @@
     <nc r="B170" t="inlineStr">
       <is>
         <t>什么是Flat Triangle？第一、图8当中粗糙的分网只是一种为了读者看得更明白的示意图，实际处理会精细些；第二、这个粗糙分网得到的计算值，决定的是计算的收敛速率，不影响计算精度。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="618" sId="1" eol="1" ref="A245:XFD245" action="insertRow"/>
+  <rcc rId="619" sId="1">
+    <nc r="A245" t="inlineStr">
+      <is>
+        <t>永磁的种类</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B245">
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B245">
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B245">
+    <dxf>
+      <alignment vertical="top"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B245">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="620" sId="1">
+    <nc r="B245" t="inlineStr">
+      <is>
+        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3900,6 +3974,33 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="621" sId="1">
+    <oc r="B245" t="inlineStr">
+      <is>
+        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B245" t="inlineStr">
+      <is>
+        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。
+永磁体的材料种类原则上不受任何限制 ,既可以是钕铁硼、钐钴等高性能永磁材料 ,也可以是铝镍
+钴、铁氧体、铁铬钴等磁性能较低的永磁材料 ;既可以是各向异性磁体 ,也可以是各向同性磁体。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
 </revisions>
 </file>
 
@@ -4236,6 +4337,20 @@
     <nc r="A191" t="inlineStr">
       <is>
         <t>origin 软件绘图左侧出现一个大C</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="623" sId="1" eol="1" ref="A246:XFD246" action="insertRow"/>
+  <rcc rId="624" sId="1">
+    <nc r="A246" t="inlineStr">
+      <is>
+        <t>BH曲线是什么意思？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5613,10 +5728,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C242"/>
+  <dimension ref="A1:C246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7086,14 +7201,40 @@
         <v>312</v>
       </c>
     </row>
-    <row r="241" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A241" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="242" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A242" s="10" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="12">
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" s="10" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B245" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -7102,18 +7243,18 @@
   </protectedRanges>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A195">
-      <selection activeCell="B203" sqref="B203"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A231">
+      <selection activeCell="A249" sqref="A249"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" topLeftCell="A1161">
-      <selection activeCell="A1171" sqref="A1171"/>
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
+      <selection activeCell="C1172" sqref="C1172"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
-      <selection activeCell="C1172" sqref="C1172"/>
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" topLeftCell="A1161">
+      <selection activeCell="A1171" sqref="A1171"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
@@ -7170,72 +7311,72 @@
       <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="29"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="26"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="26"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="29"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="26"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="27"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="29"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -7284,70 +7425,70 @@
       <c r="L7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="29"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="29"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="26"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="29"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="29"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -7396,70 +7537,70 @@
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="26"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="26"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="29"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="29"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
@@ -7508,70 +7649,70 @@
       <c r="L19" s="17"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="26"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="29"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="26"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="29"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
@@ -7598,26 +7739,70 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="76">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="F24:L24"/>
     <mergeCell ref="B1:C1"/>
@@ -7634,58 +7819,14 @@
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="F18:L18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:L13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20019,12 +20160,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -20242,12 +20383,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/QandA(2016_2).xlsx
+++ b/QandA(2016_2).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17531"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\QandA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18525" windowWidth="6405" windowHeight="11355" tabRatio="238"/>
+    <workbookView xWindow="10680" yWindow="18525" windowWidth="6405" windowHeight="11355" tabRatio="238"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q&amp;A'!$A$196:$C$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$A$322</definedName>
     <definedName name="Adams">Sheet1!$A$22</definedName>
     <definedName name="ANSYS">Sheet1!$A$24</definedName>
     <definedName name="C_">Sheet1!$A$7</definedName>
@@ -36,7 +36,7 @@
     <definedName name="TLM">Sheet1!$A$5</definedName>
     <definedName name="VC">Sheet1!$A$9</definedName>
     <definedName name="Z_7CC382BC_6A8A_482F_BDE4_3F41D2AA452E_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$C$1</definedName>
-    <definedName name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$196:$C$196</definedName>
+    <definedName name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$A$322</definedName>
     <definedName name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$C$1</definedName>
     <definedName name="并行计算">Sheet1!$A$17</definedName>
     <definedName name="泊松方程">Sheet1!$A$10</definedName>
@@ -54,9 +54,9 @@
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <customWorkbookViews>
-    <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
+    <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="81" yWindow="-8" windowWidth="1847" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
+    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
     <customWorkbookView name="POOFEE - 个人视图" guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1382" windowHeight="744" tabRatio="238" activeSheetId="1"/>
-    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="421">
   <si>
     <t>周</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1428,6 +1428,494 @@
   </si>
   <si>
     <t>BH曲线是什么意思？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有永磁的模型，分别用femm和flux进行计算，看看结果能够差多少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要是张无忌存着求全之心，非练到尽善尽美不肯罢手，那么到最后关头便会走火入魔，不是疯癫痴呆，便致全身瘫痪，甚至自绝经脉而亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画出三维轴对称的效果图，要用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一切回到根本，麦克斯韦方程式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过比对发现，两个结果相差不大，所以可以利用FEMM当中的算法来进行永磁计算。另外FEMM的作者只有一个人啊，而且是某个公司的首席科学家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看懂了FEMM的程序！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定了轴对称当中永磁的计算公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用有限元法计算永磁电机磁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnetic materials and 3D finite element modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小木虫上悬赏找到了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS Project:怎么在甘特图里面现实任务名称?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。Formats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUX 怎么查看某一点的A值？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comsol下面的那几个磁场研究是什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMM使用的基函数并不是线性的，所以不应该直接照搬它的永磁代码啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试FEMM的代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看view result的代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然想到了一个好主意，利用typora，然后建立新的跟踪模板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pandoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDI boundaries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// need this loop to avoid singularities.  This just puts something
+  // on the main diagonal of nodes that are on the r=0 line.
+  // The program later sets these nodes to zero, but it's good to
+  // for scaling reasons to grab entries from the neighboring diagonals
+  // rather than just setting these entries to 1 or something....
+  for(j=0;j&lt;3;j++)
+   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ubuntu下面安装了java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是直接从Java官网下载安装包，然后解压，拷贝到一个目录，然后设置一下JAVA_HOME和CLASSPATH，就可以了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ubuntu下面安装了smartgit，和另外一个Git。。感觉还好，总比单纯的命令强很多了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备安装COMSOL linux，但是没有安装成功啊，说是缺少libwebgtk和什么LSB内核，不知道什么原因，暂时放弃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ubuntu上面安装typora，结果那个下载命令不好使，在网上找到了一个下载链接，正在下载。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在ubuntu上安装了一个下载工具，uget和aria2，安装很方便，按照官网照着做就很容易。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone 了tortoisegit的源代码，准备研究研究，呵呵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo apt-get install libwebkitgtk-1.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://typora.io/linux/typora_0.9.22_amd64.deb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo apt-get install lsb-core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究了安装libwebkitgtk，没有搞明白，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己解决不了的问题让别人去解决。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感觉电流、磁化强度啥的，跟形函数也没有什么关系啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMM里面单元矩阵为啥会有xy两个呢？我猜他把一个给拆分了，之前确实B是由Bx和By两个分量组合的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMM当中Hc处理的部分，平面的和轴对称的是2倍的关系，应该是乘以2pi的缘故吧，所以应该没错啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我还是试试superlumt在Windows下编译能不能吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Further remarks on SuperLU_MT Windows compilation:
+On Cygwin, both Pthread and OpenMP versions can be compiled without trouble, just like on linux.
+MinGW works with both Pthread and OpenMP, too. But for MinGW users, they have to enter each directory (SRC, CBLAS, EXAMPLE, etc) and run mingw32-make separately. It is not easy to get the highest level Makefile work with MinGW.
+Visual Studio only works with the OpenMP version. 
+The user needs to define the macro __OPENMP by editing the property of the VS project.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win7下编译superlumt3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该生成动态库还是静态库？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态库在程序编译时会被连接到目标代码中，程序运行时将不再需要该静态库。
+动态库在程序编译时并不会被连接到目标代码中，而是在程序运行是才被载入，因此在程序运行时还需要动态库存在。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual studio打开错误列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual Studio 项目中添加include, lib, dll库文件（*.h,*.lib,*.dll）
+应用程序使用外部库时需要进行加载，两种库的加载本质上都是一样：提供功能和功能的定义。vs2005 c++ 项目设置外部库方法如下：
+1. 添加编译所需要（依赖）的 lib 文件
+     在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;输入-&gt;附加依赖项”里填写“winsock.lib”，多个 lib 以空格隔开。等同于“#pragma comment(lib, "*.lib") ”语句。
+2. 添加库（libs）文件目录
+     方法 1：项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;常规-&gt;附加库目录”
+     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，选择对应平台，然后添加所需“库文件”目录
+     这个设置类似于设置环境变量，主要是为程序设置搜索的库目录，真正进行库加载还需要进行第一种设置！
+3. 添加包含（include）文件目录
+     方法 1：“项目-&gt;属性-&gt;配置属性-&gt;c/c++-&gt;常规-&gt;附加包含目录”
+     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，添加所需“包括文件”目录
+     方法2类似于设置环境变量。
+4. 导入库（import）
+    在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;高级-&gt;导入库”填写需要生成的导入库
+相对路径的设置
+     在VS的工程中常常要设置头文件的包含路径，当然你可以使用绝对路径，但是如果你这样设置了你只能在你自己的机器上运行该工程；如果其他人拷贝你的工程到其他机器上就可能无法运行，这个是因为你在建工程时可能把工程放在了E:盘，但是其他人可能会把工程放在其他根目录下，这样会导致找不到头文件问题。
+对于新手，在设置绝对路径时往往会犯浑，他们不清楚这里的“相对”究竟是以什么位置为起点。其实这里的相对路径就是相当于工程文件（XXXX.vcproj）为起点零计算出的能找到包含所需头文件（也就是找包含所需头文件的include目录）的路径。
+例如你的工程文件（Count.vcproj）所在目录路径为：
+E:\projects\Count\Count\Count.vcproj
+该工程需要包含一个图片参数，该图片所在路径如下：
+E:\projects\Count\pic\pic01.jpg
+这里程序中的相对路径设置如下：
+..\\pic\\pic02.jpg
+程序代码中的参数路径设置时要用双斜线：
+例如：
+#include "..\TestLib\lib.h"
+#pragma comment(lib,"..\\debug\\TestLib.lib");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序怎么知道使用那个dll啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己写的函数名与链接库里的函数名冲突了怎么办哪？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）将SuperLU\SRC路径添加到C++\Additional Include Directories中；
+（2）再把路径D:\vs2010\MyProject\example_for _c++\下建的工程SuperLU\Release(此路径下包含文件SuperLu.lib)和路径D:\vs2010\MyProject\example_for _c++\下建的工程BLAS\Relese(此路径下包含文件BLAS.lib)添加到Linker-&gt;General-&gt;Additional Library Directories下；
+（3）将SuperLU.lib和BLAS.lib添加到Linker-&gt;Input-&gt;Additional Dependencies。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎样求有限元内任一点的值？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superLUMT的Windows版本编译通过了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我之前在ubuntu下面编译的时候记得改了很多东西啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generate import library (0.2.10 and after version)
+OpenBLAS already generated the import library "libopenblas.dll.a" for "libopenblas.dll".
+Use OpenBLAS .dll library in Visual Studio
+Copy the import library (before 0.2.10: "OPENBLAS_TOP_DIR/exports/libopenblas.lib", 0.2.10 and after: "OPENBLAS_TOP_DIR/libopenblas.dll.a") and .dll library "libopenblas.dll" into the same folder(The folder of your project that is going to use the BLAS library. You may need to add the libopenblas.dll.a to the linker input list: properties-&gt;Linker-&gt;Input).
+Please follow the documentation about using third-party .dll libraries in MS Visual Studio 2008 or 2010. Make sure to link against a library for the correct architecture. For example, you may receive an error such as "The application was unable to start correctly (0xc00007b)" which typically indicates a mismatch between 32/64-bit libraries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt产生的变量QTDIR是在一个.user的文件里保存着的，这个是QT生成的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1083: Cannot open include file: 'stddef.h': No such file or directory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索Br，得到那个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CFemmviewView::DisplayPointProperties(double px, double py)</t>
+  </si>
+  <si>
+    <t>MATLAB当中似乎没有&amp;&amp;和||，只有&amp;和|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解出来的东西为什么不对称？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型不对称？？？模型不对称啊，这个模型不是特别的上下对称，所以。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMM在reference部分提到了！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reference在附录前面。他参考的文献我看到过，但是没有仔细看啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAB里面怎么画半圆区域里面的等高线？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FEMM当中miu0这部分并没有拿进去迭代计算，而是提取出来，最后才进行处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴对称的情况，如果要画等高线的话，就要进行处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (i = 0; i &lt; NumNodes; i++) {
+  L.b[i] = L.V[i] * c;
+  L.b[i] *= (meshnode[i].x*0.01 * 2 * PI);
+ }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何计算Contour？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决了二分法查找的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因在于没有很好的处理开端和结束的索引情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己写一个针对有限元插值的contour函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经成功将程序移植到了Windows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果编译的时候找不到qt的相关路径，看看.user文件当中有没有qtdir这个变量，没有的话把它加上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有继承了QObject类的类，才具有信号槽的能力。所以，为了使用信号槽，必须继承QObject。凡是QObject类（不管是直接子类还是间接子类），都应该在第一行代码写上Q_OBJECT。不管是不是使用信号槽，都应该添加这个宏。这个宏的展开将为我们的类提供信号槽机制、国际化机制以及 Qt 提供的不基于 C++ RTTI 的反射能力。因此，如果你觉得你的类不需要使用信号槽，就不添加这个宏，就是错误的。其它很多操作都会依赖于这个宏。注意，这个宏将由 moc（我们会在后面章节中介绍 moc。这里你可以将其理解为一种预处理器，是比 C++ 预处理器更早执行的预处理器。） 做特殊处理，不仅仅是宏展开这么简单。moc 会读取标记了 Q_OBJECT 的头文件，生成以 moc_ 为前缀的文件，比如 newspaper.h 将生成 moc_newspaper.cpp。你可以到构建目录查看这个文件，看看到底增加了什么内容。注意，由于 moc 只处理头文件中的标记了Q_OBJECT的类声明，不会处理 cpp 文件中的类似声明。因此，如果我们的Newspaper和Reader类位于 main.cpp 中，是无法得到 moc 的处理的。解决方法是，我们手动调用 moc 工具处理 main.cpp，并且将 main.cpp 中的#include "newspaper.h"改为#include "moc_newspaper.h"就可以了。不过，这是相当繁琐的步骤，为了避免这样修改，我们还是将其放在头文件中。许多初学者会遇到莫名其妙的错误，一加上Q_OBJECT就出错，很大一部分是因为没有注意到这个宏应该放在头文件中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signals 块所列出的，就是该类的信号。信号就是一个个的函数名，返回值是 void（因为无法获得信号的返回值，所以也就无需返回任何值），参数是该类需要让外界知道的数据。信号作为函数名，不需要在 cpp 函数中添加任何实现（我们曾经说过，Qt 程序能够使用普通的 make 进行编译。没有实现的函数名怎么会通过编译？原因还是在 moc，moc 会帮我们实现信号函数所需要的函数体，所以说，moc 并不是单纯的将 Q_OBJECT 展开，而是做了很多额外的操作）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qt 5 中，任何成员函数、static 函数、全局函数和 Lambda 表达式都可以作为槽函数。与信号函数不同，槽函数必须自己完成实现代码。槽函数就是普通的成员函数，因此作为成员函数，也会受到 public、private 等访问控制符的影响。（我们没有说信号也会受此影响，事实上，如果信号是 private 的，这个信号就不能在类的外面连接，也就没有任何意义。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以后MATLAB安装不要按那么多，只安装一个MATLAB核心就够了，其他都不要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光这个就两个G，奶奶的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断点在三角形内部的算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solve the following equation system:
+p = p0 + (p1 - p0) * s + (p2 - p0) * t
+The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
+s,t and 1 - s - t are called the barycentric coordinates of the point p.
+float sign (fPoint p1, fPoint p2, fPoint p3)
+{
+    return (p1.x - p3.x) * (p2.y - p3.y) - (p2.x - p3.x) * (p1.y - p3.y);
+}
+bool PointInTriangle (fPoint pt, fPoint v1, fPoint v2, fPoint v3)
+{
+    bool b1, b2, b3;
+    b1 = sign(pt, v1, v2) &lt; 0.0f;
+    b2 = sign(pt, v2, v3) &lt; 0.0f;
+    b3 = sign(pt, v3, v1) &lt; 0.0f;
+    return ((b1 == b2) &amp;&amp; (b2 == b3));
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序还有bug，只修改了开端的，没有修改结束的。二分法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写完了自己的插值函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还不确定是不是有这个bug，目前还没遇到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是反过来，只想知道某一点的值，就不是那么容易了，你需要查找这个点在哪一个单元，这就不好弄了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAB画平行线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot([1:10;0:9])</t>
+  </si>
+  <si>
+    <t>当没有规定画点的数目的时候，plot函数画了多少个点，使得看起来像一条连续的直线。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contour肯定是连续的，肯定是在附近找。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于contour的绘制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，这应该是一个底层的实现，其他的contour高级函数都会调用到它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+举例说明，便能解决问题。
+&gt;&gt;A = [1 2 3 4;2 3 4 5;3 4 5 6];
+&gt;&gt;contourc(A,[2 3])
+%%解释函数格式：
+%{
+这里A的“[2 3]”有两层意思：
+1.寻找矩阵A中值为2和3的等值线（坐标），至于叫坐标见结果分析。
+2.值为2和3自然就有两层等值线。
+%}
+%%输出结果：
+%{
+ans =
+     2     2     1     3     3     2     1
+     2     1     2     3     1     2     3
+说明：
+1.要竖着看：
+第一列：      2
+                  2
+上面的2代表的数值为2的等值线，下面的2为等值线对应的坐标个数。
+接下来的两（对应2）列自然就是数值为2的坐标了(2,1)和(1,2)。
+同理，接下来的列(3,3)'，第一个代表数值为3的等值线，第二个代表的个数为3个。自然地，后面的3个为相应的坐标。
+补充：“坐标”就是说的矩阵的行列。例(2,1)即第二行第三列。
+至于n年前楼主说的问题是指寻找一层等值线数值为0.5的数值对应的坐标。
+%}
+%参考文献：octave.sourceforge.net/octave/function/contourc.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matlab的contourc 函数怎么用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严格的来说，使用方形来进行contour计算是不对的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::numeric_limits&lt;double&gt;::epsilon ()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt是如何在运行时把dll路径加进去的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好奇怪啊，在project的设置里面修改PATH似乎没有什么用，最后在QT5菜单里，选择convert to qt add-in project 然后就好了，有别的设置？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convert project to Qmake project  和 convert to qt add-in project 有什么区别？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is an ability of qmake to generate .vcproj from a .pro file. So you should read qmake documentation to create a right .pro file. Qt add-in的相关东西在它的安装目录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLUX当中怎么导出一个区域内的值？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果对不上啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题是FLUX没有A值，FEMM当中有不知道如何导出A值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MATLAb当中使用的是FEMM当中的公式，也许是没有完全的理解公式的含义，计算的结果感觉是2倍的关系，无解啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还得再研究公式啊。得继续研究为什么femm是对的啊。公式可能看错了，它只约去了pi，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写总结，还得附上结果以及参考文献，应该做出一个这样的系统，感觉更像网站的风格。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,7 +1975,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1527,6 +2015,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1646,7 +2140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1695,6 +2189,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,6 +2222,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1731,17 +2240,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1762,479 +2262,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{43360B44-B4A0-40A2-BCEB-F9EE2A1E8E09}" diskRevisions="1" revisionId="624" version="17">
-  <header guid="{434A2013-F060-4EA5-8250-0F5DA28349FB}" dateTime="2016-10-14T08:24:08" maxSheetId="5" userName="USER-" r:id="rId120" minRId="335" maxRId="336">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4C0D7DDA-A0A9-4C54-B14B-9A412B20296E}" dateTime="2016-10-14T08:34:25" maxSheetId="5" userName="USER-" r:id="rId121" minRId="337" maxRId="338">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{08395713-BF8C-469A-A2AA-E0D543A56701}" dateTime="2016-10-14T15:11:39" maxSheetId="5" userName="USER-" r:id="rId122" minRId="339" maxRId="340">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{118DC3A3-2D7F-4353-A1B4-C4B18D728166}" dateTime="2016-10-14T15:56:53" maxSheetId="5" userName="USER-" r:id="rId123" minRId="341" maxRId="343">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5D2A070F-6419-4731-8DC7-4F5035A59913}" dateTime="2016-10-18T19:05:50" maxSheetId="5" userName="USER-" r:id="rId124" minRId="344" maxRId="345">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AAF359BA-F28D-4700-AFC6-59C775ADA198}" dateTime="2016-10-18T20:10:40" maxSheetId="5" userName="USER-" r:id="rId125" minRId="346" maxRId="347">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FD329BB4-2BEE-4FC1-BDD4-2EC4FDBC8A20}" dateTime="2016-10-20T10:15:04" maxSheetId="5" userName="USER-" r:id="rId126" minRId="348" maxRId="351">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EE954A01-0693-4BDC-B87E-E44C4E6C3185}" dateTime="2016-10-20T10:39:42" maxSheetId="5" userName="USER-" r:id="rId127" minRId="352">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AC5B19ED-C17F-4F42-88BF-BD986F988132}" dateTime="2016-10-20T11:15:48" maxSheetId="5" userName="USER-" r:id="rId128" minRId="353" maxRId="354">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ACC4560B-221E-4307-9062-A40EA8E219A4}" dateTime="2016-10-21T16:21:45" maxSheetId="5" userName="USER-" r:id="rId129" minRId="355" maxRId="358">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FAE66197-9045-4B97-9F32-4620BC7E669F}" dateTime="2016-10-23T09:03:26" maxSheetId="5" userName="USER-" r:id="rId130" minRId="359" maxRId="362">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CD840EE3-710A-4E40-ABA9-98CA7C6D95AF}" dateTime="2016-10-23T09:09:01" maxSheetId="5" userName="USER-" r:id="rId131" minRId="363">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8C4A104B-86EA-4AB6-BC71-B8759A501082}" dateTime="2016-10-23T11:19:28" maxSheetId="5" userName="USER-" r:id="rId132" minRId="364" maxRId="366">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{14E99B99-D8FE-4558-A9E0-E5ED5A8B7A15}" dateTime="2016-10-24T09:28:05" maxSheetId="5" userName="USER-" r:id="rId133" minRId="367" maxRId="380">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2489207E-33E3-4305-80F1-F5D6A01D7D8C}" dateTime="2016-10-24T09:33:22" maxSheetId="5" userName="USER-" r:id="rId134" minRId="381" maxRId="406">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{665F8D9A-22FD-48E5-AB3F-637C431816B1}" dateTime="2016-10-24T09:41:06" maxSheetId="5" userName="USER-" r:id="rId135" minRId="407" maxRId="425">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4968CB0B-8E6F-4299-ADF4-D30445AB7FC4}" dateTime="2016-10-24T09:53:39" maxSheetId="5" userName="USER-" r:id="rId136" minRId="426" maxRId="428">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E74B8922-839B-420D-8D69-95FF33B32555}" dateTime="2016-10-24T09:56:57" maxSheetId="5" userName="USER-" r:id="rId137" minRId="429" maxRId="432">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6E72514A-F91F-40C3-8A39-F038018086BE}" dateTime="2016-10-24T09:59:00" maxSheetId="5" userName="USER-" r:id="rId138" minRId="433">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{13D7EFF2-AAFC-4D24-9125-5183B14C0B8C}" dateTime="2016-10-24T10:00:10" maxSheetId="5" userName="USER-" r:id="rId139" minRId="434">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E555E482-D48C-4C9A-B59C-0EBA8FF106B1}" dateTime="2016-10-24T10:01:36" maxSheetId="5" userName="USER-" r:id="rId140" minRId="435">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A38AFB88-4E1F-454B-8E26-8A24810076B4}" dateTime="2016-10-24T10:05:14" maxSheetId="5" userName="USER-" r:id="rId141" minRId="436" maxRId="437">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{31E280FF-828C-4860-8774-06D1F3A5E115}" dateTime="2016-10-24T10:06:12" maxSheetId="5" userName="USER-" r:id="rId142" minRId="438">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4F29F276-80C5-49CC-B90F-A61CA6641BC2}" dateTime="2016-10-24T10:08:03" maxSheetId="5" userName="USER-" r:id="rId143" minRId="439" maxRId="440">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C95325F8-85BC-4871-8331-C6530238C4F1}" dateTime="2016-10-24T10:13:18" maxSheetId="5" userName="USER-" r:id="rId144" minRId="441">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{529B3030-427F-496E-93BA-BA504E13837B}" dateTime="2016-10-24T10:15:13" maxSheetId="5" userName="USER-" r:id="rId145" minRId="442">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DF232C66-D15B-4940-AA7E-4EA57AF1684E}" dateTime="2016-10-24T10:15:43" maxSheetId="5" userName="USER-" r:id="rId146" minRId="443">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0BE5C488-F9E6-4FFA-B59B-545068D7A386}" dateTime="2016-10-24T10:18:15" maxSheetId="5" userName="USER-" r:id="rId147" minRId="444" maxRId="446">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DF9FE832-5D00-4A03-9ED2-A5FA1A2FEFF5}" dateTime="2016-10-24T10:23:34" maxSheetId="5" userName="USER-" r:id="rId148" minRId="447">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9CA7DCAF-4E99-4C77-89A2-AF78EFAB2E7D}" dateTime="2016-10-24T10:25:35" maxSheetId="5" userName="USER-" r:id="rId149" minRId="448">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{907B020B-25BC-4E94-927B-01FC110C01BD}" dateTime="2016-10-24T10:26:04" maxSheetId="5" userName="USER-" r:id="rId150">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E7C82ADC-1F68-4C72-B34D-FB7B17F9E053}" dateTime="2016-10-24T11:15:18" maxSheetId="5" userName="USER-" r:id="rId151">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{916E69FB-3072-4692-8939-5EE533F16CA5}" dateTime="2016-10-25T08:38:15" maxSheetId="5" userName="USER-" r:id="rId152" minRId="449" maxRId="453">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{49220B1D-2550-48C7-BC35-E9E73478AF66}" dateTime="2016-10-25T09:28:59" maxSheetId="5" userName="USER-" r:id="rId153" minRId="454" maxRId="456">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{831444B6-9DDA-487F-A23D-8255296D29EC}" dateTime="2016-10-25T09:54:03" maxSheetId="5" userName="USER-" r:id="rId154" minRId="457" maxRId="458">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{271655E1-AC39-4E98-A571-AE9DC396E867}" dateTime="2016-10-26T14:03:35" maxSheetId="5" userName="USER-" r:id="rId155" minRId="459" maxRId="460">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F10A3B4A-74F5-4089-A44F-EA5CD7B6F334}" dateTime="2016-10-26T14:04:15" maxSheetId="5" userName="USER-" r:id="rId156" minRId="461">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CE1C7EEC-9B0D-49EE-96C2-2350DE03E045}" dateTime="2016-10-27T17:03:56" maxSheetId="5" userName="USER-" r:id="rId157" minRId="462" maxRId="467">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{245ECF29-8EEF-4018-91DC-A1F30F280C1C}" dateTime="2016-10-27T17:04:47" maxSheetId="5" userName="USER-" r:id="rId158" minRId="468" maxRId="469">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C29F9679-52CB-4BD2-9BBC-8FE99CA39E76}" dateTime="2016-10-28T08:45:00" maxSheetId="5" userName="USER-" r:id="rId159" minRId="470" maxRId="474">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A7E7573D-2AAC-45B1-946A-DC7A4C7E4905}" dateTime="2016-10-28T09:08:35" maxSheetId="5" userName="USER-" r:id="rId160" minRId="475" maxRId="477">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C08130A9-8DF9-4CB4-A264-3E5D077B00E6}" dateTime="2016-10-28T14:38:14" maxSheetId="5" userName="USER-" r:id="rId161" minRId="478" maxRId="479">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D69BE23C-F0BD-4784-A21D-D906FEDD00E5}" dateTime="2016-10-30T08:37:28" maxSheetId="5" userName="USER-" r:id="rId162" minRId="481" maxRId="484">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F7C4250D-BD9B-44E1-BAB5-7698264242BE}" dateTime="2016-10-30T09:18:02" maxSheetId="5" userName="USER-" r:id="rId163" minRId="485" maxRId="486">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A736CAC5-02F1-4F7A-811F-A7EFEB505E5B}" dateTime="2016-10-30T18:12:55" maxSheetId="5" userName="USER-" r:id="rId164" minRId="487" maxRId="489">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8B4F54DD-79E0-4B6A-9B95-FC52E71C161D}" dateTime="2016-10-30T19:17:27" maxSheetId="5" userName="USER-" r:id="rId165" minRId="490" maxRId="492">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C3BB7F1F-719C-4E93-9E56-3722E8E27EB9}" dateTime="2016-10-31T16:50:38" maxSheetId="5" userName="USER-" r:id="rId166" minRId="493" maxRId="494">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C72EFDFA-F6C4-4267-B347-94677E314CA5}" dateTime="2016-11-02T20:59:08" maxSheetId="5" userName="USER-" r:id="rId167" minRId="495" maxRId="501">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B4120C4E-403D-4594-8522-AEF23323E7CA}" dateTime="2016-11-03T08:31:08" maxSheetId="5" userName="USER-" r:id="rId168" minRId="502" maxRId="509">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2CF1256A-A8C5-4E1D-8BB3-309FA2AD0B5E}" dateTime="2016-11-03T14:53:21" maxSheetId="5" userName="USER-" r:id="rId169" minRId="510" maxRId="511">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B127A27E-D2E8-4E0E-B837-FEEFF1B7B141}" dateTime="2016-11-03T15:34:57" maxSheetId="5" userName="USER-" r:id="rId170" minRId="512" maxRId="514">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CD430440-54FE-42CF-9D88-170BE2E4295A}" dateTime="2016-11-03T18:49:28" maxSheetId="5" userName="USER-" r:id="rId171" minRId="515" maxRId="517">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A4CD64DD-E703-4252-BC02-36D508184FDE}" dateTime="2016-11-03T20:04:54" maxSheetId="5" userName="USER-" r:id="rId172" minRId="519" maxRId="520">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BAA22E09-38D0-43F0-9B01-FB50B670F64A}" dateTime="2016-11-04T10:11:30" maxSheetId="5" userName="USER-" r:id="rId173" minRId="521" maxRId="524">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2C0FF50A-93E0-4AF0-97A1-6F012BDE777F}" dateTime="2016-11-04T15:09:32" maxSheetId="5" userName="USER-" r:id="rId174" minRId="525">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{44552CCA-9FA9-4A86-B401-EC8635A16953}" dateTime="2016-11-04T16:13:12" maxSheetId="5" userName="USER-" r:id="rId175" minRId="526" maxRId="531">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{09D61823-1106-482C-8543-E7BADEC10C84}" dateTime="2016-11-06T09:18:40" maxSheetId="5" userName="USER-" r:id="rId176" minRId="532" maxRId="537">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9756B247-3CED-48B4-B8F2-CC2D917467C3}" dateTime="2016-11-06T09:19:17" maxSheetId="5" userName="USER-" r:id="rId177" minRId="538">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7B75EBFF-ABAC-4EF6-8AEE-F42E79B8B958}" dateTime="2016-11-07T13:29:30" maxSheetId="5" userName="USER-" r:id="rId178" minRId="539" maxRId="542">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7D2F35A0-8A5D-41E7-81DE-713D72B613E7}" diskRevisions="1" revisionId="854" version="115">
   <header guid="{33F2E12F-5C6A-457A-B4AD-6ABBA46E2353}" dateTime="2016-11-08T09:36:19" maxSheetId="5" userName="USER-" r:id="rId179" minRId="543" maxRId="548">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -2459,6 +2487,790 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{85D08C12-70F3-4169-B00B-0277D0FD6C19}" dateTime="2016-11-12T15:41:40" maxSheetId="5" userName="USER-" r:id="rId207" minRId="625" maxRId="628">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E0C69498-A70A-4C21-9447-9D15DC709448}" dateTime="2016-11-12T18:20:05" maxSheetId="5" userName="USER-" r:id="rId208" minRId="630" maxRId="631">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB8E16B0-FFEC-4019-89EE-14A9A0D287CC}" dateTime="2016-11-13T08:39:21" maxSheetId="5" userName="USER-" r:id="rId209" minRId="632" maxRId="635">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F64607E-F562-4E00-8B1A-73A36C34BA3F}" dateTime="2016-11-13T16:00:26" maxSheetId="5" userName="USER-" r:id="rId210" minRId="636" maxRId="637">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{84D80C27-5E41-474A-A34A-195B2EBF3A7B}" dateTime="2016-11-14T18:32:06" maxSheetId="5" userName="USER-" r:id="rId211" minRId="638" maxRId="639">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17773294-D345-46F5-8CF1-46D60E39B70A}" dateTime="2016-11-15T21:39:21" maxSheetId="5" userName="USER-" r:id="rId212" minRId="640" maxRId="641">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F91054EA-D051-48EE-BCDC-AF832FA19AA2}" dateTime="2016-11-16T20:51:39" maxSheetId="5" userName="USER-" r:id="rId213" minRId="642" maxRId="643">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A7B52A0-CC16-4847-8854-F5A4427C7C6A}" dateTime="2016-11-17T21:46:49" maxSheetId="5" userName="USER-" r:id="rId214" minRId="644" maxRId="648">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8CF70967-1F0D-4483-811C-1FD8C1BF2568}" dateTime="2016-11-17T22:01:47" maxSheetId="5" userName="USER-" r:id="rId215" minRId="649" maxRId="650">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D49E1B4E-DC10-4E4A-89AE-AE11661F7E74}" dateTime="2016-11-17T22:13:42" maxSheetId="5" userName="USER-" r:id="rId216" minRId="652">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2F1EC74E-09D0-4C0C-96AB-883153E78B09}" dateTime="2016-11-21T16:42:28" maxSheetId="5" userName="USER-" r:id="rId217" minRId="653" maxRId="657">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0F554893-F4D8-4916-8B04-B20F6AAC864E}" dateTime="2016-11-21T16:54:57" maxSheetId="5" userName="USER-" r:id="rId218" minRId="658">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D359405D-ACA9-4A4C-AABC-78F012894024}" dateTime="2016-11-21T19:20:36" maxSheetId="5" userName="USER-" r:id="rId219" minRId="659" maxRId="660">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5B6E021E-493F-45F3-82C5-456EC7B12317}" dateTime="2016-11-21T21:33:40" maxSheetId="5" userName="USER-" r:id="rId220" minRId="661" maxRId="662">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CDC3AE72-0D61-46B1-9978-ABBB7721FB99}" dateTime="2016-11-22T14:07:03" maxSheetId="5" userName="USER-" r:id="rId221" minRId="663" maxRId="666">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4C75D68C-5311-41A3-85FE-D3FB3E02F77F}" dateTime="2016-11-22T22:14:59" maxSheetId="5" userName="USER-" r:id="rId222" minRId="667" maxRId="668">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{72C25289-A679-47FC-B7F4-721B08C01813}" dateTime="2016-11-23T08:32:22" maxSheetId="5" userName="USER-" r:id="rId223" minRId="669" maxRId="672">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{94773098-9024-42CB-AEAC-2767B5F233C1}" dateTime="2016-11-23T08:34:29" maxSheetId="5" userName="USER-" r:id="rId224" minRId="674" maxRId="675">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AC3BF305-8C8A-4410-872D-30F2FC523E79}" dateTime="2016-11-23T12:28:50" maxSheetId="5" userName="USER-" r:id="rId225" minRId="676" maxRId="679">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C6E08895-D731-4E38-BD43-F96D3AF212A1}" dateTime="2016-11-23T13:30:49" maxSheetId="5" userName="USER-" r:id="rId226" minRId="680" maxRId="681">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{54D26A5A-43EA-4396-AEA1-C15470D31F55}" dateTime="2016-11-23T14:12:06" maxSheetId="5" userName="USER-" r:id="rId227" minRId="682" maxRId="683">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4B9AE441-3D1A-4767-89CB-486C5069FAB9}" dateTime="2016-11-24T17:08:36" maxSheetId="5" userName="USER-" r:id="rId228" minRId="684" maxRId="692">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{25F5A5CE-C41E-4D14-860E-1D5DC1F15A69}" dateTime="2016-11-24T17:10:08" maxSheetId="5" userName="USER-" r:id="rId229" minRId="694" maxRId="697">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{411C194F-5045-48A0-9BC2-123BA9C3CACC}" dateTime="2016-11-24T17:11:46" maxSheetId="5" userName="USER-" r:id="rId230" minRId="698" maxRId="701">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{691E34C0-4AA5-4743-9BE0-9C8C7CD38C62}" dateTime="2016-11-24T20:26:57" maxSheetId="5" userName="USER-" r:id="rId231" minRId="702" maxRId="703">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2F597C32-9C59-464B-89DF-3B7DC66C389B}" dateTime="2016-11-24T20:27:18" maxSheetId="5" userName="USER-" r:id="rId232" minRId="704">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5DA1AD3D-7540-43C7-A210-00315242C7D8}" dateTime="2016-11-24T20:36:59" maxSheetId="5" userName="USER-" r:id="rId233" minRId="705">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{67BC767B-F430-458D-9639-1E39EA37289F}" dateTime="2016-11-24T22:37:35" maxSheetId="5" userName="USER-" r:id="rId234" minRId="706">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9836978F-9C92-4909-A3E1-4899F2ECC4D2}" dateTime="2016-11-24T22:38:14" maxSheetId="5" userName="USER-" r:id="rId235" minRId="707" maxRId="708">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5D656395-7238-40E2-A696-A833E32A9B63}" dateTime="2016-11-24T22:40:50" maxSheetId="5" userName="USER-" r:id="rId236" minRId="709" maxRId="710">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E108EFB7-7A70-489E-AB9E-8C595AD24BBF}" dateTime="2016-11-24T22:42:20" maxSheetId="5" userName="USER-" r:id="rId237" minRId="711" maxRId="712">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{32F5E53F-0DE7-4889-843F-BA61FF6621FE}" dateTime="2016-11-25T19:08:09" maxSheetId="5" userName="USER-" r:id="rId238" minRId="713" maxRId="716">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{780E378E-DCDD-46A2-982E-AE278DD4FB0B}" dateTime="2016-11-25T19:11:23" maxSheetId="5" userName="USER-" r:id="rId239" minRId="718">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{29A4E9EB-FEC9-4E59-9B75-EB714D0EC4F9}" dateTime="2016-11-25T19:22:34" maxSheetId="5" userName="USER-" r:id="rId240" minRId="719" maxRId="720">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F6E467C4-6132-4AEB-8706-D057BCC51BD3}" dateTime="2016-11-25T19:53:08" maxSheetId="5" userName="USER-" r:id="rId241" minRId="721" maxRId="726">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0C6DC75D-D570-49F1-8357-DB2BF9A467B4}" dateTime="2016-11-25T20:05:31" maxSheetId="5" userName="USER-" r:id="rId242" minRId="727" maxRId="728">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DDA2B1E7-0E2C-4222-8AB3-95F88073DC34}" dateTime="2016-11-25T20:26:22" maxSheetId="5" userName="USER-" r:id="rId243" minRId="729" maxRId="730">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{86B3FF3C-FA39-42CB-BBE3-0F118507DAF9}" dateTime="2016-11-25T21:15:45" maxSheetId="5" userName="USER-" r:id="rId244" minRId="731" maxRId="732">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AD0CE64A-9E20-4591-99B8-BD480A98059E}" dateTime="2016-11-25T22:27:11" maxSheetId="5" userName="USER-" r:id="rId245" minRId="733" maxRId="734">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{28F2AE59-1F20-4D40-9BC2-6C239B90A389}" dateTime="2016-11-27T08:57:38" maxSheetId="5" userName="USER-" r:id="rId246" minRId="735" maxRId="738">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ACF4E096-3C37-49FC-8A0E-6D929E078395}" dateTime="2016-11-27T12:43:29" maxSheetId="5" userName="USER-" r:id="rId247" minRId="739" maxRId="740">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DEE1808B-F2FD-4FDB-A0E8-00D536D639F2}" dateTime="2016-11-27T13:07:47" maxSheetId="5" userName="USER-" r:id="rId248" minRId="741" maxRId="742">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{468F659E-2FB0-419B-B3E6-04ABB8DF1658}" dateTime="2016-11-27T13:09:04" maxSheetId="5" userName="USER-" r:id="rId249" minRId="743" maxRId="744">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5131772C-F321-457F-BB0C-2ECDB849FC77}" dateTime="2016-11-28T08:59:06" maxSheetId="5" userName="USER-" r:id="rId250" minRId="745" maxRId="748">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C69A0C7F-3F42-4581-B0AC-4CA532EC8B8C}" dateTime="2016-11-28T08:59:17" maxSheetId="5" userName="USER-" r:id="rId251" minRId="749">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9680C142-7D23-44D2-897F-4923938A66DC}" dateTime="2016-11-28T09:10:01" maxSheetId="5" userName="USER-" r:id="rId252" minRId="750" maxRId="751">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E986B91F-6100-4AFB-9B82-4A4410C349D7}" dateTime="2016-11-29T09:04:43" maxSheetId="5" userName="USER-" r:id="rId253" minRId="752" maxRId="755">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{14A3A0A1-E755-4115-8712-03D597C1B966}" dateTime="2016-11-29T09:05:09" maxSheetId="5" userName="USER-" r:id="rId254" minRId="756">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3373B0E-EAA8-4A13-9F38-9993D03515D0}" dateTime="2016-11-29T09:14:19" maxSheetId="5" userName="USER-" r:id="rId255" minRId="757" maxRId="758">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{21FB0C76-88B6-4C1E-8BAE-646206FC839A}" dateTime="2016-11-29T09:14:55" maxSheetId="5" userName="USER-" r:id="rId256" minRId="759" maxRId="760">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{91816383-5394-4D37-8C94-9C782543F91B}" dateTime="2016-11-29T09:16:35" maxSheetId="5" userName="USER-" r:id="rId257" minRId="761">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C84BCDE9-32FB-4AD6-AA1A-71FA6EB06C2F}" dateTime="2016-11-29T09:18:21" maxSheetId="5" userName="USER-" r:id="rId258" minRId="762">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82F2BF00-FE19-4EB9-9EDE-56322E7CF1DD}" dateTime="2016-11-29T09:55:38" maxSheetId="5" userName="USER-" r:id="rId259" minRId="763" maxRId="765">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{A0636AE7-08B3-4FD2-A3A4-2182679E9676}" dateTime="2016-11-29T09:58:17" maxSheetId="5" userName="USER-" r:id="rId260" minRId="766">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9CD23562-6C3D-49D7-ABE8-D73F47E20FCD}" dateTime="2016-11-29T10:35:57" maxSheetId="5" userName="USER-" r:id="rId261" minRId="767" maxRId="768">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{ABCD64C3-675F-48EE-B5AD-790BE03266F8}" dateTime="2016-11-29T10:49:02" maxSheetId="5" userName="USER-" r:id="rId262" minRId="769" maxRId="773">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BF258022-6BB9-4DA5-A4F5-8ADE7D215F8D}" dateTime="2016-11-29T10:52:38" maxSheetId="5" userName="USER-" r:id="rId263" minRId="774" maxRId="775">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F9D443C4-3058-45E1-B1DC-FF7C74F40D88}" dateTime="2016-11-30T14:07:53" maxSheetId="5" userName="USER-" r:id="rId264" minRId="776" maxRId="778">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{78297895-9404-4CE6-8D95-68300EA0FDCF}" dateTime="2016-11-30T14:08:05" maxSheetId="5" userName="USER-" r:id="rId265" minRId="779" maxRId="780">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{94D90FDE-8856-41F2-B479-78CC453E0901}" dateTime="2016-11-30T14:08:24" maxSheetId="5" userName="USER-" r:id="rId266" minRId="781" maxRId="782">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7007EC2-D103-418D-B5A3-7471950973F7}" dateTime="2016-11-30T18:33:31" maxSheetId="5" userName="USER-" r:id="rId267" minRId="783" maxRId="784">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9857213D-3366-43B3-AD48-706CF2BA474C}" dateTime="2016-11-30T18:34:17" maxSheetId="5" userName="USER-" r:id="rId268">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{203F54EC-73A9-4B25-BBD6-61808F5DB453}" dateTime="2016-12-01T08:38:11" maxSheetId="5" userName="USER-" r:id="rId269" minRId="785">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2E283730-56DA-4BF8-B348-827BEC931DE4}" dateTime="2016-12-01T08:38:28" maxSheetId="5" userName="USER-" r:id="rId270" minRId="786" maxRId="787">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA5B35A3-FDD3-460D-BEB5-B4A0E8593DDB}" dateTime="2016-12-01T09:15:22" maxSheetId="5" userName="USER-" r:id="rId271" minRId="788" maxRId="789">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C3763654-4974-4DB3-8011-B65CE4A577F5}" dateTime="2016-12-01T09:17:07" maxSheetId="5" userName="USER-" r:id="rId272" minRId="790" maxRId="791">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DBCEB9F4-2C75-417C-A38B-3ACFF57D891E}" dateTime="2016-12-01T09:19:17" maxSheetId="5" userName="USER-" r:id="rId273" minRId="792" maxRId="793">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DFD0FBB8-4A61-4508-96A4-809AAD08F93D}" dateTime="2016-12-01T15:29:27" maxSheetId="5" userName="USER-" r:id="rId274" minRId="794" maxRId="795">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4F27480D-F4AE-4173-A258-3223566E02D4}" dateTime="2016-12-01T15:30:09" maxSheetId="5" userName="USER-" r:id="rId275" minRId="796">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{18A95B21-6952-420C-83BF-ADC05AC58A9D}" dateTime="2016-12-01T20:03:52" maxSheetId="5" userName="USER-" r:id="rId276" minRId="797" maxRId="798">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{75B687C5-5D7A-4A98-B9F7-2F43BAA9B760}" dateTime="2016-12-01T20:09:38" maxSheetId="5" userName="USER-" r:id="rId277" minRId="799">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EB74A3D5-8417-4B70-B820-AC5823B27A09}" dateTime="2016-12-01T20:11:23" maxSheetId="5" userName="USER-" r:id="rId278" minRId="800">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CDF7D08F-2163-4851-8990-29631627024A}" dateTime="2016-12-01T21:41:34" maxSheetId="5" userName="USER-" r:id="rId279" minRId="801" maxRId="802">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BBD1EC19-99D2-45C9-AB18-A1DF12C61EFD}" dateTime="2016-12-02T13:34:09" maxSheetId="5" userName="USER-" r:id="rId280" minRId="803" maxRId="804">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB805BF2-1BB8-4B8F-9188-5A3D512B4D1A}" dateTime="2016-12-02T14:00:05" maxSheetId="5" userName="USER-" r:id="rId281" minRId="805" maxRId="806">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C515E0C4-E586-4C69-9690-F964565E2CD5}" dateTime="2016-12-02T14:13:59" maxSheetId="5" userName="USER-" r:id="rId282" minRId="807">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{16EBD274-BD9F-4216-829D-44D26EFB2330}" dateTime="2016-12-03T19:17:36" maxSheetId="5" userName="USER-" r:id="rId283" minRId="808" maxRId="811">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F4C32F28-13B2-422F-B613-C9448B25B2AA}" dateTime="2016-12-04T09:45:56" maxSheetId="5" userName="USER-" r:id="rId284" minRId="812" maxRId="816">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7925FFAF-97D3-4820-BBB4-93B6C4166C93}" dateTime="2016-12-04T10:04:49" maxSheetId="5" userName="USER-" r:id="rId285" minRId="817" maxRId="818">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F1108A96-E81D-4167-B086-973F955CA5B2}" dateTime="2016-12-04T10:37:01" maxSheetId="5" userName="USER-" r:id="rId286" minRId="819" maxRId="822">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9EC0A334-A5D2-4A2D-A7AA-EAA23FA84321}" dateTime="2016-12-04T10:39:30" maxSheetId="5" userName="USER-" r:id="rId287" minRId="823">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AAC2876C-5614-42F8-B9A7-D4ED319DDD48}" dateTime="2016-12-04T10:47:32" maxSheetId="5" userName="USER-" r:id="rId288" minRId="824" maxRId="826">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7330B9DA-4305-4D92-8A33-90CF5BEC1BE1}" dateTime="2016-12-04T14:16:46" maxSheetId="5" userName="USER-" r:id="rId289" minRId="827" maxRId="828">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{848D9BC5-1891-4E0B-8B3F-A1E38484550A}" dateTime="2016-12-04T15:51:58" maxSheetId="5" userName="USER-" r:id="rId290" minRId="829" maxRId="830">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3FE81399-E1D9-4710-B5E0-A8B0C0BB93C2}" dateTime="2016-12-05T22:16:36" maxSheetId="5" userName="USER-" r:id="rId291" minRId="831" maxRId="832">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A6FA7F0-AC25-43EA-8F8D-A4EC0183FC6C}" dateTime="2016-12-05T22:16:59" maxSheetId="5" userName="USER-" r:id="rId292" minRId="834" maxRId="835">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{74D566D2-BDEE-4B63-81D5-42F8A269E637}" dateTime="2016-12-06T08:50:24" maxSheetId="5" userName="USER-" r:id="rId293" minRId="836">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{73F56117-E8C6-4E65-9A8A-306EF17D8409}" dateTime="2016-12-06T09:03:10" maxSheetId="5" userName="USER-" r:id="rId294" minRId="837" maxRId="838">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{87D8E562-47E0-48D5-92E6-84B0C502741F}" dateTime="2016-12-06T09:40:44" maxSheetId="5" userName="USER-" r:id="rId295" minRId="839" maxRId="841">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2C1C0501-D562-4AE0-8778-6FA486E07C6B}" dateTime="2016-12-06T10:52:46" maxSheetId="5" userName="USER-" r:id="rId296" minRId="842" maxRId="843">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D4FBDC80-133A-4416-9B1A-B1A71D1324AF}" dateTime="2016-12-06T16:56:56" maxSheetId="5" userName="USER-" r:id="rId297" minRId="844" maxRId="845">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4E7F8700-BEC5-4C28-BA08-7C77A5FD6737}" dateTime="2016-12-06T21:53:18" maxSheetId="5" userName="USER-" r:id="rId298" minRId="846">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{36C9A9D4-6484-44A9-8C85-6FBE0AE46F76}" dateTime="2016-12-06T22:33:19" maxSheetId="5" userName="USER-" r:id="rId299" minRId="847" maxRId="848">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{77BD2193-C72C-448E-BB7A-9A0AFC79045D}" dateTime="2016-12-06T22:34:53" maxSheetId="5" userName="USER-" r:id="rId300" minRId="849">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DCA877F1-4094-40C9-BCDF-A867776B979F}" dateTime="2016-12-06T22:39:00" maxSheetId="5" userName="USER-" r:id="rId301" minRId="850">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{01CB7B97-7E9C-4E70-BAC5-06E785A3C1C6}" dateTime="2016-12-07T08:33:17" maxSheetId="5" userName="USER-" r:id="rId302" minRId="851">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6A53F7D4-A9F3-4DA1-B2D9-4A3C5A95678F}" dateTime="2016-12-07T08:38:30" maxSheetId="5" userName="USER-" r:id="rId303" minRId="852" maxRId="853">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D2F35A0-8A5D-41E7-81DE-713D72B613E7}" dateTime="2016-12-07T08:38:50" maxSheetId="5" userName="USER-" r:id="rId304" minRId="854">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -2548,21 +3360,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog100.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="612" sId="1" eol="1" ref="A243:XFD243" action="insertRow"/>
-  <rcc rId="613" sId="1">
-    <nc r="A243" t="inlineStr">
+  <rrc rId="829" sId="1" eol="1" ref="A329:XFD329" action="insertRow"/>
+  <rcc rId="830" sId="1">
+    <nc r="A329" t="inlineStr">
       <is>
-        <t>平面轴对称磁场当中，H和B的方向是怎样的？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="614" sId="1">
-    <nc r="B243" t="inlineStr">
-      <is>
-        <t>应该是在平面里，</t>
+        <t>std::numeric_limits&lt;double&gt;::epsilon ()</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -2570,12 +3374,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog115.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog101.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="335" sId="1" eol="1" ref="A141:XFD141" action="insertRow"/>
-  <rcc rId="336" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A141">
-      <v>42657</v>
+  <rrc rId="831" sId="1" eol="1" ref="A330:XFD330" action="insertRow"/>
+  <rcc rId="832" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A330">
+      <v>42709</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2584,7 +3388,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A141:XFD141">
+  <rfmt sheetId="1" sqref="A330:XFD330">
     <dxf>
       <font>
         <b/>
@@ -2622,16 +3426,22 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$1:$A$322</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog116.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog102.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="337" sId="1" eol="1" ref="A142:XFD142" action="insertRow"/>
-  <rcc rId="338" sId="1">
-    <nc r="A142" t="inlineStr">
+  <rrc rId="834" sId="1" eol="1" ref="A331:XFD331" action="insertRow"/>
+  <rcc rId="835" sId="1">
+    <nc r="A331" t="inlineStr">
       <is>
-        <t>具体到编程实现，怎样处理很多的边界？怎样标记边界体、面、线、点，怎样实现高效？</t>
+        <t>qt是如何在运行时把dll路径加进去的？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -2639,13 +3449,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog103.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="339" sId="1" eol="1" ref="A143:XFD143" action="insertRow"/>
-  <rcc rId="340" sId="1">
-    <nc r="A143" t="inlineStr">
+  <rcc rId="836" sId="1">
+    <nc r="B331" t="inlineStr">
       <is>
-        <t>有限元里的自由度是什么概念？</t>
+        <t>好奇怪啊，在project的设置里面修改PATH似乎没有什么用，最后在QT5菜单里，选择convert to qt add-in project 然后就好了，有别的设置？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -2653,21 +3462,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog104.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="341" sId="1" eol="1" ref="A144:XFD144" action="insertRow"/>
-  <rcc rId="342" sId="1">
-    <nc r="A144" t="inlineStr">
+  <rrc rId="837" sId="1" eol="1" ref="A332:XFD332" action="insertRow"/>
+  <rcc rId="838" sId="1">
+    <nc r="A332" t="inlineStr">
       <is>
-        <t>Adams仿真的时候出现奇怪的弯曲</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="343" sId="1">
-    <nc r="B144" t="inlineStr">
-      <is>
-        <t>删掉导入时候带的一些乱七八糟的东西</t>
+        <t>convert project to Qmake project  和 convert to qt add-in project 有什么区别？？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -2675,12 +3476,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog119.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog105.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="344" sId="1" eol="1" ref="A145:XFD145" action="insertRow"/>
-  <rcc rId="345" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A145">
-      <v>42660</v>
+  <rrc rId="839" sId="1" eol="1" ref="A333:XFD333" action="insertRow"/>
+  <rcc rId="840" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A333">
+      <v>42710</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2689,7 +3490,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A145:XFD145">
+  <rfmt sheetId="1" sqref="A333:XFD333">
     <dxf>
       <font>
         <b/>
@@ -2727,6 +3528,313 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
+  <rcc rId="841" sId="1">
+    <nc r="B332" t="inlineStr">
+      <is>
+        <t>This is an ability of qmake to generate .vcproj from a .pro file. So you should read qmake documentation to create a right .pro file. Qt add-in的相关东西在它的安装目录。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog106.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A345" start="0" length="0">
+    <dxf>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A345" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A346" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A347" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A348" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A349" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A350" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A351" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A352" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A353" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A354" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A355" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" xfDxf="1" sqref="A356" start="0" length="0">
+    <dxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="842" sId="1" eol="1" ref="A334:XFD334" action="insertRow"/>
+  <rcc rId="843" sId="1">
+    <nc r="A334" t="inlineStr">
+      <is>
+        <t>FLUX当中怎么导出一个区域内的值？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog107.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="844" sId="1" eol="1" ref="A335:XFD335" action="insertRow"/>
+  <rcc rId="845" sId="1">
+    <nc r="A335" t="inlineStr">
+      <is>
+        <t>结果对不上啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog108.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="846" sId="1">
+    <nc r="B335" t="inlineStr">
+      <is>
+        <t>问题是FLUX没有A值，FEMM当中有不知道如何导出A值。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog109.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="847" sId="1" eol="1" ref="A336:XFD336" action="insertRow"/>
+  <rcc rId="848" sId="1">
+    <nc r="A336" t="inlineStr">
+      <is>
+        <t>MATLAb当中使用的是FEMM当中的公式，也许是没有完全的理解公式的含义，计算的结果感觉是2倍的关系，无解啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="612" sId="1" eol="1" ref="A243:XFD243" action="insertRow"/>
+  <rcc rId="613" sId="1">
+    <nc r="A243" t="inlineStr">
+      <is>
+        <t>平面轴对称磁场当中，H和B的方向是怎样的？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="614" sId="1">
+    <nc r="B243" t="inlineStr">
+      <is>
+        <t>应该是在平面里，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="849" sId="1">
+    <nc r="B336" t="inlineStr">
+      <is>
+        <t>还得再研究公式啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="850" sId="1">
+    <oc r="B336" t="inlineStr">
+      <is>
+        <t>还得再研究公式啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B336" t="inlineStr">
+      <is>
+        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="851" sId="1">
+    <oc r="B336" t="inlineStr">
+      <is>
+        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B336" t="inlineStr">
+      <is>
+        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。公式可能看错了，它只约去了pi，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="852" sId="1" eol="1" ref="A337:XFD337" action="insertRow"/>
+  <rcc rId="853" sId="1">
+    <nc r="A337" t="inlineStr">
+      <is>
+        <t>写总结，还得附上结果以及参考文献。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="854" sId="1">
+    <oc r="A337" t="inlineStr">
+      <is>
+        <t>写总结，还得附上结果以及参考文献。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A337" t="inlineStr">
+      <is>
+        <t>写总结，还得附上结果以及参考文献，应该做出一个这样的系统，感觉更像网站的风格。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -2742,505 +3850,6 @@
     <nc r="B243" t="inlineStr">
       <is>
         <t>应该是在平面里，H更类似于电路里面的电压，而B类似于电流，取决于材料的属性，H是由电流产生的，不同的材料，磁导率不一样，这样产生的B不一样，也就是材料本身感受到的不一样。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog120.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="346" sId="1" eol="1" ref="A146:XFD146" action="insertRow"/>
-  <rcc rId="347" sId="1">
-    <nc r="A146" t="inlineStr">
-      <is>
-        <t>平台从哪一个点开始入手？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog121.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="348" sId="1" eol="1" ref="A147:XFD147" action="insertRow"/>
-  <rcc rId="349" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A147">
-      <v>42663</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A147:XFD147">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="350" sId="1" eol="1" ref="A148:XFD148" action="insertRow"/>
-  <rcc rId="351" sId="1">
-    <nc r="A148" t="inlineStr">
-      <is>
-        <t>how to rearrange the global matrix?especially when it comes to sparse matrix?</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog122.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="352" sId="1">
-    <nc r="B148" t="inlineStr">
-      <is>
-        <t>用matlab的时候，不是稀疏矩阵，可以在装配的时候处理吧？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog123.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="353" sId="1" eol="1" ref="A149:XFD149" action="insertRow"/>
-  <rcc rId="354" sId="1">
-    <nc r="A149" t="inlineStr">
-      <is>
-        <t>第一次求出来的电势的分布不对。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog124.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="355" sId="1" eol="1" ref="A150:XFD150" action="insertRow"/>
-  <rcc rId="356" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A150">
-      <v>42664</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A150:XFD150">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="357" sId="1" eol="1" ref="A151:XFD151" action="insertRow"/>
-  <rcc rId="358" sId="1">
-    <nc r="A151" t="inlineStr">
-      <is>
-        <t>含有边界的有限元方程组的右项是怎么得到的？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog125.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="359" sId="1" eol="1" ref="A152:XFD152" action="insertRow"/>
-  <rcc rId="360" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A152">
-      <v>42666</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A152:XFD152">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="361" sId="1" eol="1" ref="A153:XFD153" action="insertRow"/>
-  <rcc rId="362" sId="1">
-    <nc r="A153" t="inlineStr">
-      <is>
-        <t>nonlinear partial differential equations</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog126.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="363" sId="1">
-    <nc r="B153" t="inlineStr">
-      <is>
-        <t>非线性项指的是某一项的变化率不是线性的，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog127.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="364" sId="1" eol="1" ref="A154:XFD154" action="insertRow"/>
-  <rcc rId="365" sId="1">
-    <nc r="A154" t="inlineStr">
-      <is>
-        <t>找到一个开源程序</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="366" sId="1">
-    <nc r="B154" t="inlineStr">
-      <is>
-        <t>https://fenicsproject.org/documentation/tutorial/nonlinear.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog128.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="367" sId="1" eol="1" ref="A155:XFD155" action="insertRow"/>
-  <rcc rId="368" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A155">
-      <v>42667</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A155:XFD155">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="369" sId="1" eol="1" ref="A156:XFD156" action="insertRow"/>
-  <rcc rId="370" sId="1">
-    <nc r="A156" t="inlineStr">
-      <is>
-        <t xml:space="preserve">Section 2 part A and B should be explained in more detail. I’m missing the discretisation process, the used shape function, etc. </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="371" sId="1" eol="1" ref="A157:XFD157" action="insertRow"/>
-  <rcc rId="372" sId="1">
-    <nc r="A157" t="inlineStr">
-      <is>
-        <t>A further clarification with regard on the implementation of the TLM in the FE method would still be useful.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="373" sId="1" eol="1" ref="A158:XFD158" action="insertRow"/>
-  <rcc rId="374" sId="1">
-    <nc r="A158" t="inlineStr">
-      <is>
-        <t>A comparison between the original reluctivity matrix and the reluctivity matrix in the TLM FEM for the axisymmetric case would be insightful.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="375" sId="1" eol="1" ref="A159:XFD159" action="insertRow"/>
-  <rcc rId="376" sId="1">
-    <nc r="A159" t="inlineStr">
-      <is>
-        <t>Page 2 Y is the admittance matrix while on page 3 it is the stiffness matrix</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="377" sId="1" eol="1" ref="A160:XFD160" action="insertRow"/>
-  <rcc rId="378" sId="1">
-    <nc r="A160" t="inlineStr">
-      <is>
-        <t xml:space="preserve">Page 2 it would be easier to give the index to the used component of the magnetic vector component </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="379" sId="1" eol="1" ref="A161:XFD161" action="insertRow"/>
-  <rcc rId="380" sId="1">
-    <nc r="A161" t="inlineStr">
-      <is>
-        <t>A typo: first page, line 42 “sped up” should be “speed up”</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog129.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="381" sId="1" eol="1" ref="A162:XFD162" action="insertRow"/>
-  <rcc rId="382" sId="1">
-    <nc r="A162" t="inlineStr">
-      <is>
-        <t>Review IEEE Magnetic aims and scope, it was focused on basic physics and engineering of magnetism, magnetic materials, applied magnetics, magnetic devices, and magnetic data storage, respectively. However, this study is to show a lots of results in reduction of computational time. Actually, it was seldom to discuss electromagnetic device in nonlinear axisymmetric magnetostatic results.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="383" sId="1" eol="1" ref="A163:XFD163" action="insertRow"/>
-  <rcc rId="384" sId="1">
-    <nc r="A163" t="inlineStr">
-      <is>
-        <t>TLM method and FEA application are already discussed in last decade, please, this paper should be shown more contribution and to satisfy the field of J. Magn.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="385" sId="1" eol="1" ref="A164:XFD164" action="insertRow"/>
-  <rcc rId="386" sId="1">
-    <nc r="A164" t="inlineStr">
-      <is>
-        <t xml:space="preserve">According to the Figure 6 result compared to the Figure 7, please, to show more clear and get more explanation, such as initial condition and electromagnetic device model structure definition, etc. </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="387" sId="1" eol="1" ref="A165:XFD165" action="insertRow"/>
-  <rcc rId="388" sId="1">
-    <nc r="A165" t="inlineStr">
-      <is>
-        <t xml:space="preserve">In Figures 9 and 11, it should be compared N-R and TLM solution in FEA results could be obtained correcting results in this study. </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="389" sId="1" eol="1" ref="A166:XFD166" action="insertRow"/>
-  <rcc rId="390" sId="1">
-    <nc r="A166" t="inlineStr">
-      <is>
-        <t xml:space="preserve">In Figures 12, 13 and 14, it was only shown how to get more faster computational efficiency and saving calculation time, however, electromagnetic device in nonlinear magnetostatic consideration to compare a prototype of development device, will be more appropriated for IEEE J. of Magnetics if this study has made a revision and fully consideration. </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="391" sId="1" eol="1" ref="A167:XFD167" action="insertRow"/>
-  <rcc rId="392" sId="1">
-    <nc r="A167" t="inlineStr">
-      <is>
-        <t>In Figure 10, B-H curve of DT4E material should be defined measurement method and equipment application, it might be related with formula 18.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="393" sId="1" eol="1" ref="A168:XFD168" action="insertRow"/>
-  <rcc rId="394" sId="1">
-    <nc r="A168" t="inlineStr">
-      <is>
-        <t xml:space="preserve">English and grammar, please, make more consider and revise, for example, in Section I introduction, row of 45, [1-3] proposed a parallel...., should be revised, also included in row of 48, 25, 36, 42 in grammar writing, etc. </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="395" sId="1" eol="1" ref="A169:XFD169" action="insertRow"/>
-  <rcc rId="396" sId="1">
-    <nc r="A169" t="inlineStr">
-      <is>
-        <t>In Section 3, which is the main contribution of the paper, the authors describe a contactor and aims to present that treating the nonlinearity by TLM is more efficient than using the traditional Newton-Raphson (N-R) method. Unfortunately, this presentation is not clear/satisfactory.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="397" sId="1" eol="1" ref="A170:XFD170" action="insertRow"/>
-  <rcc rId="398" sId="1">
-    <nc r="A170" t="inlineStr">
-      <is>
-        <t>In Fig. 8 there are flat triangles, which makes the approximation error high, thus, the solution in Fig. 11 might be far from real. Please discretize both the coarse and fine problem again while preserving shape-regularity (minimum angle condition) of the triangles. Correspondingly recalculate all the results depicted in Figs. 11-14.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="399" sId="1" eol="1" ref="A171:XFD171" action="insertRow"/>
-  <rcc rId="400" sId="1">
-    <nc r="A171" t="inlineStr">
-      <is>
-        <t>In Fig. 12 it is not clear whether you preconditioned N-R on the coarse grid or not. If not, please do so to make the comparison fair.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="401" sId="1" eol="1" ref="A172:XFD172" action="insertRow"/>
-  <rcc rId="402" sId="1">
-    <nc r="A172" t="inlineStr">
-      <is>
-        <t>What is the size of the coarse problem? In Fig. 12 the N-R preconditioner is taking about 0.2 second, which would mean that the coarse problem is much smaller than 42536 elements, see the last N-R bar in Fig. 14.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="403" sId="1" eol="1" ref="A173:XFD173" action="insertRow"/>
-  <rcc rId="404" sId="1">
-    <nc r="A173" t="inlineStr">
-      <is>
-        <t>Please give all the numbers of iterations of the two-level N-R as well as the two-level NR-TLM on both coarse and fine grid.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="405" sId="1" eol="1" ref="A174:XFD174" action="insertRow"/>
-  <rcc rId="406" sId="1">
-    <nc r="A174" t="inlineStr">
-      <is>
-        <t xml:space="preserve">If TLM is still winning, explain why it is so. In my experience, the combined Newton-multigrid (or 2-grid) method has always been the best choice for the quasi-linear FEM analysis. Resolving the nonlinearity typically takes a few (less than 10) Newton iterations. I do not understand why TLM replacing Newton could do the job better. </t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3303,321 +3912,6 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog130.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="407" sId="1">
-    <nc r="C156">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="408" sId="1">
-    <nc r="C157">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="409" sId="1">
-    <nc r="C158">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="410" sId="1">
-    <nc r="C159">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="411" sId="1">
-    <nc r="C160">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="412" sId="1">
-    <nc r="C161">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="413" sId="1">
-    <nc r="C162">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="414" sId="1">
-    <nc r="C163">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="415" sId="1">
-    <nc r="C164">
-      <v>9</v>
-    </nc>
-  </rcc>
-  <rcc rId="416" sId="1">
-    <nc r="C165">
-      <v>10</v>
-    </nc>
-  </rcc>
-  <rcc rId="417" sId="1">
-    <nc r="C166">
-      <v>11</v>
-    </nc>
-  </rcc>
-  <rcc rId="418" sId="1">
-    <nc r="C167">
-      <v>12</v>
-    </nc>
-  </rcc>
-  <rcc rId="419" sId="1">
-    <nc r="C168">
-      <v>13</v>
-    </nc>
-  </rcc>
-  <rcc rId="420" sId="1">
-    <nc r="C169">
-      <v>14</v>
-    </nc>
-  </rcc>
-  <rcc rId="421" sId="1">
-    <nc r="C170">
-      <v>15</v>
-    </nc>
-  </rcc>
-  <rcc rId="422" sId="1">
-    <nc r="C171">
-      <v>16</v>
-    </nc>
-  </rcc>
-  <rcc rId="423" sId="1">
-    <nc r="C172">
-      <v>17</v>
-    </nc>
-  </rcc>
-  <rcc rId="424" sId="1">
-    <nc r="C173">
-      <v>18</v>
-    </nc>
-  </rcc>
-  <rcc rId="425" sId="1">
-    <nc r="C174">
-      <v>19</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="426" sId="1">
-    <nc r="B156" t="inlineStr">
-      <is>
-        <t>将A、B两部分阐述的更加清楚一些，尤其是离散过程，使用的形函数等。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="427" sId="1">
-    <nc r="B157" t="inlineStr">
-      <is>
-        <t>有限元当中的TLM方法的实现应该阐述清楚一些。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A159:XFD159">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A161:XFD161">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="428" sId="1">
-    <nc r="B160" t="inlineStr">
-      <is>
-        <t>就是将泊松方程给化简掉。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="A160:XFD160">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog132.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="429" sId="1">
-    <nc r="B158" t="inlineStr">
-      <is>
-        <t>对比磁阻矩阵。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="430" sId="1">
-    <nc r="B159" t="inlineStr">
-      <is>
-        <t>歧义。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="431" sId="1">
-    <nc r="B161" t="inlineStr">
-      <is>
-        <t>语法错误。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="432" sId="1">
-    <nc r="B162" t="inlineStr">
-      <is>
-        <t>研究的侧重不符合杂志的主题。他认为减少了计算时间并不是杂志的topic之一。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog133.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="433" sId="1">
-    <nc r="B163" t="inlineStr">
-      <is>
-        <t>意思是这个TLM方法已经在上个十年讨论过了，文章的贡献不足以体现价值。但是他有可能混淆了这个方法，因为搜索文献的时候并没有搜索到很多相关的文献。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog134.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="434" sId="1">
-    <nc r="B164" t="inlineStr">
-      <is>
-        <t>TLM迭代原理图需要详细解释。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog135.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="435" sId="1">
-    <nc r="B165" t="inlineStr">
-      <is>
-        <t>结果的展示需要对比NR与TLM。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog136.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="436" sId="1">
-    <oc r="B165" t="inlineStr">
-      <is>
-        <t>结果的展示需要对比NR与TLM。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B165" t="inlineStr">
-      <is>
-        <t>结果的展示需要对比NR与TLM。这个句子读起来不通顺啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="437" sId="1">
-    <nc r="B166" t="inlineStr">
-      <is>
-        <t>这个对比时间不是他想要的结果。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog137.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="438" sId="1">
-    <nc r="B167" t="inlineStr">
-      <is>
-        <t>BH曲线应该指明测量方法？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog138.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A168:XFD168">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rcc rId="439" sId="1">
-    <nc r="B168" t="inlineStr">
-      <is>
-        <t>语法错误。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="440" sId="1">
-    <nc r="B169" t="inlineStr">
-      <is>
-        <t>在他看来，TLM原理并没有阐释的很清楚。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog139.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="441" sId="1">
-    <nc r="B170" t="inlineStr">
-      <is>
-        <t>什么是Flat Triangle？第一、图8当中粗糙的分网只是一种为了读者看得更明白的示意图，实际处理会精细些；第二、这个粗糙分网得到的计算值，决定的是计算的收敛速率，不影响计算精度。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="618" sId="1" eol="1" ref="A245:XFD245" action="insertRow"/>
@@ -3660,18 +3954,40 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="442" sId="1">
-    <oc r="B170" t="inlineStr">
+  <rcc rId="621" sId="1">
+    <oc r="B245" t="inlineStr">
       <is>
-        <t>什么是Flat Triangle？第一、图8当中粗糙的分网只是一种为了读者看得更明白的示意图，实际处理会精细些；第二、这个粗糙分网得到的计算值，决定的是计算的收敛速率，不影响计算精度。</t>
+        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </oc>
-    <nc r="B170" t="inlineStr">
+    <nc r="B245" t="inlineStr">
       <is>
-        <t>什么是Flat Triangle？第一、图8当中粗糙的分网只是一种为了读者看得更明白的示意图，实际处理会精细些；第二、这个粗糙分网得到的计算值，决定的是计算的收敛速率，不影响计算精度。他的建议是重新分网。重新计算结果。啊啊啊啊啊</t>
+        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。
+永磁体的材料种类原则上不受任何限制 ,既可以是钕铁硼、钐钴等高性能永磁材料 ,也可以是铝镍
+钴、铁氧体、铁铬钴等磁性能较低的永磁材料 ;既可以是各向异性磁体 ,也可以是各向同性磁体。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="623" sId="1" eol="1" ref="A246:XFD246" action="insertRow"/>
+  <rcc rId="624" sId="1">
+    <nc r="A246" t="inlineStr">
+      <is>
+        <t>BH曲线是什么意思？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3679,191 +3995,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="443" sId="1">
-    <nc r="B171" t="inlineStr">
-      <is>
-        <t>NR也需要precondition。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog142.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="444" sId="1">
-    <nc r="B172" t="inlineStr">
-      <is>
-        <t>想知道粗分网的规模是多大。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="445" sId="1">
-    <nc r="B173" t="inlineStr">
-      <is>
-        <t>想要知道迭代步数。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="446" sId="1">
-    <nc r="B174" t="inlineStr">
-      <is>
-        <t>解释TLM比NR快的原因。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog143.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="447" sId="1">
-    <oc r="B174" t="inlineStr">
-      <is>
-        <t>解释TLM比NR快的原因。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B174" t="inlineStr">
-      <is>
-        <t>解释TLM比NR快的原因。少于10步，然后再加上precondition的话，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog144.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="448" sId="1">
-    <oc r="B174" t="inlineStr">
-      <is>
-        <t>解释TLM比NR快的原因。少于10步，然后再加上precondition的话，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B174" t="inlineStr">
-      <is>
-        <t>解释TLM比NR快的原因。少于10步，然后再加上precondition的话，可能会差不多，不知道他的问题是什么规模。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog145.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A173:XFD173">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A172:XFD172">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog146.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A158:XFD158">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A162:XFD162">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A163:XFD163">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A166:XFD166">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A167:XFD167">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog147.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="449" sId="1">
-    <oc r="A162" t="inlineStr">
-      <is>
-        <t>Review IEEE Magnetic aims and scope, it was focused on basic physics and engineering of magnetism, magnetic materials, applied magnetics, magnetic devices, and magnetic data storage, respectively. However, this study is to show a lots of results in reduction of computational time. Actually, it was seldom to discuss electromagnetic device in nonlinear axisymmetric magnetostatic results.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A162" t="inlineStr">
-      <is>
-        <r>
-          <t xml:space="preserve">Review IEEE Magnetic aims and scope, it was focused on basic physics and engineering of magnetism, magnetic materials, applied magnetics, magnetic devices, and magnetic data storage, respectively. However, this study is to show a lots of results in reduction of computational time. </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FFC00000"/>
-            <rFont val="方正报宋简体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Actually, it was seldom to discuss electromagnetic device in nonlinear axisymmetric magnetostatic results.</t>
-        </r>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="450" sId="1" eol="1" ref="A175:XFD175" action="insertRow"/>
-  <rcc rId="451" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A175">
-      <v>42668</v>
+  <rrc rId="625" sId="1" eol="1" ref="A247:XFD247" action="insertRow"/>
+  <rcc rId="626" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A247">
+      <v>42686</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3872,7 +4009,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A175:XFD175">
+  <rfmt sheetId="1" sqref="A247:XFD247">
     <dxf>
       <font>
         <b/>
@@ -3910,87 +4047,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="452" sId="1" eol="1" ref="A176:XFD176" action="insertRow"/>
-  <rcc rId="453" sId="1">
-    <nc r="A176" t="inlineStr">
+  <rrc rId="627" sId="1" eol="1" ref="A248:XFD248" action="insertRow"/>
+  <rcc rId="628" sId="1">
+    <nc r="A248" t="inlineStr">
       <is>
-        <t>也许审稿人只是没看懂我所说的。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog148.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="454" sId="1" eol="1" ref="A177:XFD177" action="insertRow"/>
-  <rcc rId="455" sId="1">
-    <nc r="A177" t="inlineStr">
-      <is>
-        <t>有限元分网需要注意</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="456" sId="1">
-    <nc r="B177" t="inlineStr">
-      <is>
-        <t>Mesh generation has certain rules that must be followed at all times:
-• For a triangular mesh, the shape of triangles must be close to equilateral.
-• For a quadrilateral mesh, the shape of quadrilaterals must be close to square.
-• Nodes must appear at source points.
-• The ﬁnite element mesh must accurately represent the geometrical domain of the
-problem.
-• In regions where the solution is expected to have large variations, the elements must be
-sufﬁciently small.
-• Avoid elements with very large aspect ratios, i.e., the ratio of the largest side to the
-smallest side.
-• Number the nodes in ascending order starting from 1. The numbering of the nodes
-directly affects the bandwidth of the global matrix.
-• There must be no overlap of elements.
-• Neighboring elements must share a common edge.
-• An interior node (nonboundary node) must belong to at least three elements.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B177">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog149.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="457" sId="1" eol="1" ref="A178:XFD178" action="insertRow"/>
-  <rcc rId="458" sId="1">
-    <nc r="A178" t="inlineStr">
-      <is>
-        <t>paper里公式旁边的标点符号怎么加？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="621" sId="1">
-    <oc r="B245" t="inlineStr">
-      <is>
-        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B245" t="inlineStr">
-      <is>
-        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。
-永磁体的材料种类原则上不受任何限制 ,既可以是钕铁硼、钐钴等高性能永磁材料 ,也可以是铝镍
-钴、铁氧体、铁铬钴等磁性能较低的永磁材料 ;既可以是各向异性磁体 ,也可以是各向同性磁体。</t>
+        <t>只有永磁的模型，分别用femm和flux进行计算，看看结果能够差多少。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4001,935 +4062,6 @@
     <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
   </rdn>
   <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog150.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="459" sId="1" eol="1" ref="A179:XFD179" action="insertRow"/>
-  <rcc rId="460" sId="1">
-    <nc r="A179" t="inlineStr">
-      <is>
-        <t>软件操作过程要做好记录整理。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog151.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="461" sId="1">
-    <oc r="A179" t="inlineStr">
-      <is>
-        <t>软件操作过程要做好记录整理。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A179" t="inlineStr">
-      <is>
-        <t>软件操作过程要做好记录整理。不能不知道怎么一下就好使了。。，交给别人，不能马上做出来，给自己找麻烦。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog152.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="462" sId="1" eol="1" ref="A180:XFD180" action="insertRow"/>
-  <rcc rId="463" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A180">
-      <v>42670</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A180:XFD180">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="464" sId="1" eol="1" ref="A181:XFD181" action="insertRow"/>
-  <rcc rId="465" sId="1">
-    <nc r="A181" t="inlineStr">
-      <is>
-        <t>qt如何使用git？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="466" sId="1" eol="1" ref="A182:XFD182" action="insertRow"/>
-  <rcc rId="467" sId="1">
-    <nc r="A182" t="inlineStr">
-      <is>
-        <t>如何查看git目录？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog153.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="468" sId="1" eol="1" ref="A183:XFD183" action="insertRow"/>
-  <rcc rId="469" sId="1">
-    <nc r="A183" t="inlineStr">
-      <is>
-        <t>通过qtcreator的gui操作了版本控制，然后用命令行还可以继续进行控制吗？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog154.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="470" sId="1" eol="1" ref="A184:XFD184" action="insertRow"/>
-  <rcc rId="471" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A184">
-      <v>42671</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A184:XFD184">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="472" sId="1" eol="1" ref="A185:XFD185" action="insertRow"/>
-  <rcc rId="473" sId="1">
-    <nc r="A185" t="inlineStr">
-      <is>
-        <t>visio在圆当中添加圆心</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="474" sId="1">
-    <nc r="B185" t="inlineStr">
-      <is>
-        <t>添加一个连接点</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog155.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="475" sId="1" eol="1" ref="A186:XFD186" action="insertRow"/>
-  <rcc rId="476" sId="1">
-    <nc r="A186" t="inlineStr">
-      <is>
-        <t>如何在vision当中画任意曲线</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="477" sId="1">
-    <nc r="B186" t="inlineStr">
-      <is>
-        <t>连接线，选择曲线。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog156.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="478" sId="1" eol="1" ref="A187:XFD187" action="insertRow"/>
-  <rcc rId="479" sId="1">
-    <nc r="A187" t="inlineStr">
-      <is>
-        <t>visio当中粘贴的位置是跟随指针的。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$104:$D$104</formula>
-    <oldFormula>'Q&amp;A'!$A$104:$D$104</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog157.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="481" sId="1" eol="1" ref="A188:XFD188" action="insertRow"/>
-  <rcc rId="482" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A188">
-      <v>42673</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A188:XFD188">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="483" sId="1" eol="1" ref="A189:XFD189" action="insertRow"/>
-  <rcc rId="484" sId="1">
-    <nc r="A189" t="inlineStr">
-      <is>
-        <t>visio当中两条线段不用去调节端点对其，把他们trim掉，，多余线段删掉即可。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog158.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="485" sId="1" eol="1" ref="A190:XFD190" action="insertRow"/>
-  <rfmt sheetId="1" sqref="A190">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="486" sId="1">
-    <nc r="A190" t="inlineStr">
-      <is>
-        <t>2D Axisymmetric models have proven to be very valuable to the science and engineering communities, both in the past and currently, as first-cut evaluations of potential physical behavior under the influence of external stimuli. 
-The 2D Axisymmetric model responses and other such ancillary information are gathered and screened early in a project for initial evaluation and potentially for later use in building higher-dimensionality (3D) field-based (electrical, magnetic, etc.) models.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog159.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="487" sId="1" eol="1" ref="A191:XFD191" action="insertRow"/>
-  <rcc rId="488" sId="1">
-    <nc r="B191" t="inlineStr">
-      <is>
-        <t>tools-options-graph，鼠标放在user defined symbols下方，按ctrl+x,再去掉speed mode show watermark前的勾，点击ok,后边会出现提示save as origin's startup options，点“是”，如果再出现“C”保存关闭工程再打开就不会有“C”了。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="489" sId="1">
-    <nc r="A191" t="inlineStr">
-      <is>
-        <t>origin 软件绘图左侧出现一个大C</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="623" sId="1" eol="1" ref="A246:XFD246" action="insertRow"/>
-  <rcc rId="624" sId="1">
-    <nc r="A246" t="inlineStr">
-      <is>
-        <t>BH曲线是什么意思？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog160.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="490" sId="1" eol="1" ref="A192:XFD192" action="insertRow"/>
-  <rcc rId="491" sId="1">
-    <nc r="A192" t="inlineStr">
-      <is>
-        <t>origin导出图片去除白边</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="492" sId="1">
-    <nc r="B192" t="inlineStr">
-      <is>
-        <t>导出的时候，选择导出选项，border，0.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog161.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="493" sId="1" eol="1" ref="A193:XFD193" action="insertRow"/>
-  <rcc rId="494" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A193">
-      <v>42674</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A193:XFD193">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog162.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="495" sId="1" numFmtId="19">
-    <oc r="A193">
-      <v>42674</v>
-    </oc>
-    <nc r="A193">
-      <v>42676</v>
-    </nc>
-  </rcc>
-  <rrc rId="496" sId="1" eol="1" ref="A194:XFD194" action="insertRow"/>
-  <rcc rId="497" sId="1">
-    <nc r="A194" t="inlineStr">
-      <is>
-        <t>unicode-math</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="498" sId="1">
-    <nc r="B194" t="inlineStr">
-      <is>
-        <t>setmathfont{}</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="499" sId="1" eol="1" ref="A195:XFD195" action="insertRow"/>
-  <rcc rId="500" sId="1">
-    <nc r="A195" t="inlineStr">
-      <is>
-        <t>xelatex cannot find qtcore4.dll</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="501" sId="1">
-    <nc r="B195" t="inlineStr">
-      <is>
-        <t xml:space="preserve">copy it </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog163.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="502" sId="1" eol="1" ref="A196:XFD196" action="insertRow"/>
-  <rcc rId="503" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A196">
-      <v>42677</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rrc rId="504" sId="1" eol="1" ref="A197:XFD197" action="insertRow"/>
-  <rcc rId="505" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A197">
-      <v>42677</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A197:XFD197">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="506" sId="1" eol="1" ref="A198:XFD198" action="insertRow"/>
-  <rcc rId="507" sId="1">
-    <nc r="A198" t="inlineStr">
-      <is>
-        <t>新的迭代图有可能说明无解的情况</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="508" sId="1" eol="1" ref="A199:XFD199" action="insertRow"/>
-  <rcc rId="509" sId="1">
-    <nc r="A199" t="inlineStr">
-      <is>
-        <t>Ax=b如果无解的话，superLU怎么处理？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog164.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="510" sId="1" eol="1" ref="A200:XFD200" action="insertRow"/>
-  <rcc rId="511" sId="1">
-    <nc r="A200" t="inlineStr">
-      <is>
-        <t>xelatex的pdf也可以打开啊，点击右侧的adobe图标</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog165.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="512" sId="1" eol="1" ref="A201:XFD201" action="insertRow"/>
-  <rcc rId="513" sId="1">
-    <nc r="A201" t="inlineStr">
-      <is>
-        <t>tortoisegit追踪重命名</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="514" sId="1">
-    <nc r="B201" t="inlineStr">
-      <is>
-        <t>点击文件右键，选择它的菜单。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog166.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="515" sId="1" eol="1" ref="A202:XFD202" action="insertRow"/>
-  <rcc rId="516" sId="1">
-    <nc r="A202" t="inlineStr">
-      <is>
-        <t>在word2010中粘贴快捷键Ctrl+V不能用</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="517" sId="1">
-    <nc r="B202" t="inlineStr">
-      <is>
-        <t>在word中选中要复制的内容，按快捷键Ctrl+V粘贴不能用。而右击鼠标右键却能够粘贴上。可能是装上了MathType公式编辑器，而导致的冲突。可以看到在word的工具栏的MathType工具栏。解决粘贴快捷键Ctrl+V不能用的问题就是取消word和公式编辑器MathType的关联。点击word中左上角的文件，点击下面的选项，进入word选项。在word选项中，点击加载项，找到MathType Commands 6 For Word.dotm在下方的管理处选择模板，然后点击转到进行下一步操作。在模板和加载项的模板中，去掉MathType Commands 6 For Word.dotm前面的小勾，点击确定.然后就可以看到工具栏上的MathType工具不见了，再复制内容试试Ctrl+V快捷键就能用了！！</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$197:$C$197</formula>
-    <oldFormula>'Q&amp;A'!$A$104:$D$104</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog167.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="519" sId="1" eol="1" ref="A203:XFD203" action="insertRow"/>
-  <rcc rId="520" sId="1">
-    <nc r="A203" t="inlineStr">
-      <is>
-        <t>永磁、迭代收敛性、时间、</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog168.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="521" sId="1" eol="1" ref="A204:XFD204" action="insertRow"/>
-  <rcc rId="522" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A204">
-      <v>42678</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A204:XFD204">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="523" sId="1" eol="1" ref="A205:XFD205" action="insertRow"/>
-  <rcc rId="524" sId="1">
-    <nc r="A205" t="inlineStr">
-      <is>
-        <t>试试你蹲迭代法</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog169.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="525" sId="1" ref="A196:XFD196" action="deleteRow">
-    <rfmt sheetId="1" xfDxf="1" sqref="A196:XFD196" start="0" length="0">
-      <dxf>
-        <font>
-          <name val="方正报宋简体"/>
-          <family val="3"/>
-          <charset val="134"/>
-          <scheme val="none"/>
-        </font>
-        <alignment horizontal="center" wrapText="1"/>
-      </dxf>
-    </rfmt>
-    <rcc rId="0" sId="1" dxf="1" numFmtId="19">
-      <nc r="A196">
-        <v>42677</v>
-      </nc>
-      <ndxf>
-        <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      </ndxf>
-    </rcc>
-  </rrc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog170.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="526" sId="1" eol="1" ref="A205:XFD205" action="insertRow"/>
-  <rcc rId="527" sId="1">
-    <nc r="A205" t="inlineStr">
-      <is>
-        <t>通过TortoiseGit上传项目到GitHub</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="528" sId="1" eol="1" ref="A206:XFD206" action="insertRow"/>
-  <rcc rId="529" sId="1">
-    <nc r="A206" t="inlineStr">
-      <is>
-        <t>Latex怎么安装库？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="530" sId="1" eol="1" ref="A207:XFD207" action="insertRow"/>
-  <rcc rId="531" sId="1">
-    <nc r="A207" t="inlineStr">
-      <is>
-        <t>怎样让别人提交到github？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog171.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="532" sId="1" eol="1" ref="A208:XFD208" action="insertRow"/>
-  <rcc rId="533" sId="1">
-    <nc r="A208" t="inlineStr">
-      <is>
-        <t>如何用两台电脑使用一个github仓库</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="534" sId="1" eol="1" ref="A209:XFD209" action="insertRow"/>
-  <rcc rId="535" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A209">
-      <v>42680</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A209:XFD209">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="536" sId="1" eol="1" ref="A210:XFD210" action="insertRow"/>
-  <rcc rId="537" sId="1">
-    <nc r="A210" t="inlineStr">
-      <is>
-        <t>二分法程序里面有一个bug，少数的点不能匹配</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog172.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="538" sId="1">
-    <nc r="B210" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> miny = mymin(mymin(a,b),c);
-            /*binary search to find the index */
-            int bottom = 0, top = d34.size() - 1;
-            int position;
-            if(d34[bottom].x &lt;= minx &amp;&amp; d34[top].x &gt;= minx){
-                while(bottom &lt;= top){
-                    position = (bottom + top) &gt;&gt; 1;
-                    if(d34[position].x &gt;= minx &amp;&amp; d34[position - 1].x &lt; minx){
-                        break;
-                    }
-                    if(d34[position].x &lt; minx){
-                        bottom = position + 1;
-                    }else{
-                        top = position - 1;
-                    }
-                }
-            }</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog173.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="539" sId="1" eol="1" ref="A211:XFD211" action="insertRow"/>
-  <rcc rId="540" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A211">
-      <v>42681</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A211:XFD211">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="541" sId="1" eol="1" ref="A212:XFD212" action="insertRow"/>
-  <rcc rId="542" sId="1">
-    <nc r="A212" t="inlineStr">
-      <is>
-        <t>电磁力怎么算？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
 </revisions>
 </file>
 
@@ -5073,6 +4205,20 @@
     <nc r="A212" t="inlineStr">
       <is>
         <t>电磁力怎么算？永磁对铁芯的吸力怎么计算？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="630" sId="1" eol="1" ref="A249:XFD249" action="insertRow"/>
+  <rcc rId="631" sId="1">
+    <nc r="A249" t="inlineStr">
+      <is>
+        <t>要是张无忌存着求全之心，非练到尽善尽美不肯罢手，那么到最后关头便会走火入魔，不是疯癫痴呆，便致全身瘫痪，甚至自绝经脉而亡。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5225,6 +4371,70 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="632" sId="1" eol="1" ref="A250:XFD250" action="insertRow"/>
+  <rcc rId="633" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A250">
+      <v>42687</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A250:XFD250">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="634" sId="1" eol="1" ref="A251:XFD251" action="insertRow"/>
+  <rcc rId="635" sId="1">
+    <nc r="A251" t="inlineStr">
+      <is>
+        <t>画出三维轴对称的效果图，要用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="586" sId="1" eol="1" ref="A232:XFD232" action="insertRow"/>
@@ -5239,12 +4449,703 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="636" sId="1" eol="1" ref="A252:XFD252" action="insertRow"/>
+  <rcc rId="637" sId="1">
+    <nc r="A252" t="inlineStr">
+      <is>
+        <t>一切回到根本，麦克斯韦方程式。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="638" sId="1" eol="1" ref="A253:XFD253" action="insertRow"/>
+  <rcc rId="639" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A253">
+      <v>42688</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A253:XFD253">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="640" sId="1" numFmtId="19">
+    <oc r="A253">
+      <v>42688</v>
+    </oc>
+    <nc r="A253">
+      <v>42689</v>
+    </nc>
+  </rcc>
+  <rcc rId="641" sId="1">
+    <nc r="B248" t="inlineStr">
+      <is>
+        <t>通过比对发现，两个结果相差不大，所以可以利用FEMM当中的算法来进行永磁计算。另外FEMM的作者只有一个人啊，而且是某个公司的首席科学家。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="642" sId="1" eol="1" ref="A254:XFD254" action="insertRow"/>
+  <rcc rId="643" sId="1">
+    <nc r="A254" t="inlineStr">
+      <is>
+        <t>看懂了FEMM的程序！！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="644" sId="1" eol="1" ref="A255:XFD255" action="insertRow"/>
+  <rcc rId="645" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A255">
+      <v>42691</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A255:XFD255">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="646" sId="1" eol="1" ref="A256:XFD256" action="insertRow"/>
+  <rcc rId="647" sId="1">
+    <nc r="A256" t="inlineStr">
+      <is>
+        <t>确定了轴对称当中永磁的计算公式</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="648" sId="1">
+    <nc r="B256" t="inlineStr">
+      <is>
+        <t>用有限元法计算永磁电机磁场</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="649" sId="1" eol="1" ref="A257:XFD257" action="insertRow"/>
+  <rcc rId="650" sId="1">
+    <nc r="A257" t="inlineStr">
+      <is>
+        <t>Magnetic materials and 3D finite element modeling</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="652" sId="1">
+    <nc r="B257" t="inlineStr">
+      <is>
+        <t>小木虫上悬赏找到了！！！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="653" sId="1" eol="1" ref="A258:XFD258" action="insertRow"/>
+  <rcc rId="654" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A258">
+      <v>42695</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A258:XFD258">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="655" sId="1" eol="1" ref="A259:XFD259" action="insertRow"/>
+  <rcc rId="656" sId="1">
+    <nc r="A259" t="inlineStr">
+      <is>
+        <t>MS Project:怎么在甘特图里面现实任务名称?</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="657" sId="1">
+    <nc r="B259" t="inlineStr">
+      <is>
+        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="658" sId="1">
+    <oc r="B259" t="inlineStr">
+      <is>
+        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B259" t="inlineStr">
+      <is>
+        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。Formats</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="659" sId="1" eol="1" ref="A260:XFD260" action="insertRow"/>
+  <rcc rId="660" sId="1">
+    <nc r="A260" t="inlineStr">
+      <is>
+        <t>FLUX 怎么查看某一点的A值？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="588" sId="1">
     <nc r="B232" t="inlineStr">
       <is>
         <t>不介意</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="661" sId="1" eol="1" ref="A261:XFD261" action="insertRow"/>
+  <rcc rId="662" sId="1">
+    <nc r="A261" t="inlineStr">
+      <is>
+        <t>comsol下面的那几个磁场研究是什么区别？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="663" sId="1" eol="1" ref="A262:XFD262" action="insertRow"/>
+  <rcc rId="664" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A262">
+      <v>42696</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A262:XFD262">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="665" sId="1" eol="1" ref="A263:XFD263" action="insertRow"/>
+  <rcc rId="666" sId="1">
+    <nc r="A263" t="inlineStr">
+      <is>
+        <t>FEMM使用的基函数并不是线性的，所以不应该直接照搬它的永磁代码啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="667" sId="1" eol="1" ref="A264:XFD264" action="insertRow"/>
+  <rcc rId="668" sId="1">
+    <nc r="A264" t="inlineStr">
+      <is>
+        <t>调试FEMM的代码。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="669" sId="1" eol="1" ref="A265:XFD265" action="insertRow"/>
+  <rcc rId="670" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A265">
+      <v>42697</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A265:XFD265">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="671" sId="1" eol="1" ref="A266:XFD266" action="insertRow"/>
+  <rcc rId="672" sId="1">
+    <nc r="A266" t="inlineStr">
+      <is>
+        <t>SDI boundaries</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="674" sId="1" eol="1" ref="A267:XFD267" action="insertRow"/>
+  <rcc rId="675" sId="1">
+    <nc r="A267" t="inlineStr">
+      <is>
+        <t>查看view result的代码</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="676" sId="1" eol="1" ref="A268:XFD268" action="insertRow"/>
+  <rcc rId="677" sId="1">
+    <nc r="A268" t="inlineStr">
+      <is>
+        <t>// need this loop to avoid singularities.  This just puts something
+  // on the main diagonal of nodes that are on the r=0 line.
+  // The program later sets these nodes to zero, but it's good to
+  // for scaling reasons to grab entries from the neighboring diagonals
+  // rather than just setting these entries to 1 or something....
+  for(j=0;j&lt;3;j++)
+   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="678" sId="1" eol="1" ref="A269:XFD269" action="insertRow"/>
+  <rcc rId="679" sId="1">
+    <nc r="A269" t="inlineStr">
+      <is>
+        <t>突然想到了一个好主意，利用typora，然后建立新的跟踪模板。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="680" sId="1" eol="1" ref="A270:XFD270" action="insertRow"/>
+  <rcc rId="681" sId="1">
+    <nc r="A270" t="inlineStr">
+      <is>
+        <t>pandoc</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="682" sId="1">
+    <oc r="A266" t="inlineStr">
+      <is>
+        <t>SDI boundaries</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A266" t="inlineStr">
+      <is>
+        <t>SDI boundaries</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="683" sId="1">
+    <oc r="A268" t="inlineStr">
+      <is>
+        <t>// need this loop to avoid singularities.  This just puts something
+  // on the main diagonal of nodes that are on the r=0 line.
+  // The program later sets these nodes to zero, but it's good to
+  // for scaling reasons to grab entries from the neighboring diagonals
+  // rather than just setting these entries to 1 or something....
+  for(j=0;j&lt;3;j++)
+   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A268" t="inlineStr">
+      <is>
+        <t>// need this loop to avoid singularities.  This just puts something
+  // on the main diagonal of nodes that are on the r=0 line.
+  // The program later sets these nodes to zero, but it's good to
+  // for scaling reasons to grab entries from the neighboring diagonals
+  // rather than just setting these entries to 1 or something....
+  for(j=0;j&lt;3;j++)
+   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="684" sId="1" eol="1" ref="A271:XFD271" action="insertRow"/>
+  <rcc rId="685" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A271">
+      <v>42698</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A271:XFD271">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="686" sId="1" eol="1" ref="A272:XFD272" action="insertRow"/>
+  <rcc rId="687" sId="1">
+    <nc r="A272" t="inlineStr">
+      <is>
+        <t>在ubuntu下面安装了java</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="688" sId="1">
+    <nc r="B272" t="inlineStr">
+      <is>
+        <t>就是直接从Java官网下载安装包，然后解压，拷贝到一个目录，然后设置一下JAVA_HOME和CLASSPATH，就可以了。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="689" sId="1" eol="1" ref="A273:XFD273" action="insertRow"/>
+  <rcc rId="690" sId="1">
+    <nc r="A273" t="inlineStr">
+      <is>
+        <t>在ubuntu下面安装了smartgit，和另外一个Git。。感觉还好，总比单纯的命令强很多了。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="691" sId="1" eol="1" ref="A274:XFD274" action="insertRow"/>
+  <rcc rId="692" sId="1">
+    <nc r="A274" t="inlineStr">
+      <is>
+        <t>准备安装COMSOL linux，但是没有安装成功啊，说是缺少libwebgtk和什么LSB内核，不知道什么原因，暂时放弃。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="694" sId="1" eol="1" ref="A275:XFD275" action="insertRow"/>
+  <rcc rId="695" sId="1">
+    <nc r="A275" t="inlineStr">
+      <is>
+        <t>在ubuntu上面安装typora，结果那个下载命令不好使，在网上找到了一个下载链接，正在下载。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="696" sId="1" eol="1" ref="A276:XFD276" action="insertRow"/>
+  <rcc rId="697" sId="1">
+    <nc r="A276" t="inlineStr">
+      <is>
+        <t>在ubuntu上安装了一个下载工具，uget和aria2，安装很方便，按照官网照着做就很容易。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5289,6 +5190,224 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="698" sId="1" eol="1" ref="A277:XFD277" action="insertRow"/>
+  <rcc rId="699" sId="1">
+    <nc r="A277" t="inlineStr">
+      <is>
+        <t>git clone 了tortoisegit的源代码，准备研究研究，呵呵</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="700" sId="1" eol="1" ref="A278:XFD278" action="insertRow"/>
+  <rcc rId="701" sId="1">
+    <nc r="A278" t="inlineStr">
+      <is>
+        <t>研究了安装libwebgtk，没有搞明白，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="702" sId="1">
+    <nc r="B278" t="inlineStr">
+      <is>
+        <t>sudo apt-get install libwebkitgtk-1.0.0</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="703" sId="1">
+    <nc r="B275" t="inlineStr">
+      <is>
+        <t>https://typora.io/linux/typora_0.9.22_amd64.deb</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="704" sId="1">
+    <nc r="B274" t="inlineStr">
+      <is>
+        <t>sudo apt-get install lsb-core</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="705" sId="1">
+    <oc r="A278" t="inlineStr">
+      <is>
+        <t>研究了安装libwebgtk，没有搞明白，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A278" t="inlineStr">
+      <is>
+        <t>研究了安装libwebkitgtk，没有搞明白，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="706" sId="1">
+    <nc r="B273" t="inlineStr">
+      <is>
+        <t>自己解决不了的问题让别人去解决。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="707" sId="1" eol="1" ref="A279:XFD279" action="insertRow"/>
+  <rcc rId="708" sId="1">
+    <nc r="A279" t="inlineStr">
+      <is>
+        <t>感觉电流、磁化强度啥的，跟形函数也没有什么关系啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="709" sId="1" eol="1" ref="A280:XFD280" action="insertRow"/>
+  <rcc rId="710" sId="1">
+    <nc r="A280" t="inlineStr">
+      <is>
+        <t>FEMM里面单元矩阵为啥会有xy两个呢？我猜他把一个给拆分了，之前确实B是由Bx和By两个分量组合的。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="711" sId="1" eol="1" ref="A281:XFD281" action="insertRow"/>
+  <rcc rId="712" sId="1">
+    <nc r="A281" t="inlineStr">
+      <is>
+        <t>FEMM当中Hc处理的部分，平面的和轴对称的是2倍的关系，应该是乘以2pi的缘故吧，所以应该没错啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="713" sId="1" eol="1" ref="A282:XFD282" action="insertRow"/>
+  <rcc rId="714" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A282">
+      <v>42699</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A282:XFD282">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="715" sId="1" eol="1" ref="A283:XFD283" action="insertRow"/>
+  <rcc rId="716" sId="1">
+    <nc r="A283" t="inlineStr">
+      <is>
+        <t>我还是试试superlumt在Windows下编译能不能吧。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$196:$C$196</formula>
+    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+  </rdn>
+  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="718" sId="1">
+    <nc r="B283" t="inlineStr">
+      <is>
+        <t>Further remarks on SuperLU_MT Windows compilation:
+On Cygwin, both Pthread and OpenMP versions can be compiled without trouble, just like on linux.
+MinGW works with both Pthread and OpenMP, too. But for MinGW users, they have to enter each directory (SRC, CBLAS, EXAMPLE, etc) and run mingw32-make separately. It is not easy to get the highest level Makefile work with MinGW.
+Visual Studio only works with the OpenMP version. 
+The user needs to define the macro __OPENMP by editing the property of the VS project.</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="594" sId="1">
@@ -5312,6 +5431,254 @@
     <nc r="B235" t="inlineStr">
       <is>
         <t>如果是的话，如何通过公式来表达这个关系式？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="719" sId="1" eol="1" ref="A284:XFD284" action="insertRow"/>
+  <rcc rId="720" sId="1">
+    <nc r="A284" t="inlineStr">
+      <is>
+        <t>win7下编译superlumt3.1</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="721" sId="1" eol="1" ref="A285:XFD285" action="insertRow"/>
+  <rcc rId="722" sId="1">
+    <nc r="A285" t="inlineStr">
+      <is>
+        <t>应该生成动态库还是静态库？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="723" sId="1">
+    <nc r="B285" t="inlineStr">
+      <is>
+        <t>静态库在程序编译时会被连接到目标代码中，程序运行时将不再需要该静态库。
+动态库在程序编译时并不会被连接到目标代码中，而是在程序运行是才被载入，因此在程序运行时还需要动态库存在。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="724" sId="1" eol="1" ref="A286:XFD286" action="insertRow"/>
+  <rcc rId="725" sId="1">
+    <nc r="A286" t="inlineStr">
+      <is>
+        <t>visual studio打开错误列表</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="726" sId="1">
+    <nc r="B286" t="inlineStr">
+      <is>
+        <t>视图</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="727" sId="1" eol="1" ref="A287:XFD287" action="insertRow"/>
+  <rcc rId="728" sId="1">
+    <nc r="A287" t="inlineStr">
+      <is>
+        <t>Visual Studio 项目中添加include, lib, dll库文件（*.h,*.lib,*.dll）
+应用程序使用外部库时需要进行加载，两种库的加载本质上都是一样：提供功能和功能的定义。vs2005 c++ 项目设置外部库方法如下：
+1. 添加编译所需要（依赖）的 lib 文件
+     在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;输入-&gt;附加依赖项”里填写“winsock.lib”，多个 lib 以空格隔开。等同于“#pragma comment(lib, "*.lib") ”语句。
+2. 添加库（libs）文件目录
+     方法 1：项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;常规-&gt;附加库目录”
+     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，选择对应平台，然后添加所需“库文件”目录
+     这个设置类似于设置环境变量，主要是为程序设置搜索的库目录，真正进行库加载还需要进行第一种设置！
+3. 添加包含（include）文件目录
+     方法 1：“项目-&gt;属性-&gt;配置属性-&gt;c/c++-&gt;常规-&gt;附加包含目录”
+     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，添加所需“包括文件”目录
+     方法2类似于设置环境变量。
+4. 导入库（import）
+    在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;高级-&gt;导入库”填写需要生成的导入库
+相对路径的设置
+     在VS的工程中常常要设置头文件的包含路径，当然你可以使用绝对路径，但是如果你这样设置了你只能在你自己的机器上运行该工程；如果其他人拷贝你的工程到其他机器上就可能无法运行，这个是因为你在建工程时可能把工程放在了E:盘，但是其他人可能会把工程放在其他根目录下，这样会导致找不到头文件问题。
+对于新手，在设置绝对路径时往往会犯浑，他们不清楚这里的“相对”究竟是以什么位置为起点。其实这里的相对路径就是相当于工程文件（XXXX.vcproj）为起点零计算出的能找到包含所需头文件（也就是找包含所需头文件的include目录）的路径。
+例如你的工程文件（Count.vcproj）所在目录路径为：
+E:\projects\Count\Count\Count.vcproj
+该工程需要包含一个图片参数，该图片所在路径如下：
+E:\projects\Count\pic\pic01.jpg
+这里程序中的相对路径设置如下：
+..\\pic\\pic02.jpg
+程序代码中的参数路径设置时要用双斜线：
+例如：
+#include "..\TestLib\lib.h"
+#pragma comment(lib,"..\\debug\\TestLib.lib");</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="729" sId="1" eol="1" ref="A288:XFD288" action="insertRow"/>
+  <rcc rId="730" sId="1">
+    <nc r="A288" t="inlineStr">
+      <is>
+        <t>程序怎么知道使用那个dll啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="731" sId="1" eol="1" ref="A289:XFD289" action="insertRow"/>
+  <rcc rId="732" sId="1">
+    <nc r="A289" t="inlineStr">
+      <is>
+        <t>自己写的函数名与链接库里的函数名冲突了怎么办哪？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="733" sId="1" eol="1" ref="A290:XFD290" action="insertRow"/>
+  <rcc rId="734" sId="1">
+    <nc r="A290" t="inlineStr">
+      <is>
+        <t>（1）将SuperLU\SRC路径添加到C++\Additional Include Directories中；
+（2）再把路径D:\vs2010\MyProject\example_for _c++\下建的工程SuperLU\Release(此路径下包含文件SuperLu.lib)和路径D:\vs2010\MyProject\example_for _c++\下建的工程BLAS\Relese(此路径下包含文件BLAS.lib)添加到Linker-&gt;General-&gt;Additional Library Directories下；
+（3）将SuperLU.lib和BLAS.lib添加到Linker-&gt;Input-&gt;Additional Dependencies。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="735" sId="1" eol="1" ref="A291:XFD291" action="insertRow"/>
+  <rcc rId="736" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A291">
+      <v>42701</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A291:XFD291">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="737" sId="1" eol="1" ref="A292:XFD292" action="insertRow"/>
+  <rcc rId="738" sId="1">
+    <nc r="A292" t="inlineStr">
+      <is>
+        <t>怎样求有限元内任一点的值？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="739" sId="1" eol="1" ref="A293:XFD293" action="insertRow"/>
+  <rcc rId="740" sId="1">
+    <nc r="A293" t="inlineStr">
+      <is>
+        <t>superLUMT的Windows版本编译通过了。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="741" sId="1" eol="1" ref="A294:XFD294" action="insertRow"/>
+  <rcc rId="742" sId="1">
+    <nc r="A294" t="inlineStr">
+      <is>
+        <t>我之前在ubuntu下面编译的时候记得改了很多东西啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="743" sId="1" eol="1" ref="A295:XFD295" action="insertRow"/>
+  <rcc rId="744" sId="1">
+    <nc r="A295" t="inlineStr">
+      <is>
+        <t>Generate import library (0.2.10 and after version)
+OpenBLAS already generated the import library "libopenblas.dll.a" for "libopenblas.dll".
+Use OpenBLAS .dll library in Visual Studio
+Copy the import library (before 0.2.10: "OPENBLAS_TOP_DIR/exports/libopenblas.lib", 0.2.10 and after: "OPENBLAS_TOP_DIR/libopenblas.dll.a") and .dll library "libopenblas.dll" into the same folder(The folder of your project that is going to use the BLAS library. You may need to add the libopenblas.dll.a to the linker input list: properties-&gt;Linker-&gt;Input).
+Please follow the documentation about using third-party .dll libraries in MS Visual Studio 2008 or 2010. Make sure to link against a library for the correct architecture. For example, you may receive an error such as "The application was unable to start correctly (0xc00007b)" which typically indicates a mismatch between 32/64-bit libraries.</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5383,6 +5750,270 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="745" sId="1" eol="1" ref="A296:XFD296" action="insertRow"/>
+  <rcc rId="746" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A296">
+      <v>42702</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A296:XFD296">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="747" sId="1" eol="1" ref="A297:XFD297" action="insertRow"/>
+  <rcc rId="748" sId="1">
+    <nc r="A297" t="inlineStr">
+      <is>
+        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="749" sId="1">
+    <oc r="A297" t="inlineStr">
+      <is>
+        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A297" t="inlineStr">
+      <is>
+        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的，这个是QT生成的。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="750" sId="1" eol="1" ref="A298:XFD298" action="insertRow"/>
+  <rcc rId="751" sId="1">
+    <nc r="A298" t="inlineStr">
+      <is>
+        <t>C1083: Cannot open include file: 'stddef.h': No such file or directory</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="752" sId="1" eol="1" ref="A299:XFD299" action="insertRow"/>
+  <rcc rId="753" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A299">
+      <v>42703</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A299:XFD299">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="754" sId="1" eol="1" ref="A300:XFD300" action="insertRow"/>
+  <rcc rId="755" sId="1">
+    <nc r="A300" t="inlineStr">
+      <is>
+        <t>搜索Br，得到那个位置</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="756" sId="1" xfDxf="1" dxf="1">
+    <nc r="B300" t="inlineStr">
+      <is>
+        <t>void CFemmviewView::DisplayPointProperties(double px, double py)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="757" sId="1" eol="1" ref="A301:XFD301" action="insertRow"/>
+  <rcc rId="758" sId="1">
+    <nc r="A301" t="inlineStr">
+      <is>
+        <t>MATLAB当中似乎没有&amp;&amp;和||，只有&amp;和|</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="759" sId="1" eol="1" ref="A302:XFD302" action="insertRow"/>
+  <rcc rId="760" sId="1">
+    <nc r="A302" t="inlineStr">
+      <is>
+        <t>求解出来的东西为什么不对称？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="761" sId="1">
+    <nc r="B302" t="inlineStr">
+      <is>
+        <t>模型不对称？？？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="762" sId="1">
+    <oc r="B302" t="inlineStr">
+      <is>
+        <t>模型不对称？？？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B302" t="inlineStr">
+      <is>
+        <t>模型不对称？？？模型不对称啊，这个模型不是特别的上下对称，所以。。。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="763" sId="1" eol="1" ref="A303:XFD303" action="insertRow"/>
+  <rcc rId="764" sId="1">
+    <nc r="A303" t="inlineStr">
+      <is>
+        <t>FEMM在reference部分提到了！！！</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="765" sId="1">
+    <nc r="B303" t="inlineStr">
+      <is>
+        <t>reference在附录前面。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="602" sId="1" eol="1" ref="A238:XFD238" action="insertRow"/>
@@ -5406,6 +6037,233 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="766" sId="1">
+    <oc r="B303" t="inlineStr">
+      <is>
+        <t>reference在附录前面。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B303" t="inlineStr">
+      <is>
+        <t>reference在附录前面。他参考的文献我看到过，但是没有仔细看啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="767" sId="1" eol="1" ref="A304:XFD304" action="insertRow"/>
+  <rcc rId="768" sId="1">
+    <nc r="A304" t="inlineStr">
+      <is>
+        <t>MATLAB里面怎么画半圆区域里面的等高线？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="769" sId="1" eol="1" ref="A305:XFD305" action="insertRow"/>
+  <rcc rId="770" sId="1">
+    <nc r="A305" t="inlineStr">
+      <is>
+        <t>FEMM当中miu0这部分并没有拿进去迭代计算，而是提取出来，最后才进行处理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="771" sId="1" eol="1" ref="A306:XFD306" action="insertRow"/>
+  <rcc rId="772" sId="1">
+    <nc r="A306" t="inlineStr">
+      <is>
+        <t>轴对称的情况，如果要画等高线的话，就要进行处理。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="773" sId="1">
+    <nc r="B306" t="inlineStr">
+      <is>
+        <t>for (i = 0; i &lt; NumNodes; i++) {
+  L.b[i] = L.V[i] * c;
+  L.b[i] *= (meshnode[i].x*0.01 * 2 * PI);
+ }</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B306">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="774" sId="1" eol="1" ref="A307:XFD307" action="insertRow"/>
+  <rcc rId="775" sId="1">
+    <nc r="A307" t="inlineStr">
+      <is>
+        <t>如何计算Contour？？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="776" sId="1" eol="1" ref="A308:XFD308" action="insertRow"/>
+  <rcc rId="777" sId="1">
+    <nc r="A308" t="inlineStr">
+      <is>
+        <t>解决了二分法查找的bug</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="778" sId="1">
+    <nc r="B308" t="inlineStr">
+      <is>
+        <t>原因在于没有很好的处理开端和结束的索引情况。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="779" sId="1" eol="1" ref="A309:XFD309" action="insertRow"/>
+  <rcc rId="780" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A309">
+      <v>42704</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A309:XFD309">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="781" sId="1" eol="1" ref="A310:XFD310" action="insertRow"/>
+  <rcc rId="782" sId="1">
+    <nc r="A310" t="inlineStr">
+      <is>
+        <t>自己写一个针对有限元插值的contour函数</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="783" sId="1" eol="1" ref="A311:XFD311" action="insertRow"/>
+  <rcc rId="784" sId="1">
+    <nc r="A311" t="inlineStr">
+      <is>
+        <t>已经成功将程序移植到了Windows</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A311:XFD311">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A308:XFD308">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="785" sId="1">
+    <nc r="B297" t="inlineStr">
+      <is>
+        <t>如果编译的时候找不到qt的相关路径，看看.user文件当中有没有qtdir这个变量，没有的话把它加上。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="606" sId="1" eol="1" ref="A240:XFD240" action="insertRow"/>
@@ -5413,6 +6271,216 @@
     <nc r="A240" t="inlineStr">
       <is>
         <t>牛顿迭代法真的是计算雅可比矩阵啊</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="786" sId="1" eol="1" ref="A312:XFD312" action="insertRow"/>
+  <rcc rId="787" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A312">
+      <v>42705</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A312:XFD312">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="788" sId="1" eol="1" ref="A313:XFD313" action="insertRow"/>
+  <rcc rId="789" sId="1">
+    <nc r="A313" t="inlineStr">
+      <is>
+        <t>只有继承了QObject类的类，才具有信号槽的能力。所以，为了使用信号槽，必须继承QObject。凡是QObject类（不管是直接子类还是间接子类），都应该在第一行代码写上Q_OBJECT。不管是不是使用信号槽，都应该添加这个宏。这个宏的展开将为我们的类提供信号槽机制、国际化机制以及 Qt 提供的不基于 C++ RTTI 的反射能力。因此，如果你觉得你的类不需要使用信号槽，就不添加这个宏，就是错误的。其它很多操作都会依赖于这个宏。注意，这个宏将由 moc（我们会在后面章节中介绍 moc。这里你可以将其理解为一种预处理器，是比 C++ 预处理器更早执行的预处理器。） 做特殊处理，不仅仅是宏展开这么简单。moc 会读取标记了 Q_OBJECT 的头文件，生成以 moc_ 为前缀的文件，比如 newspaper.h 将生成 moc_newspaper.cpp。你可以到构建目录查看这个文件，看看到底增加了什么内容。注意，由于 moc 只处理头文件中的标记了Q_OBJECT的类声明，不会处理 cpp 文件中的类似声明。因此，如果我们的Newspaper和Reader类位于 main.cpp 中，是无法得到 moc 的处理的。解决方法是，我们手动调用 moc 工具处理 main.cpp，并且将 main.cpp 中的#include "newspaper.h"改为#include "moc_newspaper.h"就可以了。不过，这是相当繁琐的步骤，为了避免这样修改，我们还是将其放在头文件中。许多初学者会遇到莫名其妙的错误，一加上Q_OBJECT就出错，很大一部分是因为没有注意到这个宏应该放在头文件中。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="790" sId="1" eol="1" ref="A314:XFD314" action="insertRow"/>
+  <rcc rId="791" sId="1">
+    <nc r="A314" t="inlineStr">
+      <is>
+        <t>signals 块所列出的，就是该类的信号。信号就是一个个的函数名，返回值是 void（因为无法获得信号的返回值，所以也就无需返回任何值），参数是该类需要让外界知道的数据。信号作为函数名，不需要在 cpp 函数中添加任何实现（我们曾经说过，Qt 程序能够使用普通的 make 进行编译。没有实现的函数名怎么会通过编译？原因还是在 moc，moc 会帮我们实现信号函数所需要的函数体，所以说，moc 并不是单纯的将 Q_OBJECT 展开，而是做了很多额外的操作）。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog83.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="792" sId="1" eol="1" ref="A315:XFD315" action="insertRow"/>
+  <rcc rId="793" sId="1">
+    <nc r="A315" t="inlineStr">
+      <is>
+        <t>Qt 5 中，任何成员函数、static 函数、全局函数和 Lambda 表达式都可以作为槽函数。与信号函数不同，槽函数必须自己完成实现代码。槽函数就是普通的成员函数，因此作为成员函数，也会受到 public、private 等访问控制符的影响。（我们没有说信号也会受此影响，事实上，如果信号是 private 的，这个信号就不能在类的外面连接，也就没有任何意义。）</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog84.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="794" sId="1" eol="1" ref="A316:XFD316" action="insertRow"/>
+  <rcc rId="795" sId="1">
+    <nc r="A316" t="inlineStr">
+      <is>
+        <t>以后MATLAB安装不要按那么多，只安装一个MATLAB核心就够了，其他都不要。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog85.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="796" sId="1">
+    <nc r="B316" t="inlineStr">
+      <is>
+        <t>光这个就两个G，奶奶的</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog86.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="797" sId="1" eol="1" ref="A317:XFD317" action="insertRow"/>
+  <rcc rId="798" sId="1">
+    <nc r="A317" t="inlineStr">
+      <is>
+        <t>判断点在三角形内部的算法</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog87.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="799" sId="1">
+    <nc r="B317" t="inlineStr">
+      <is>
+        <t>Solve the following equation system:
+p = p0 + (p1 - p0) * s + (p2 - p0) * t
+The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
+s,t and 1 - s - t are called the barycentric coordinates of the point p.</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B317">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog88.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="800" sId="1">
+    <oc r="B317" t="inlineStr">
+      <is>
+        <t>Solve the following equation system:
+p = p0 + (p1 - p0) * s + (p2 - p0) * t
+The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
+s,t and 1 - s - t are called the barycentric coordinates of the point p.</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B317" t="inlineStr">
+      <is>
+        <t>Solve the following equation system:
+p = p0 + (p1 - p0) * s + (p2 - p0) * t
+The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
+s,t and 1 - s - t are called the barycentric coordinates of the point p.
+float sign (fPoint p1, fPoint p2, fPoint p3)
+{
+    return (p1.x - p3.x) * (p2.y - p3.y) - (p2.x - p3.x) * (p1.y - p3.y);
+}
+bool PointInTriangle (fPoint pt, fPoint v1, fPoint v2, fPoint v3)
+{
+    bool b1, b2, b3;
+    b1 = sign(pt, v1, v2) &lt; 0.0f;
+    b2 = sign(pt, v2, v3) &lt; 0.0f;
+    b3 = sign(pt, v3, v1) &lt; 0.0f;
+    return ((b1 == b2) &amp;&amp; (b2 == b3));
+}</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog89.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="801" sId="1" eol="1" ref="A318:XFD318" action="insertRow"/>
+  <rcc rId="802" sId="1">
+    <nc r="A318" t="inlineStr">
+      <is>
+        <t>程序还有bug，只修改了开端的，没有修改结束的。二分法。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5434,7 +6502,362 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="803" sId="1" eol="1" ref="A319:XFD319" action="insertRow"/>
+  <rcc rId="804" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A319">
+      <v>42706</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A319:XFD319">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog91.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="805" sId="1" eol="1" ref="A320:XFD320" action="insertRow"/>
+  <rcc rId="806" sId="1">
+    <nc r="A320" t="inlineStr">
+      <is>
+        <t>写完了自己的插值函数。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog92.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="807" sId="1">
+    <nc r="B318" t="inlineStr">
+      <is>
+        <t>还不确定是不是有这个bug，目前还没遇到。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog93.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="808" sId="1" eol="1" ref="A321:XFD321" action="insertRow"/>
+  <rcc rId="809" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A321">
+      <v>42707</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A321:XFD321">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="810" sId="1" eol="1" ref="A322:XFD322" action="insertRow"/>
+  <rcc rId="811" sId="1">
+    <nc r="A322" t="inlineStr">
+      <is>
+        <t>但是反过来，只想知道某一点的值，就不是那么容易了，你需要查找这个点在哪一个单元，这就不好弄了。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog94.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="812" sId="1" eol="1" ref="A323:XFD323" action="insertRow"/>
+  <rcc rId="813" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A323">
+      <v>42708</v>
+    </nc>
+    <odxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </odxf>
+    <ndxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="1" sqref="A323:XFD323">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="814" sId="1" eol="1" ref="A324:XFD324" action="insertRow"/>
+  <rcc rId="815" sId="1">
+    <nc r="A324" t="inlineStr">
+      <is>
+        <t>MATLAB画平行线</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="816" sId="1" xfDxf="1" dxf="1">
+    <nc r="B324" t="inlineStr">
+      <is>
+        <t>plot([1:10;0:9])</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog95.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="817" sId="1" eol="1" ref="A325:XFD325" action="insertRow"/>
+  <rcc rId="818" sId="1">
+    <nc r="A325" t="inlineStr">
+      <is>
+        <t>当没有规定画点的数目的时候，plot函数画了多少个点，使得看起来像一条连续的直线。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog96.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="819" sId="1">
+    <nc r="B307" t="inlineStr">
+      <is>
+        <t>contour肯定是连续的，肯定是在附近找。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="820" sId="1" eol="1" ref="A326:XFD326" action="insertRow"/>
+  <rcc rId="821" sId="1">
+    <nc r="A326" t="inlineStr">
+      <is>
+        <t>关于contour的绘制</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="822" sId="1">
+    <nc r="B326" t="inlineStr">
+      <is>
+        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，但是似乎</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog97.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="823" sId="1">
+    <oc r="B326" t="inlineStr">
+      <is>
+        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，但是似乎</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B326" t="inlineStr">
+      <is>
+        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，这应该是一个底层的实现，其他的contour高级函数都会调用到它。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog98.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="824" sId="1" eol="1" ref="A327:XFD327" action="insertRow"/>
+  <rcc rId="825" sId="1">
+    <nc r="B327" t="inlineStr">
+      <is>
+        <t xml:space="preserve">
+举例说明，便能解决问题。
+&gt;&gt;A = [1 2 3 4;2 3 4 5;3 4 5 6];
+&gt;&gt;contourc(A,[2 3])
+%%解释函数格式：
+%{
+这里A的“[2 3]”有两层意思：
+1.寻找矩阵A中值为2和3的等值线（坐标），至于叫坐标见结果分析。
+2.值为2和3自然就有两层等值线。
+%}
+%%输出结果：
+%{
+ans =
+     2     2     1     3     3     2     1
+     2     1     2     3     1     2     3
+说明：
+1.要竖着看：
+第一列：      2
+                  2
+上面的2代表的数值为2的等值线，下面的2为等值线对应的坐标个数。
+接下来的两（对应2）列自然就是数值为2的坐标了(2,1)和(1,2)。
+同理，接下来的列(3,3)'，第一个代表数值为3的等值线，第二个代表的个数为3个。自然地，后面的3个为相应的坐标。
+补充：“坐标”就是说的矩阵的行列。例(2,1)即第二行第三列。
+至于n年前楼主说的问题是指寻找一层等值线数值为0.5的数值对应的坐标。
+%}
+%参考文献：octave.sourceforge.net/octave/function/contourc.html</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="B327">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="826" sId="1">
+    <nc r="A327" t="inlineStr">
+      <is>
+        <t>Matlab的contourc 函数怎么用</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog99.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="827" sId="1" eol="1" ref="A328:XFD328" action="insertRow"/>
+  <rcc rId="828" sId="1">
+    <nc r="A328" t="inlineStr">
+      <is>
+        <t>严格的来说，使用方形来进行contour计算是不对的。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -5514,6 +6937,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5549,6 +6989,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5728,10 +7185,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C246"/>
+  <dimension ref="A1:C349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -7228,14 +8685,559 @@
       <c r="A245" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B245" s="31" t="s">
+      <c r="B245" s="16" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A246" s="10" t="s">
         <v>319</v>
       </c>
+    </row>
+    <row r="247" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="12">
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A248" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="12">
+        <v>42687</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="12">
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="12">
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="12">
+        <v>42695</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="12">
+        <v>42696</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A263" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="12">
+        <v>42697</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A268" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="12">
+        <v>42698</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A272" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A273" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A274" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A275" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A276" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A280" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="12">
+        <v>42699</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A283" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A285" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A287" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" s="10" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="12">
+        <v>42701</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" s="10" customFormat="1" ht="285.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="12">
+        <v>42702</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A297" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="12">
+        <v>42703</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A305" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A306" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B308" s="17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="12">
+        <v>42704</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="12">
+        <v>42705</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.15">
+      <c r="A313" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A314" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="A315" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A316" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.15">
+      <c r="A317" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="12">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A320" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="12">
+        <v>42707</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A322" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="12">
+        <v>42708</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A325" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A326" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A327" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A329" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="12">
+        <v>42709</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A331" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="12">
+        <v>42710</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="10" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A336" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A337" s="10" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A349" s="33"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -7243,18 +9245,18 @@
   </protectedRanges>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A231">
-      <selection activeCell="A249" sqref="A249"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A330">
+      <selection activeCell="A331" sqref="A331"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
-      <selection activeCell="C1172" sqref="C1172"/>
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" topLeftCell="A1161">
+      <selection activeCell="A1171" sqref="A1171"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" topLeftCell="A1161">
-      <selection activeCell="A1171" sqref="A1171"/>
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" scale="130" topLeftCell="A1161">
+      <selection activeCell="C1172" sqref="C1172"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
@@ -7286,451 +9288,451 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="17"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="17"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="30"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="19"/>
+      <c r="D19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="18"/>
-      <c r="L19" s="17"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="31"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="31"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="31"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7739,23 +9741,73 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="76">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:L6"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:L24"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="J7:L7"/>
@@ -7772,61 +9824,11 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:L24"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:L6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20160,12 +22162,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
@@ -20383,12 +22385,12 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}">
       <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/QandA(2016_2).xlsx
+++ b/QandA(2016_2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17668"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="18525" windowWidth="6405" windowHeight="11355" tabRatio="238"/>
+    <workbookView xWindow="21360" yWindow="18525" windowWidth="6405" windowHeight="11355" tabRatio="238"/>
   </bookViews>
   <sheets>
     <sheet name="Q&amp;A" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$A$322</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$D$412</definedName>
     <definedName name="Adams">Sheet1!$A$22</definedName>
     <definedName name="ANSYS">Sheet1!$A$24</definedName>
     <definedName name="C_">Sheet1!$A$7</definedName>
@@ -37,7 +37,8 @@
     <definedName name="VC">Sheet1!$A$9</definedName>
     <definedName name="Z_7CC382BC_6A8A_482F_BDE4_3F41D2AA452E_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$C$1</definedName>
     <definedName name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$A$322</definedName>
-    <definedName name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$C$1</definedName>
+    <definedName name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.Cols" localSheetId="0" hidden="1">'Q&amp;A'!$D:$XFD</definedName>
+    <definedName name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.FilterData" localSheetId="0" hidden="1">'Q&amp;A'!$A$1:$D$412</definedName>
     <definedName name="并行计算">Sheet1!$A$17</definedName>
     <definedName name="泊松方程">Sheet1!$A$10</definedName>
     <definedName name="电磁场">Sheet1!$A$8</definedName>
@@ -54,8 +55,8 @@
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="81" yWindow="-8" windowWidth="1847" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
     <customWorkbookView name="USER- - Personal View" guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" mergeInterval="0" personalView="1" maximized="1" xWindow="81" yWindow="-8" windowWidth="1847" windowHeight="1096" tabRatio="238" activeSheetId="1"/>
-    <customWorkbookView name="USER- - 个人视图" guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1936" windowHeight="1056" tabRatio="238" activeSheetId="1"/>
     <customWorkbookView name="POOFEE - 个人视图" guid="{7CC382BC-6A8A-482F-BDE4-3F41D2AA452E}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="32" windowWidth="1382" windowHeight="744" tabRatio="238" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="478">
   <si>
     <t>周</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1918,12 +1919,306 @@
     <t>写总结，还得附上结果以及参考文献，应该做出一个这样的系统，感觉更像网站的风格。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>网站现在很流行，迁移客户端应该很方便。网站做的炫酷应该很容易，就这么定了。HTML5不是主流吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个误差真的不容忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>femm无法算出0，0点的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flux的结果和其他的有一个面误差。不能插图啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因应该是这样的，在核心区域，flux计算和femm计算结果应该是很相近的，但是在某些地方磁场有一些阶跃式的变化，但是呢，提取的flux和femm的值在这个交界处恰好错位了，意思是，一个把a位置当作了边界，一个把a-一个刻度当作了边界，所以出现了那么一个，准确的来讲，应该不是误差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B的连续性处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界不是有外部边界，还有内部边界吗？这个好像？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔伯特空间？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义距离，为什么不直接给出一个公式啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算磁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用dealii计算静磁场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DD方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxwell fem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>∂∂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> notation is not meant to indicate a "partial derivative" of the boundary or anything fanciful like that. Rather, it's just the particular symbol that we've chosen to represent the boundary of a region. The choice of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>∂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Σ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>∂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Σ is perhaps more evocative when Stokes' theorem is written in the language of differential forms.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In topology and mathematics in general, the boundary of a subset S of a topological space X is the set of points which can be approached both from S and from the outside of S.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是在Google当中搜索math boundary denote得到结果的，属于拓扑学啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In mathematics, the closure of a subset S in a topological space consists of all points in S plus the limit points of S. The closure of S is also defined as the union of S and its boundary.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也有可能你自己写的小程序算起来很快，但是把它放到大型的软件当中，却未必会是那种效果，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板元编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dealii貌似没有三角单元分网，但是却是用三角命名的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed-point iterations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate of convergence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The TLM method seems to fit into a class of fixed-point iterations. The authors should mention or refer to the conditions under which it is converging and what is the convergence rate. I hope this has been done in literature. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors should not restrict to cite only IEEE journals. There has been done a lot in the multi-level approach for nonlinear equations. For instance, the following reference includes multigrid-Newton methods and it could be of use: 
+D. Lukas and P. Chalmoviansky, A Sequential Coupling of Optimal Toplogy and Multilevel Shape Design Applied to 2-Dimensional Nonlinear Magnetostatics, Computing and Visualization in Science, vol. 10, nr. 3, pp. 135-144, 2007. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪啊，Windows想啊运行，没有出现无穷大啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像是向着有夹角的方向进行的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>define，是宏替换，并不求值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没看懂partition of unity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note that we abuse the word triangulation somewhat, since deal.II only implements triangulations made up of linear, quadrilateral, and hexahedral cells; triangles and tetrahedra are not supported.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg文件怎么打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器就可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么不在一个工程里进行，而非要建立几个工程？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>含永磁的程序在原来的程序上修改完成，并对比了牛顿迭代，结果差不多，还需要继续完善。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过现在的git啊，还是工程的总体真是一团乱啊，各种分支，项目，没有很好的设计。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像切换分支之后就不会显示其他分支的情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚位移原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩玄乎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLM遇到了不收敛，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很可能是我没有初始化变量，我把I，pm初始化为0，好使了又。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在NR和TLM的结果一致了，但是TLM的收敛性还是没有那么好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电磁力计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virtual work approach to the computation of magnetic force distribution from finite element field solutions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同位置的意味着要再次分网重新算啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是初始值可以利用上一次的计算结果吧，如果没有变形的话，空气除外，那么直接幅值就是离真实值差不多级别吧，但是我觉得得用相对坐标了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚位移原理需要计算偏移一段距离的磁场，也就是要重新进行分网计算。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnetic energy and coenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>force distribution和net force是什么关系？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVW方法当中，哪些单元会考虑进去？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到底算哪些节点啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏微分怎样计算啊？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qt的窗口怎样才能让它在处理的时候，也能移动？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comsol怎么偏移一小段？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[主版本号].[次版本号].[补丁号]，通常用v做前缀。例如：v1.0.0
+每次能保证向后兼容的补丁升级，增加补丁号
+向后兼容的新功能加入，增加新API ，增加次版本号
+不向后兼容的新功能加入，增加新API ，增加主版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Qt\Qt5.4.2\5.4\msvc2013_64\bin\windeployqt.exe myexe.exe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT5生成的exe自动拷贝依赖的dll并打包的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,8 +2269,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="方正报宋简体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2021,6 +2330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2140,7 +2455,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2189,10 +2504,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2240,12 +2558,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="日期" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2262,8 +2586,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7D2F35A0-8A5D-41E7-81DE-713D72B613E7}" diskRevisions="1" revisionId="854" version="115">
-  <header guid="{33F2E12F-5C6A-457A-B4AD-6ABBA46E2353}" dateTime="2016-11-08T09:36:19" maxSheetId="5" userName="USER-" r:id="rId179" minRId="543" maxRId="548">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A0E1087D-330B-4682-8320-046FB589E613}" diskRevisions="1" revisionId="1062" version="177">
+  <header guid="{5DE53AB1-CC3F-4D82-AE8C-7D155D495BC4}" dateTime="2016-12-16T12:39:12" maxSheetId="5" userName="USER-" r:id="rId333" minRId="916" maxRId="919">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2271,7 +2595,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{0507F668-FCF6-4AA8-9FF2-24606BB9FF50}" dateTime="2016-11-08T09:36:29" maxSheetId="5" userName="USER-" r:id="rId180" minRId="549" maxRId="550">
+  <header guid="{527F0B12-FA37-4D8A-9859-992B9792C69E}" dateTime="2016-12-16T13:56:41" maxSheetId="5" userName="USER-" r:id="rId334" minRId="920">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2279,7 +2603,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{B7224E2C-FDDC-48E1-9134-C3AF3FD82363}" dateTime="2016-11-08T09:36:39" maxSheetId="5" userName="USER-" r:id="rId181" minRId="551" maxRId="552">
+  <header guid="{BFD3E4FC-63D5-4A1D-B24E-E5C5AC6D63C8}" dateTime="2016-12-17T14:48:05" maxSheetId="5" userName="USER-" r:id="rId335" minRId="921" maxRId="924">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2287,7 +2611,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{641D4F23-4FDD-4222-9472-86D8EDA79908}" dateTime="2016-11-08T10:25:53" maxSheetId="5" userName="USER-" r:id="rId182" minRId="553" maxRId="554">
+  <header guid="{4FB4F946-F8A2-41D4-A3A1-53751D73322F}" dateTime="2016-12-19T14:14:01" maxSheetId="5" userName="USER-" r:id="rId336" minRId="925" maxRId="928">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2295,7 +2619,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{0EE4E189-D8AF-4A3D-8531-6D5676B5381F}" dateTime="2016-11-08T10:53:49" maxSheetId="5" userName="USER-" r:id="rId183" minRId="555">
+  <header guid="{8C28B030-8583-4FDE-9CEE-46B6BE01A22D}" dateTime="2016-12-20T18:29:34" maxSheetId="5" userName="USER-" r:id="rId337" minRId="929">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2303,7 +2627,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{1260A30A-3107-43E6-983D-5250A1BE46CF}" dateTime="2016-11-08T10:55:32" maxSheetId="5" userName="USER-" r:id="rId184" minRId="556">
+  <header guid="{8CD4A93F-A67F-437C-9CD6-6FBBF5BFCEF9}" dateTime="2016-12-20T21:53:53" maxSheetId="5" userName="USER-" r:id="rId338" minRId="930" maxRId="932">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2311,7 +2635,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{46A0A5F8-C003-4F1F-A7B1-5D2D59E49977}" dateTime="2016-11-08T10:59:52" maxSheetId="5" userName="USER-" r:id="rId185" minRId="557" maxRId="558">
+  <header guid="{AEFA8DFA-E9EA-4392-A565-833D7C364717}" dateTime="2016-12-21T09:08:00" maxSheetId="5" userName="USER-" r:id="rId339" minRId="933" maxRId="936">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2319,7 +2643,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{A3FA5D89-1BC6-4072-924A-4838399D1576}" dateTime="2016-11-08T11:01:38" maxSheetId="5" userName="USER-" r:id="rId186" minRId="559" maxRId="560">
+  <header guid="{D1276F50-EE9B-4976-9BE5-F37F13DBE6FF}" dateTime="2016-12-21T21:20:38" maxSheetId="5" userName="USER-" r:id="rId340" minRId="937" maxRId="938">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2327,7 +2651,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{36AB23F7-E4B0-4BB6-B6D9-E95EB7A171C7}" dateTime="2016-11-08T16:30:41" maxSheetId="5" userName="USER-" r:id="rId187" minRId="561" maxRId="562">
+  <header guid="{2CD30A4B-53F2-443E-B713-8A44BE09DA07}" dateTime="2016-12-21T21:21:45" maxSheetId="5" userName="USER-" r:id="rId341" minRId="939" maxRId="940">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2335,7 +2659,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{4AF30BAD-2127-49B0-90C6-4207CCE25713}" dateTime="2016-11-08T16:33:29" maxSheetId="5" userName="USER-" r:id="rId188" minRId="563" maxRId="564">
+  <header guid="{945E7B9B-6F90-42BC-A5E8-5C7E0DB3EA36}" dateTime="2016-12-22T08:51:00" maxSheetId="5" userName="USER-" r:id="rId342" minRId="941">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2343,7 +2667,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{E0F08F87-D064-4768-AA0B-3BBDC203AF66}" dateTime="2016-11-08T16:57:33" maxSheetId="5" userName="USER-" r:id="rId189" minRId="565" maxRId="567">
+  <header guid="{4EE785E8-42DB-4045-B510-37C09B1E5901}" dateTime="2016-12-22T09:30:16" maxSheetId="5" userName="USER-" r:id="rId343" minRId="942" maxRId="945">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2351,7 +2675,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{B6F9C4E2-10BF-44B1-A1D4-62DEA2D64F1B}" dateTime="2016-11-09T09:40:44" maxSheetId="5" userName="USER-" r:id="rId190" minRId="568" maxRId="580">
+  <header guid="{1EF779A1-86CB-45A0-8B83-8D69938414E8}" dateTime="2016-12-22T11:25:01" maxSheetId="5" userName="USER-" r:id="rId344" minRId="946">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2359,7 +2683,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{1DB8DE1B-7CFF-4A6A-A952-142DB857881B}" dateTime="2016-11-09T14:27:00" maxSheetId="5" userName="USER-" r:id="rId191" minRId="581" maxRId="585">
+  <header guid="{BE6994DE-7310-40CC-AC4E-B74ECF7608A4}" dateTime="2016-12-22T15:19:53" maxSheetId="5" userName="USER-" r:id="rId345" minRId="947" maxRId="949">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2367,7 +2691,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{D97FF02F-E9F3-4FE8-9777-8A6CC52901E3}" dateTime="2016-11-09T14:31:26" maxSheetId="5" userName="USER-" r:id="rId192" minRId="586" maxRId="587">
+  <header guid="{6EF760C0-18D1-4753-A44F-0EF105474B84}" dateTime="2016-12-22T17:34:58" maxSheetId="5" userName="USER-" r:id="rId346" minRId="950" maxRId="951">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2375,7 +2699,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{5E3FDCAD-3969-4336-BB9A-C2EE45EE0773}" dateTime="2016-11-09T14:32:42" maxSheetId="5" userName="USER-" r:id="rId193" minRId="588">
+  <header guid="{E0FE88C6-BE92-4716-BBF8-B3B5364865BA}" dateTime="2016-12-22T22:27:31" maxSheetId="5" userName="USER-" r:id="rId347" minRId="952" maxRId="953">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2383,7 +2707,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{86157A48-74E5-4B6A-A8C9-032E853E8810}" dateTime="2016-11-09T16:09:14" maxSheetId="5" userName="USER-" r:id="rId194" minRId="589" maxRId="593">
+  <header guid="{815FA8E7-D759-45B9-9C91-6E7EB4ECAE79}" dateTime="2016-12-25T08:38:52" maxSheetId="5" userName="USER-" r:id="rId348" minRId="954" maxRId="958">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2391,7 +2715,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{41828843-0933-489A-A090-FBF06B1597FB}" dateTime="2016-11-09T17:14:31" maxSheetId="5" userName="USER-" r:id="rId195" minRId="594" maxRId="597">
+  <header guid="{B833FF3A-2F39-4D3F-9954-9BAA7B0920B1}" dateTime="2016-12-25T08:39:16" maxSheetId="5" userName="USER-" r:id="rId349" minRId="959">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2399,7 +2723,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{82A38D94-ED50-4512-A0C1-49D4B5B9D0DD}" dateTime="2016-11-10T09:50:29" maxSheetId="5" userName="USER-" r:id="rId196" minRId="598" maxRId="601">
+  <header guid="{A9545802-9E29-4EE2-AD02-E3C04E390FDE}" dateTime="2016-12-25T08:41:08" maxSheetId="5" userName="USER-" r:id="rId350" minRId="960" maxRId="962">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2407,7 +2731,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{DD3745A7-8031-4D64-9C9C-B390482A3ADD}" dateTime="2016-11-10T14:22:56" maxSheetId="5" userName="USER-" r:id="rId197" minRId="602" maxRId="605">
+  <header guid="{C9DD2EAC-0DF0-47D3-A802-F7E3BF81FEE1}" dateTime="2016-12-25T08:43:35" maxSheetId="5" userName="USER-" r:id="rId351">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2415,7 +2739,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{F9C82D86-989C-43A8-8835-E74BD5586DE1}" dateTime="2016-11-10T15:09:49" maxSheetId="5" userName="USER-" r:id="rId198" minRId="606" maxRId="607">
+  <header guid="{891199C4-9766-4E04-83C4-2BAB72EDF6C0}" dateTime="2016-12-26T09:37:37" maxSheetId="5" userName="USER-" r:id="rId352" minRId="963" maxRId="966">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2423,7 +2747,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{44DEEB65-BCBC-4EA5-B6D4-D70744019F81}" dateTime="2016-11-10T15:33:41" maxSheetId="5" userName="USER-" r:id="rId199" minRId="608" maxRId="609">
+  <header guid="{1AF18CD6-3B8A-46E8-B6B9-C9A9A71E08A8}" dateTime="2016-12-26T11:09:46" maxSheetId="5" userName="USER-" r:id="rId353" minRId="967" maxRId="968">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2431,7 +2755,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{4627E6AE-6A49-4DC1-AA3F-AA66A64E5F98}" dateTime="2016-11-10T15:48:05" maxSheetId="5" userName="USER-" r:id="rId200" minRId="610" maxRId="611">
+  <header guid="{AB3C0B9B-42F3-43A5-80D4-A47B32EA6A9C}" dateTime="2016-12-26T21:34:01" maxSheetId="5" userName="USER-" r:id="rId354" minRId="969" maxRId="1000">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2439,7 +2763,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{3A3CA8C1-C514-4A1F-A821-8926D81AB451}" dateTime="2016-11-10T20:37:40" maxSheetId="5" userName="USER-" r:id="rId201" minRId="612" maxRId="614">
+  <header guid="{C693359D-66EA-488D-ABF8-FD5381570200}" dateTime="2016-12-27T12:47:10" maxSheetId="5" userName="USER-" r:id="rId355" minRId="1001" maxRId="1034">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2447,7 +2771,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{A8BF1503-4151-4F33-B9A0-37DC1CC6A406}" dateTime="2016-11-10T21:55:59" maxSheetId="5" userName="USER-" r:id="rId202" minRId="615">
+  <header guid="{1BDA9F90-AE29-4B03-BF2B-D97A1E72C438}" dateTime="2016-12-27T12:51:07" maxSheetId="5" userName="USER-" r:id="rId356" minRId="1035" maxRId="1036">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2455,7 +2779,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{51C36070-E1FB-4E87-AC5E-10C495B4AD36}" dateTime="2016-11-11T09:23:11" maxSheetId="5" userName="USER-" r:id="rId203" minRId="616" maxRId="617">
+  <header guid="{73A0709B-330E-4B7A-81D7-27370D15A7F1}" dateTime="2016-12-27T21:57:54" maxSheetId="5" userName="USER-" r:id="rId357" minRId="1037" maxRId="1038">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2463,7 +2787,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{B4616072-D3F1-4557-B043-3B6501551FEE}" dateTime="2016-11-11T10:28:54" maxSheetId="5" userName="USER-" r:id="rId204" minRId="618" maxRId="620">
+  <header guid="{2817C3A9-D3EE-4875-B8C2-6229144C9110}" dateTime="2016-12-28T15:14:11" maxSheetId="5" userName="USER-" r:id="rId358" minRId="1039" maxRId="1042">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2471,7 +2795,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{588130F3-BB5A-4178-890C-C7A3FDA71DD0}" dateTime="2016-11-11T10:29:34" maxSheetId="5" userName="USER-" r:id="rId205" minRId="621">
+  <header guid="{FFB5FA82-A437-4BC2-89C7-B11076A0C9BC}" dateTime="2016-12-29T11:26:23" maxSheetId="5" userName="USER-" r:id="rId359" minRId="1043" maxRId="1046">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2479,7 +2803,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{43360B44-B4A0-40A2-BCEB-F9EE2A1E8E09}" dateTime="2016-11-11T13:45:57" maxSheetId="5" userName="USER-" r:id="rId206" minRId="623" maxRId="624">
+  <header guid="{D86EC5AD-C426-4045-A707-836A04BD04C9}" dateTime="2016-12-29T11:31:28" maxSheetId="5" userName="USER-" r:id="rId360" minRId="1047" maxRId="1048">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2487,7 +2811,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{85D08C12-70F3-4169-B00B-0277D0FD6C19}" dateTime="2016-11-12T15:41:40" maxSheetId="5" userName="USER-" r:id="rId207" minRId="625" maxRId="628">
+  <header guid="{69F9991C-F8EB-45FD-9668-F02B7BFB3D38}" dateTime="2017-01-10T16:20:29" maxSheetId="5" userName="USER-" r:id="rId361" minRId="1049" maxRId="1052">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2495,7 +2819,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{E0C69498-A70A-4C21-9447-9D15DC709448}" dateTime="2016-11-12T18:20:05" maxSheetId="5" userName="USER-" r:id="rId208" minRId="630" maxRId="631">
+  <header guid="{F5C8CAA9-9FC2-4C6B-93FD-3F9BD8B10E56}" dateTime="2017-01-10T16:20:35" maxSheetId="5" userName="USER-" r:id="rId362" minRId="1053">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2503,7 +2827,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{BB8E16B0-FFEC-4019-89EE-14A9A0D287CC}" dateTime="2016-11-13T08:39:21" maxSheetId="5" userName="USER-" r:id="rId209" minRId="632" maxRId="635">
+  <header guid="{86C518D8-703F-4099-8921-CBBE458B9761}" dateTime="2017-01-11T20:25:28" maxSheetId="5" userName="USER-" r:id="rId363" minRId="1054" maxRId="1058">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2511,7 +2835,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{0F64607E-F562-4E00-8B1A-73A36C34BA3F}" dateTime="2016-11-13T16:00:26" maxSheetId="5" userName="USER-" r:id="rId210" minRId="636" maxRId="637">
+  <header guid="{46059600-5188-4323-B4F4-27493964674A}" dateTime="2017-01-12T21:31:56" maxSheetId="5" userName="USER-" r:id="rId364">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2519,7 +2843,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{84D80C27-5E41-474A-A34A-195B2EBF3A7B}" dateTime="2016-11-14T18:32:06" maxSheetId="5" userName="USER-" r:id="rId211" minRId="638" maxRId="639">
+  <header guid="{5556BCC6-B1E2-43FF-A066-EEDF77753E53}" dateTime="2017-01-14T09:01:56" maxSheetId="5" userName="USER-" r:id="rId365">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -2527,743 +2851,7 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
-  <header guid="{17773294-D345-46F5-8CF1-46D60E39B70A}" dateTime="2016-11-15T21:39:21" maxSheetId="5" userName="USER-" r:id="rId212" minRId="640" maxRId="641">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F91054EA-D051-48EE-BCDC-AF832FA19AA2}" dateTime="2016-11-16T20:51:39" maxSheetId="5" userName="USER-" r:id="rId213" minRId="642" maxRId="643">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6A7B52A0-CC16-4847-8854-F5A4427C7C6A}" dateTime="2016-11-17T21:46:49" maxSheetId="5" userName="USER-" r:id="rId214" minRId="644" maxRId="648">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8CF70967-1F0D-4483-811C-1FD8C1BF2568}" dateTime="2016-11-17T22:01:47" maxSheetId="5" userName="USER-" r:id="rId215" minRId="649" maxRId="650">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D49E1B4E-DC10-4E4A-89AE-AE11661F7E74}" dateTime="2016-11-17T22:13:42" maxSheetId="5" userName="USER-" r:id="rId216" minRId="652">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2F1EC74E-09D0-4C0C-96AB-883153E78B09}" dateTime="2016-11-21T16:42:28" maxSheetId="5" userName="USER-" r:id="rId217" minRId="653" maxRId="657">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0F554893-F4D8-4916-8B04-B20F6AAC864E}" dateTime="2016-11-21T16:54:57" maxSheetId="5" userName="USER-" r:id="rId218" minRId="658">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D359405D-ACA9-4A4C-AABC-78F012894024}" dateTime="2016-11-21T19:20:36" maxSheetId="5" userName="USER-" r:id="rId219" minRId="659" maxRId="660">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5B6E021E-493F-45F3-82C5-456EC7B12317}" dateTime="2016-11-21T21:33:40" maxSheetId="5" userName="USER-" r:id="rId220" minRId="661" maxRId="662">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CDC3AE72-0D61-46B1-9978-ABBB7721FB99}" dateTime="2016-11-22T14:07:03" maxSheetId="5" userName="USER-" r:id="rId221" minRId="663" maxRId="666">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4C75D68C-5311-41A3-85FE-D3FB3E02F77F}" dateTime="2016-11-22T22:14:59" maxSheetId="5" userName="USER-" r:id="rId222" minRId="667" maxRId="668">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{72C25289-A679-47FC-B7F4-721B08C01813}" dateTime="2016-11-23T08:32:22" maxSheetId="5" userName="USER-" r:id="rId223" minRId="669" maxRId="672">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{94773098-9024-42CB-AEAC-2767B5F233C1}" dateTime="2016-11-23T08:34:29" maxSheetId="5" userName="USER-" r:id="rId224" minRId="674" maxRId="675">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AC3BF305-8C8A-4410-872D-30F2FC523E79}" dateTime="2016-11-23T12:28:50" maxSheetId="5" userName="USER-" r:id="rId225" minRId="676" maxRId="679">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C6E08895-D731-4E38-BD43-F96D3AF212A1}" dateTime="2016-11-23T13:30:49" maxSheetId="5" userName="USER-" r:id="rId226" minRId="680" maxRId="681">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{54D26A5A-43EA-4396-AEA1-C15470D31F55}" dateTime="2016-11-23T14:12:06" maxSheetId="5" userName="USER-" r:id="rId227" minRId="682" maxRId="683">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4B9AE441-3D1A-4767-89CB-486C5069FAB9}" dateTime="2016-11-24T17:08:36" maxSheetId="5" userName="USER-" r:id="rId228" minRId="684" maxRId="692">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{25F5A5CE-C41E-4D14-860E-1D5DC1F15A69}" dateTime="2016-11-24T17:10:08" maxSheetId="5" userName="USER-" r:id="rId229" minRId="694" maxRId="697">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{411C194F-5045-48A0-9BC2-123BA9C3CACC}" dateTime="2016-11-24T17:11:46" maxSheetId="5" userName="USER-" r:id="rId230" minRId="698" maxRId="701">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{691E34C0-4AA5-4743-9BE0-9C8C7CD38C62}" dateTime="2016-11-24T20:26:57" maxSheetId="5" userName="USER-" r:id="rId231" minRId="702" maxRId="703">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2F597C32-9C59-464B-89DF-3B7DC66C389B}" dateTime="2016-11-24T20:27:18" maxSheetId="5" userName="USER-" r:id="rId232" minRId="704">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5DA1AD3D-7540-43C7-A210-00315242C7D8}" dateTime="2016-11-24T20:36:59" maxSheetId="5" userName="USER-" r:id="rId233" minRId="705">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{67BC767B-F430-458D-9639-1E39EA37289F}" dateTime="2016-11-24T22:37:35" maxSheetId="5" userName="USER-" r:id="rId234" minRId="706">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9836978F-9C92-4909-A3E1-4899F2ECC4D2}" dateTime="2016-11-24T22:38:14" maxSheetId="5" userName="USER-" r:id="rId235" minRId="707" maxRId="708">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5D656395-7238-40E2-A696-A833E32A9B63}" dateTime="2016-11-24T22:40:50" maxSheetId="5" userName="USER-" r:id="rId236" minRId="709" maxRId="710">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E108EFB7-7A70-489E-AB9E-8C595AD24BBF}" dateTime="2016-11-24T22:42:20" maxSheetId="5" userName="USER-" r:id="rId237" minRId="711" maxRId="712">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{32F5E53F-0DE7-4889-843F-BA61FF6621FE}" dateTime="2016-11-25T19:08:09" maxSheetId="5" userName="USER-" r:id="rId238" minRId="713" maxRId="716">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{780E378E-DCDD-46A2-982E-AE278DD4FB0B}" dateTime="2016-11-25T19:11:23" maxSheetId="5" userName="USER-" r:id="rId239" minRId="718">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{29A4E9EB-FEC9-4E59-9B75-EB714D0EC4F9}" dateTime="2016-11-25T19:22:34" maxSheetId="5" userName="USER-" r:id="rId240" minRId="719" maxRId="720">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F6E467C4-6132-4AEB-8706-D057BCC51BD3}" dateTime="2016-11-25T19:53:08" maxSheetId="5" userName="USER-" r:id="rId241" minRId="721" maxRId="726">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0C6DC75D-D570-49F1-8357-DB2BF9A467B4}" dateTime="2016-11-25T20:05:31" maxSheetId="5" userName="USER-" r:id="rId242" minRId="727" maxRId="728">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DDA2B1E7-0E2C-4222-8AB3-95F88073DC34}" dateTime="2016-11-25T20:26:22" maxSheetId="5" userName="USER-" r:id="rId243" minRId="729" maxRId="730">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{86B3FF3C-FA39-42CB-BBE3-0F118507DAF9}" dateTime="2016-11-25T21:15:45" maxSheetId="5" userName="USER-" r:id="rId244" minRId="731" maxRId="732">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AD0CE64A-9E20-4591-99B8-BD480A98059E}" dateTime="2016-11-25T22:27:11" maxSheetId="5" userName="USER-" r:id="rId245" minRId="733" maxRId="734">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{28F2AE59-1F20-4D40-9BC2-6C239B90A389}" dateTime="2016-11-27T08:57:38" maxSheetId="5" userName="USER-" r:id="rId246" minRId="735" maxRId="738">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ACF4E096-3C37-49FC-8A0E-6D929E078395}" dateTime="2016-11-27T12:43:29" maxSheetId="5" userName="USER-" r:id="rId247" minRId="739" maxRId="740">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DEE1808B-F2FD-4FDB-A0E8-00D536D639F2}" dateTime="2016-11-27T13:07:47" maxSheetId="5" userName="USER-" r:id="rId248" minRId="741" maxRId="742">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{468F659E-2FB0-419B-B3E6-04ABB8DF1658}" dateTime="2016-11-27T13:09:04" maxSheetId="5" userName="USER-" r:id="rId249" minRId="743" maxRId="744">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5131772C-F321-457F-BB0C-2ECDB849FC77}" dateTime="2016-11-28T08:59:06" maxSheetId="5" userName="USER-" r:id="rId250" minRId="745" maxRId="748">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C69A0C7F-3F42-4581-B0AC-4CA532EC8B8C}" dateTime="2016-11-28T08:59:17" maxSheetId="5" userName="USER-" r:id="rId251" minRId="749">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9680C142-7D23-44D2-897F-4923938A66DC}" dateTime="2016-11-28T09:10:01" maxSheetId="5" userName="USER-" r:id="rId252" minRId="750" maxRId="751">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E986B91F-6100-4AFB-9B82-4A4410C349D7}" dateTime="2016-11-29T09:04:43" maxSheetId="5" userName="USER-" r:id="rId253" minRId="752" maxRId="755">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{14A3A0A1-E755-4115-8712-03D597C1B966}" dateTime="2016-11-29T09:05:09" maxSheetId="5" userName="USER-" r:id="rId254" minRId="756">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B3373B0E-EAA8-4A13-9F38-9993D03515D0}" dateTime="2016-11-29T09:14:19" maxSheetId="5" userName="USER-" r:id="rId255" minRId="757" maxRId="758">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{21FB0C76-88B6-4C1E-8BAE-646206FC839A}" dateTime="2016-11-29T09:14:55" maxSheetId="5" userName="USER-" r:id="rId256" minRId="759" maxRId="760">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{91816383-5394-4D37-8C94-9C782543F91B}" dateTime="2016-11-29T09:16:35" maxSheetId="5" userName="USER-" r:id="rId257" minRId="761">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C84BCDE9-32FB-4AD6-AA1A-71FA6EB06C2F}" dateTime="2016-11-29T09:18:21" maxSheetId="5" userName="USER-" r:id="rId258" minRId="762">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{82F2BF00-FE19-4EB9-9EDE-56322E7CF1DD}" dateTime="2016-11-29T09:55:38" maxSheetId="5" userName="USER-" r:id="rId259" minRId="763" maxRId="765">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A0636AE7-08B3-4FD2-A3A4-2182679E9676}" dateTime="2016-11-29T09:58:17" maxSheetId="5" userName="USER-" r:id="rId260" minRId="766">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9CD23562-6C3D-49D7-ABE8-D73F47E20FCD}" dateTime="2016-11-29T10:35:57" maxSheetId="5" userName="USER-" r:id="rId261" minRId="767" maxRId="768">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{ABCD64C3-675F-48EE-B5AD-790BE03266F8}" dateTime="2016-11-29T10:49:02" maxSheetId="5" userName="USER-" r:id="rId262" minRId="769" maxRId="773">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BF258022-6BB9-4DA5-A4F5-8ADE7D215F8D}" dateTime="2016-11-29T10:52:38" maxSheetId="5" userName="USER-" r:id="rId263" minRId="774" maxRId="775">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F9D443C4-3058-45E1-B1DC-FF7C74F40D88}" dateTime="2016-11-30T14:07:53" maxSheetId="5" userName="USER-" r:id="rId264" minRId="776" maxRId="778">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{78297895-9404-4CE6-8D95-68300EA0FDCF}" dateTime="2016-11-30T14:08:05" maxSheetId="5" userName="USER-" r:id="rId265" minRId="779" maxRId="780">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{94D90FDE-8856-41F2-B479-78CC453E0901}" dateTime="2016-11-30T14:08:24" maxSheetId="5" userName="USER-" r:id="rId266" minRId="781" maxRId="782">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B7007EC2-D103-418D-B5A3-7471950973F7}" dateTime="2016-11-30T18:33:31" maxSheetId="5" userName="USER-" r:id="rId267" minRId="783" maxRId="784">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9857213D-3366-43B3-AD48-706CF2BA474C}" dateTime="2016-11-30T18:34:17" maxSheetId="5" userName="USER-" r:id="rId268">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{203F54EC-73A9-4B25-BBD6-61808F5DB453}" dateTime="2016-12-01T08:38:11" maxSheetId="5" userName="USER-" r:id="rId269" minRId="785">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2E283730-56DA-4BF8-B348-827BEC931DE4}" dateTime="2016-12-01T08:38:28" maxSheetId="5" userName="USER-" r:id="rId270" minRId="786" maxRId="787">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AA5B35A3-FDD3-460D-BEB5-B4A0E8593DDB}" dateTime="2016-12-01T09:15:22" maxSheetId="5" userName="USER-" r:id="rId271" minRId="788" maxRId="789">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C3763654-4974-4DB3-8011-B65CE4A577F5}" dateTime="2016-12-01T09:17:07" maxSheetId="5" userName="USER-" r:id="rId272" minRId="790" maxRId="791">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DBCEB9F4-2C75-417C-A38B-3ACFF57D891E}" dateTime="2016-12-01T09:19:17" maxSheetId="5" userName="USER-" r:id="rId273" minRId="792" maxRId="793">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DFD0FBB8-4A61-4508-96A4-809AAD08F93D}" dateTime="2016-12-01T15:29:27" maxSheetId="5" userName="USER-" r:id="rId274" minRId="794" maxRId="795">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4F27480D-F4AE-4173-A258-3223566E02D4}" dateTime="2016-12-01T15:30:09" maxSheetId="5" userName="USER-" r:id="rId275" minRId="796">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{18A95B21-6952-420C-83BF-ADC05AC58A9D}" dateTime="2016-12-01T20:03:52" maxSheetId="5" userName="USER-" r:id="rId276" minRId="797" maxRId="798">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{75B687C5-5D7A-4A98-B9F7-2F43BAA9B760}" dateTime="2016-12-01T20:09:38" maxSheetId="5" userName="USER-" r:id="rId277" minRId="799">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EB74A3D5-8417-4B70-B820-AC5823B27A09}" dateTime="2016-12-01T20:11:23" maxSheetId="5" userName="USER-" r:id="rId278" minRId="800">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CDF7D08F-2163-4851-8990-29631627024A}" dateTime="2016-12-01T21:41:34" maxSheetId="5" userName="USER-" r:id="rId279" minRId="801" maxRId="802">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BBD1EC19-99D2-45C9-AB18-A1DF12C61EFD}" dateTime="2016-12-02T13:34:09" maxSheetId="5" userName="USER-" r:id="rId280" minRId="803" maxRId="804">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AB805BF2-1BB8-4B8F-9188-5A3D512B4D1A}" dateTime="2016-12-02T14:00:05" maxSheetId="5" userName="USER-" r:id="rId281" minRId="805" maxRId="806">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C515E0C4-E586-4C69-9690-F964565E2CD5}" dateTime="2016-12-02T14:13:59" maxSheetId="5" userName="USER-" r:id="rId282" minRId="807">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{16EBD274-BD9F-4216-829D-44D26EFB2330}" dateTime="2016-12-03T19:17:36" maxSheetId="5" userName="USER-" r:id="rId283" minRId="808" maxRId="811">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F4C32F28-13B2-422F-B613-C9448B25B2AA}" dateTime="2016-12-04T09:45:56" maxSheetId="5" userName="USER-" r:id="rId284" minRId="812" maxRId="816">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7925FFAF-97D3-4820-BBB4-93B6C4166C93}" dateTime="2016-12-04T10:04:49" maxSheetId="5" userName="USER-" r:id="rId285" minRId="817" maxRId="818">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F1108A96-E81D-4167-B086-973F955CA5B2}" dateTime="2016-12-04T10:37:01" maxSheetId="5" userName="USER-" r:id="rId286" minRId="819" maxRId="822">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9EC0A334-A5D2-4A2D-A7AA-EAA23FA84321}" dateTime="2016-12-04T10:39:30" maxSheetId="5" userName="USER-" r:id="rId287" minRId="823">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AAC2876C-5614-42F8-B9A7-D4ED319DDD48}" dateTime="2016-12-04T10:47:32" maxSheetId="5" userName="USER-" r:id="rId288" minRId="824" maxRId="826">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7330B9DA-4305-4D92-8A33-90CF5BEC1BE1}" dateTime="2016-12-04T14:16:46" maxSheetId="5" userName="USER-" r:id="rId289" minRId="827" maxRId="828">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{848D9BC5-1891-4E0B-8B3F-A1E38484550A}" dateTime="2016-12-04T15:51:58" maxSheetId="5" userName="USER-" r:id="rId290" minRId="829" maxRId="830">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3FE81399-E1D9-4710-B5E0-A8B0C0BB93C2}" dateTime="2016-12-05T22:16:36" maxSheetId="5" userName="USER-" r:id="rId291" minRId="831" maxRId="832">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6A6FA7F0-AC25-43EA-8F8D-A4EC0183FC6C}" dateTime="2016-12-05T22:16:59" maxSheetId="5" userName="USER-" r:id="rId292" minRId="834" maxRId="835">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{74D566D2-BDEE-4B63-81D5-42F8A269E637}" dateTime="2016-12-06T08:50:24" maxSheetId="5" userName="USER-" r:id="rId293" minRId="836">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{73F56117-E8C6-4E65-9A8A-306EF17D8409}" dateTime="2016-12-06T09:03:10" maxSheetId="5" userName="USER-" r:id="rId294" minRId="837" maxRId="838">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{87D8E562-47E0-48D5-92E6-84B0C502741F}" dateTime="2016-12-06T09:40:44" maxSheetId="5" userName="USER-" r:id="rId295" minRId="839" maxRId="841">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2C1C0501-D562-4AE0-8778-6FA486E07C6B}" dateTime="2016-12-06T10:52:46" maxSheetId="5" userName="USER-" r:id="rId296" minRId="842" maxRId="843">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D4FBDC80-133A-4416-9B1A-B1A71D1324AF}" dateTime="2016-12-06T16:56:56" maxSheetId="5" userName="USER-" r:id="rId297" minRId="844" maxRId="845">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4E7F8700-BEC5-4C28-BA08-7C77A5FD6737}" dateTime="2016-12-06T21:53:18" maxSheetId="5" userName="USER-" r:id="rId298" minRId="846">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{36C9A9D4-6484-44A9-8C85-6FBE0AE46F76}" dateTime="2016-12-06T22:33:19" maxSheetId="5" userName="USER-" r:id="rId299" minRId="847" maxRId="848">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{77BD2193-C72C-448E-BB7A-9A0AFC79045D}" dateTime="2016-12-06T22:34:53" maxSheetId="5" userName="USER-" r:id="rId300" minRId="849">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DCA877F1-4094-40C9-BCDF-A867776B979F}" dateTime="2016-12-06T22:39:00" maxSheetId="5" userName="USER-" r:id="rId301" minRId="850">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{01CB7B97-7E9C-4E70-BAC5-06E785A3C1C6}" dateTime="2016-12-07T08:33:17" maxSheetId="5" userName="USER-" r:id="rId302" minRId="851">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6A53F7D4-A9F3-4DA1-B2D9-4A3C5A95678F}" dateTime="2016-12-07T08:38:30" maxSheetId="5" userName="USER-" r:id="rId303" minRId="852" maxRId="853">
-    <sheetIdMap count="4">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7D2F35A0-8A5D-41E7-81DE-713D72B613E7}" dateTime="2016-12-07T08:38:50" maxSheetId="5" userName="USER-" r:id="rId304" minRId="854">
+  <header guid="{A0E1087D-330B-4682-8320-046FB589E613}" dateTime="2017-01-14T09:02:24" maxSheetId="5" userName="USER-" r:id="rId366">
     <sheetIdMap count="4">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -3276,10 +2864,10 @@
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="581" sId="1" eol="1" ref="A230:XFD230" action="insertRow"/>
-  <rcc rId="582" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A230">
-      <v>42683</v>
+  <rrc rId="916" sId="1" eol="1" ref="A365:XFD365" action="insertRow"/>
+  <rcc rId="917" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A365">
+      <v>42720</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3288,7 +2876,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A230:XFD230">
+  <rfmt sheetId="1" sqref="A365:XFD365">
     <dxf>
       <font>
         <b/>
@@ -3326,19 +2914,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="583" sId="1" eol="1" ref="A231:XFD231" action="insertRow"/>
-  <rcc rId="584" sId="1">
-    <nc r="A231" t="inlineStr">
+  <rrc rId="918" sId="1" eol="1" ref="A366:XFD366" action="insertRow"/>
+  <rcc rId="919" sId="1">
+    <nc r="A366" t="inlineStr">
       <is>
-        <t>flux怎样判断永磁方向对不对？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="585" sId="1">
-    <nc r="B231" t="inlineStr">
-      <is>
-        <t>不添加其他的磁场，先仿真一下，看看结果。</t>
+        <t>奇怪啊，Windows想啊运行，没有出现无穷大啊</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3348,11 +2928,10 @@
 
 <file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="610" sId="1" eol="1" ref="A242:XFD242" action="insertRow"/>
-  <rcc rId="611" sId="1">
-    <nc r="A242" t="inlineStr">
+  <rcc rId="941" sId="1">
+    <nc r="B375" t="inlineStr">
       <is>
-        <t>femm好像是对V进行了relax。。。</t>
+        <t>好像切换分支之后就不会显示其他分支的情况。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3360,26 +2939,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog100.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="829" sId="1" eol="1" ref="A329:XFD329" action="insertRow"/>
-  <rcc rId="830" sId="1">
-    <nc r="A329" t="inlineStr">
-      <is>
-        <t>std::numeric_limits&lt;double&gt;::epsilon ()</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog101.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="831" sId="1" eol="1" ref="A330:XFD330" action="insertRow"/>
-  <rcc rId="832" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A330">
-      <v>42709</v>
+  <rrc rId="942" sId="1" eol="1" ref="A376:XFD376" action="insertRow"/>
+  <rcc rId="943" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A376">
+      <v>42726</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3388,7 +2953,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A330:XFD330">
+  <rfmt sheetId="1" sqref="A376:XFD376">
     <dxf>
       <font>
         <b/>
@@ -3426,22 +2991,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$1:$A$322</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog102.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="834" sId="1" eol="1" ref="A331:XFD331" action="insertRow"/>
-  <rcc rId="835" sId="1">
-    <nc r="A331" t="inlineStr">
+  <rrc rId="944" sId="1" eol="1" ref="A377:XFD377" action="insertRow"/>
+  <rcc rId="945" sId="1">
+    <nc r="A377" t="inlineStr">
       <is>
-        <t>qt是如何在运行时把dll路径加进去的？</t>
+        <t>虚位移原理</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3449,12 +3003,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog103.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="836" sId="1">
-    <nc r="B331" t="inlineStr">
+  <rcc rId="946" sId="1">
+    <nc r="B377" t="inlineStr">
       <is>
-        <t>好奇怪啊，在project的设置里面修改PATH似乎没有什么用，最后在QT5菜单里，选择convert to qt add-in project 然后就好了，有别的设置？</t>
+        <t>浩玄乎。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3462,13 +3016,21 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog104.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="837" sId="1" eol="1" ref="A332:XFD332" action="insertRow"/>
-  <rcc rId="838" sId="1">
-    <nc r="A332" t="inlineStr">
+  <rrc rId="947" sId="1" eol="1" ref="A378:XFD378" action="insertRow"/>
+  <rcc rId="948" sId="1">
+    <nc r="A378" t="inlineStr">
       <is>
-        <t>convert project to Qmake project  和 convert to qt add-in project 有什么区别？？</t>
+        <t>TLM遇到了不收敛，</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="949" sId="1">
+    <nc r="B378" t="inlineStr">
+      <is>
+        <t>很可能是我没有初始化变量，我把I，pm初始化为0，好使了又。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3476,12 +3038,40 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog105.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="839" sId="1" eol="1" ref="A333:XFD333" action="insertRow"/>
-  <rcc rId="840" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A333">
-      <v>42710</v>
+  <rrc rId="950" sId="1" eol="1" ref="A379:XFD379" action="insertRow"/>
+  <rcc rId="951" sId="1">
+    <nc r="A379" t="inlineStr">
+      <is>
+        <t>现在NR和TLM的结果一致了，但是TLM的收敛性还是没有那么好</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="952" sId="1" eol="1" ref="A380:XFD380" action="insertRow"/>
+  <rcc rId="953" sId="1">
+    <nc r="A380" t="inlineStr">
+      <is>
+        <t>!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="954" sId="1" eol="1" ref="A381:XFD381" action="insertRow"/>
+  <rcc rId="955" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A381">
+      <v>42729</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3490,7 +3080,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A333:XFD333">
+  <rfmt sheetId="1" sqref="A381:XFD381">
     <dxf>
       <font>
         <b/>
@@ -3528,10 +3118,45 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rcc rId="841" sId="1">
-    <nc r="B332" t="inlineStr">
+  <rrc rId="956" sId="1" eol="1" ref="A382:XFD382" action="insertRow"/>
+  <rcc rId="957" sId="1">
+    <nc r="A382" t="inlineStr">
       <is>
-        <t>This is an ability of qmake to generate .vcproj from a .pro file. So you should read qmake documentation to create a right .pro file. Qt add-in的相关东西在它的安装目录。</t>
+        <t>电磁力计算</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="958" sId="1" xfDxf="1" dxf="1">
+    <nc r="B382" t="inlineStr">
+      <is>
+        <t>Virtual work approach to the computation of magne</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="方正报宋简体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" wrapText="1"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="959" sId="1">
+    <oc r="B382" t="inlineStr">
+      <is>
+        <t>Virtual work approach to the computation of magne</t>
+      </is>
+    </oc>
+    <nc r="B382" t="inlineStr">
+      <is>
+        <t>Virtual work approach to the computation of magnetic force distribution from finite element field solutions</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3539,151 +3164,21 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog106.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A345" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A345" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="27" formatCode="yyyy/m/d\ h:mm"/>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A346" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A347" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A348" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A349" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A350" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A351" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A352" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A353" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A354" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A355" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" xfDxf="1" sqref="A356" start="0" length="0">
-    <dxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="842" sId="1" eol="1" ref="A334:XFD334" action="insertRow"/>
-  <rcc rId="843" sId="1">
-    <nc r="A334" t="inlineStr">
+  <rrc rId="960" sId="1" eol="1" ref="A383:XFD383" action="insertRow"/>
+  <rcc rId="961" sId="1">
+    <nc r="A383" t="inlineStr">
       <is>
-        <t>FLUX当中怎么导出一个区域内的值？</t>
+        <t>不同位置的意味着要再次分网重新算啊。</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="962" sId="1">
+    <nc r="B383" t="inlineStr">
+      <is>
+        <t>但是初始值可以利用上一次的计算结果吧，如果没有变形的话，空气除外，那么直接幅值就是离真实值差不多级别吧，但是我觉得得用相对坐标了。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3691,13 +3186,26 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog107.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="844" sId="1" eol="1" ref="A335:XFD335" action="insertRow"/>
-  <rcc rId="845" sId="1">
-    <nc r="A335" t="inlineStr">
+  <rfmt sheetId="1" sqref="A383:XFD383">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="920" sId="1">
+    <nc r="B366" t="inlineStr">
       <is>
-        <t>结果对不上啊</t>
+        <t>好像是向着有夹角的方向进行的。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3705,164 +3213,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog108.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="846" sId="1">
-    <nc r="B335" t="inlineStr">
-      <is>
-        <t>问题是FLUX没有A值，FEMM当中有不知道如何导出A值。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog109.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="847" sId="1" eol="1" ref="A336:XFD336" action="insertRow"/>
-  <rcc rId="848" sId="1">
-    <nc r="A336" t="inlineStr">
-      <is>
-        <t>MATLAb当中使用的是FEMM当中的公式，也许是没有完全的理解公式的含义，计算的结果感觉是2倍的关系，无解啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="612" sId="1" eol="1" ref="A243:XFD243" action="insertRow"/>
-  <rcc rId="613" sId="1">
-    <nc r="A243" t="inlineStr">
-      <is>
-        <t>平面轴对称磁场当中，H和B的方向是怎样的？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="614" sId="1">
-    <nc r="B243" t="inlineStr">
-      <is>
-        <t>应该是在平面里，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog110.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="849" sId="1">
-    <nc r="B336" t="inlineStr">
-      <is>
-        <t>还得再研究公式啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog111.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="850" sId="1">
-    <oc r="B336" t="inlineStr">
-      <is>
-        <t>还得再研究公式啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B336" t="inlineStr">
-      <is>
-        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog112.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="851" sId="1">
-    <oc r="B336" t="inlineStr">
-      <is>
-        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B336" t="inlineStr">
-      <is>
-        <t>还得再研究公式啊。得继续研究为什么femm是对的啊。公式可能看错了，它只约去了pi，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog113.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="852" sId="1" eol="1" ref="A337:XFD337" action="insertRow"/>
-  <rcc rId="853" sId="1">
-    <nc r="A337" t="inlineStr">
-      <is>
-        <t>写总结，还得附上结果以及参考文献。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog114.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="854" sId="1">
-    <oc r="A337" t="inlineStr">
-      <is>
-        <t>写总结，还得附上结果以及参考文献。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A337" t="inlineStr">
-      <is>
-        <t>写总结，还得附上结果以及参考文献，应该做出一个这样的系统，感觉更像网站的风格。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="615" sId="1">
-    <oc r="B243" t="inlineStr">
-      <is>
-        <t>应该是在平面里，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B243" t="inlineStr">
-      <is>
-        <t>应该是在平面里，H更类似于电路里面的电压，而B类似于电流，取决于材料的属性，H是由电流产生的，不同的材料，磁导率不一样，这样产生的B不一样，也就是材料本身感受到的不一样。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="616" sId="1" eol="1" ref="A244:XFD244" action="insertRow"/>
-  <rcc rId="617" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A244">
-      <v>42685</v>
+  <rrc rId="963" sId="1" eol="1" ref="A384:XFD384" action="insertRow"/>
+  <rcc rId="964" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A384">
+      <v>42730</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3871,7 +3227,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A244:XFD244">
+  <rfmt sheetId="1" sqref="A384:XFD384">
     <dxf>
       <font>
         <b/>
@@ -3909,44 +3265,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="618" sId="1" eol="1" ref="A245:XFD245" action="insertRow"/>
-  <rcc rId="619" sId="1">
-    <nc r="A245" t="inlineStr">
+  <rrc rId="965" sId="1" eol="1" ref="A385:XFD385" action="insertRow"/>
+  <rcc rId="966" sId="1">
+    <nc r="A385" t="inlineStr">
       <is>
-        <t>永磁的种类</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B245">
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="B245">
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="B245">
-    <dxf>
-      <alignment vertical="top"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="B245">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="620" sId="1">
-    <nc r="B245" t="inlineStr">
-      <is>
-        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
+        <t>虚位移原理需要计算偏移一段距离的磁场，也就是要重新进行分网计算。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3954,40 +3277,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="621" sId="1">
-    <oc r="B245" t="inlineStr">
+  <rrc rId="967" sId="1" eol="1" ref="A386:XFD386" action="insertRow"/>
+  <rcc rId="968" sId="1">
+    <nc r="A386" t="inlineStr">
       <is>
-        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B245" t="inlineStr">
-      <is>
-        <t>永磁系统可处理的磁体几何形状主要为目前应用最多的圆柱形、长方形、扇形和环形等具有较高对称性的永磁体 ,结合不同的磁化方向 ,可分为以下10 种类别 : (1) 轴向磁化圆柱体 ; (2) 轴向磁化长方体 ; (3) 轴向磁化圆环体 ; (4) 辐向磁化圆环体 ; (5) 辐向磁化多级环 ; (6) 辐向磁化扇形体 ; (7) 径向磁化圆柱体 ; (8) 径向磁化圆环体 ; (9) 径向磁化正常扇形体 ; (10) 径向磁化平边扇形体。
-永磁体的材料种类原则上不受任何限制 ,既可以是钕铁硼、钐钴等高性能永磁材料 ,也可以是铝镍
-钴、铁氧体、铁铬钴等磁性能较低的永磁材料 ;既可以是各向异性磁体 ,也可以是各向同性磁体。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="623" sId="1" eol="1" ref="A246:XFD246" action="insertRow"/>
-  <rcc rId="624" sId="1">
-    <nc r="A246" t="inlineStr">
-      <is>
-        <t>BH曲线是什么意思？</t>
+        <t>magnetic energy and coenergy</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -3995,12 +3291,176 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="625" sId="1" eol="1" ref="A247:XFD247" action="insertRow"/>
-  <rcc rId="626" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A247">
-      <v>42686</v>
+  <rcc rId="969" sId="4">
+    <nc r="H9">
+      <v>3000</v>
+    </nc>
+  </rcc>
+  <rcc rId="970" sId="4">
+    <nc r="I9">
+      <v>0</v>
+    </nc>
+  </rcc>
+  <rcc rId="971" sId="4">
+    <nc r="I10">
+      <v>313.83</v>
+    </nc>
+  </rcc>
+  <rcc rId="972" sId="4">
+    <nc r="I11">
+      <v>318.52999999999997</v>
+    </nc>
+  </rcc>
+  <rcc rId="973" sId="4">
+    <nc r="I12">
+      <v>323.31</v>
+    </nc>
+  </rcc>
+  <rcc rId="974" sId="4">
+    <nc r="I13">
+      <v>328.16</v>
+    </nc>
+  </rcc>
+  <rcc rId="975" sId="4">
+    <nc r="I14">
+      <v>333.08</v>
+    </nc>
+  </rcc>
+  <rcc rId="976" sId="4">
+    <nc r="I15">
+      <v>338.08</v>
+    </nc>
+  </rcc>
+  <rcc rId="977" sId="4">
+    <nc r="I16">
+      <v>343.15</v>
+    </nc>
+  </rcc>
+  <rcc rId="978" sId="4">
+    <nc r="I17">
+      <v>348.3</v>
+    </nc>
+  </rcc>
+  <rcc rId="979" sId="4">
+    <nc r="I18">
+      <v>353.56</v>
+    </nc>
+  </rcc>
+  <rcc rId="980" sId="4">
+    <nc r="H10">
+      <f>H9-I9</f>
+    </nc>
+  </rcc>
+  <rcc rId="981" sId="4">
+    <nc r="H11">
+      <f>H10-I10</f>
+    </nc>
+  </rcc>
+  <rcc rId="982" sId="4">
+    <nc r="H12">
+      <f>H11-I11</f>
+    </nc>
+  </rcc>
+  <rcc rId="983" sId="4">
+    <nc r="H13">
+      <f>H12-I12</f>
+    </nc>
+  </rcc>
+  <rcc rId="984" sId="4">
+    <nc r="H14">
+      <f>H13-I13</f>
+    </nc>
+  </rcc>
+  <rcc rId="985" sId="4">
+    <nc r="H15">
+      <f>H14-I14</f>
+    </nc>
+  </rcc>
+  <rcc rId="986" sId="4">
+    <nc r="H16">
+      <f>H15-I15</f>
+    </nc>
+  </rcc>
+  <rcc rId="987" sId="4">
+    <nc r="H17">
+      <f>H16-I16</f>
+    </nc>
+  </rcc>
+  <rcc rId="988" sId="4">
+    <nc r="H18">
+      <f>H17-I17</f>
+    </nc>
+  </rcc>
+  <rcc rId="989" sId="4">
+    <nc r="J10">
+      <f>H10*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="990" sId="4">
+    <nc r="J11">
+      <f>H11*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="991" sId="4">
+    <nc r="J12">
+      <f>H12*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="992" sId="4">
+    <nc r="J13">
+      <f>H13*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="993" sId="4">
+    <nc r="J14">
+      <f>H14*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="994" sId="4">
+    <nc r="J15">
+      <f>H15*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="995" sId="4">
+    <nc r="J16">
+      <f>H16*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="996" sId="4">
+    <nc r="J17">
+      <f>H17*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="997" sId="4">
+    <nc r="J18">
+      <f>H18*2.3%</f>
+    </nc>
+  </rcc>
+  <rcc rId="998" sId="4">
+    <nc r="J19">
+      <f>SUM(J10:J18)</f>
+    </nc>
+  </rcc>
+  <rrc rId="999" sId="1" eol="1" ref="A387:XFD387" action="insertRow"/>
+  <rcc rId="1000" sId="1">
+    <nc r="A387" t="inlineStr">
+      <is>
+        <t>force distribution和net force是什么关系？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1001" sId="1" eol="1" ref="A388:XFD388" action="insertRow"/>
+  <rcc rId="1002" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A388">
+      <v>42731</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4009,7 +3469,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A247:XFD247">
+  <rfmt sheetId="1" sqref="A388:XFD388">
     <dxf>
       <font>
         <b/>
@@ -4047,39 +3507,232 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="627" sId="1" eol="1" ref="A248:XFD248" action="insertRow"/>
-  <rcc rId="628" sId="1">
-    <nc r="A248" t="inlineStr">
+  <rcc rId="1003" sId="4">
+    <oc r="I9">
+      <v>0</v>
+    </oc>
+    <nc r="I9"/>
+  </rcc>
+  <rcc rId="1004" sId="4">
+    <oc r="I10">
+      <v>313.83</v>
+    </oc>
+    <nc r="I10"/>
+  </rcc>
+  <rcc rId="1005" sId="4">
+    <oc r="J10">
+      <f>H10*2.3%</f>
+    </oc>
+    <nc r="J10"/>
+  </rcc>
+  <rcc rId="1006" sId="4">
+    <oc r="I11">
+      <v>318.52999999999997</v>
+    </oc>
+    <nc r="I11"/>
+  </rcc>
+  <rcc rId="1007" sId="4">
+    <oc r="J11">
+      <f>H11*2.3%</f>
+    </oc>
+    <nc r="J11"/>
+  </rcc>
+  <rcc rId="1008" sId="4">
+    <oc r="I12">
+      <v>323.31</v>
+    </oc>
+    <nc r="I12"/>
+  </rcc>
+  <rcc rId="1009" sId="4">
+    <oc r="J12">
+      <f>H12*2.3%</f>
+    </oc>
+    <nc r="J12"/>
+  </rcc>
+  <rcc rId="1010" sId="4">
+    <oc r="I13">
+      <v>328.16</v>
+    </oc>
+    <nc r="I13"/>
+  </rcc>
+  <rcc rId="1011" sId="4">
+    <oc r="J13">
+      <f>H13*2.3%</f>
+    </oc>
+    <nc r="J13"/>
+  </rcc>
+  <rcc rId="1012" sId="4">
+    <oc r="I14">
+      <v>333.08</v>
+    </oc>
+    <nc r="I14"/>
+  </rcc>
+  <rcc rId="1013" sId="4">
+    <oc r="J14">
+      <f>H14*2.3%</f>
+    </oc>
+    <nc r="J14"/>
+  </rcc>
+  <rcc rId="1014" sId="4">
+    <oc r="I15">
+      <v>338.08</v>
+    </oc>
+    <nc r="I15"/>
+  </rcc>
+  <rcc rId="1015" sId="4">
+    <oc r="J15">
+      <f>H15*2.3%</f>
+    </oc>
+    <nc r="J15"/>
+  </rcc>
+  <rcc rId="1016" sId="4">
+    <oc r="H16">
+      <f>H15-I15</f>
+    </oc>
+    <nc r="H16"/>
+  </rcc>
+  <rcc rId="1017" sId="4">
+    <oc r="I16">
+      <v>343.15</v>
+    </oc>
+    <nc r="I16"/>
+  </rcc>
+  <rcc rId="1018" sId="4">
+    <oc r="J16">
+      <f>H16*2.3%</f>
+    </oc>
+    <nc r="J16"/>
+  </rcc>
+  <rcc rId="1019" sId="4">
+    <oc r="H17">
+      <f>H16-I16</f>
+    </oc>
+    <nc r="H17"/>
+  </rcc>
+  <rcc rId="1020" sId="4">
+    <oc r="I17">
+      <v>348.3</v>
+    </oc>
+    <nc r="I17"/>
+  </rcc>
+  <rcc rId="1021" sId="4">
+    <oc r="J17">
+      <f>H17*2.3%</f>
+    </oc>
+    <nc r="J17"/>
+  </rcc>
+  <rcc rId="1022" sId="4">
+    <oc r="H18">
+      <f>H17-I17</f>
+    </oc>
+    <nc r="H18"/>
+  </rcc>
+  <rcc rId="1023" sId="4">
+    <oc r="I18">
+      <v>353.56</v>
+    </oc>
+    <nc r="I18"/>
+  </rcc>
+  <rcc rId="1024" sId="4">
+    <oc r="J18">
+      <f>H18*2.3%</f>
+    </oc>
+    <nc r="J18"/>
+  </rcc>
+  <rcc rId="1025" sId="4">
+    <oc r="J19">
+      <f>SUM(J10:J18)</f>
+    </oc>
+    <nc r="J19"/>
+  </rcc>
+  <rcc rId="1026" sId="4">
+    <oc r="H9">
+      <v>3000</v>
+    </oc>
+    <nc r="H9"/>
+  </rcc>
+  <rcc rId="1027" sId="4">
+    <oc r="H10">
+      <f>H9-I9</f>
+    </oc>
+    <nc r="H10"/>
+  </rcc>
+  <rcc rId="1028" sId="4">
+    <oc r="H11">
+      <f>H10-I10</f>
+    </oc>
+    <nc r="H11"/>
+  </rcc>
+  <rcc rId="1029" sId="4">
+    <oc r="H12">
+      <f>H11-I11</f>
+    </oc>
+    <nc r="H12"/>
+  </rcc>
+  <rcc rId="1030" sId="4">
+    <oc r="H13">
+      <f>H12-I12</f>
+    </oc>
+    <nc r="H13"/>
+  </rcc>
+  <rcc rId="1031" sId="4">
+    <oc r="H14">
+      <f>H13-I13</f>
+    </oc>
+    <nc r="H14"/>
+  </rcc>
+  <rcc rId="1032" sId="4">
+    <oc r="H15">
+      <f>H14-I14</f>
+    </oc>
+    <nc r="H15"/>
+  </rcc>
+  <rrc rId="1033" sId="1" eol="1" ref="A389:XFD389" action="insertRow"/>
+  <rcc rId="1034" sId="1">
+    <nc r="A389" t="inlineStr">
       <is>
-        <t>只有永磁的模型，分别用femm和flux进行计算，看看结果能够差多少。</t>
+        <t>CVW方法当中，哪些单元会考虑进去？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="543" sId="1" eol="1" ref="A213:XFD213" action="insertRow"/>
-  <rcc rId="544" sId="1">
-    <nc r="A213" t="inlineStr">
+  <rrc rId="1035" sId="1" eol="1" ref="A390:XFD390" action="insertRow"/>
+  <rcc rId="1036" sId="1">
+    <nc r="A390" t="inlineStr">
       <is>
-        <t>comsol是怎么建永磁模型的？</t>
+        <t>到底算哪些节点啊。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rrc rId="545" sId="1" eol="1" ref="A214:XFD214" action="insertRow"/>
-  <rcc rId="546" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A214">
-      <v>42682</v>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1037" sId="1" eol="1" ref="A391:XFD391" action="insertRow"/>
+  <rcc rId="1038" sId="1">
+    <nc r="A391" t="inlineStr">
+      <is>
+        <t>偏微分怎样计算啊？？？</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1039" sId="1" eol="1" ref="A392:XFD392" action="insertRow"/>
+  <rcc rId="1040" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A392">
+      <v>42732</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4088,7 +3741,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A214:XFD214">
+  <rfmt sheetId="1" sqref="A392:XFD392">
     <dxf>
       <font>
         <b/>
@@ -4126,11 +3779,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="547" sId="1" eol="1" ref="A215:XFD215" action="insertRow"/>
-  <rcc rId="548" sId="1">
-    <nc r="A215" t="inlineStr">
+  <rrc rId="1041" sId="1" eol="1" ref="A393:XFD393" action="insertRow"/>
+  <rcc rId="1042" sId="1">
+    <nc r="A393" t="inlineStr">
       <is>
-        <t>轴对称、永磁、接触器、</t>
+        <t>qt的窗口怎样才能让它在处理的时候，也能移动？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4138,245 +3791,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="549" sId="1" eol="1" ref="A216:XFD216" action="insertRow"/>
-  <rcc rId="550" sId="1">
-    <nc r="A216" t="inlineStr">
-      <is>
-        <t>含永磁的工作原理</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog176.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="551" sId="1" eol="1" ref="A217:XFD217" action="insertRow"/>
-  <rcc rId="552" sId="1">
-    <nc r="A217" t="inlineStr">
-      <is>
-        <t>永磁的充磁</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog177.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="553" sId="1" eol="1" ref="A218:XFD218" action="insertRow"/>
-  <rcc rId="554" sId="1">
-    <nc r="A218" t="inlineStr">
-      <is>
-        <t>flux11.2 不安装dongle driver，不安装sp1</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog178.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="555" sId="1">
-    <nc r="B217" t="inlineStr">
-      <is>
-        <t>环形的好像充磁比较复杂，需要特制。装配也有问题。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog179.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="556" sId="1">
-    <oc r="A212" t="inlineStr">
-      <is>
-        <t>电磁力怎么算？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A212" t="inlineStr">
-      <is>
-        <t>电磁力怎么算？永磁对铁芯的吸力怎么计算？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="630" sId="1" eol="1" ref="A249:XFD249" action="insertRow"/>
-  <rcc rId="631" sId="1">
-    <nc r="A249" t="inlineStr">
-      <is>
-        <t>要是张无忌存着求全之心，非练到尽善尽美不肯罢手，那么到最后关头便会走火入魔，不是疯癫痴呆，便致全身瘫痪，甚至自绝经脉而亡。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog180.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="557" sId="1" eol="1" ref="A219:XFD219" action="insertRow"/>
-  <rcc rId="558" sId="1">
-    <nc r="A219" t="inlineStr">
-      <is>
-        <t>在FLUX当中建立轴对称的，含环形永磁的，911模型。仿出不同位置的磁场以及电磁力。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog181.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="559" sId="1" eol="1" ref="A220:XFD220" action="insertRow"/>
-  <rcc rId="560" sId="1">
-    <nc r="A220" t="inlineStr">
-      <is>
-        <t>看添加永磁之后程序怎么写。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog182.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="561" sId="1" eol="1" ref="A221:XFD221" action="insertRow"/>
-  <rcc rId="562" sId="1">
-    <nc r="A221" t="inlineStr">
-      <is>
-        <t>flux的gxf导出几何模型</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog183.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="563" sId="1" eol="1" ref="A222:XFD222" action="insertRow"/>
-  <rcc rId="564" sId="1">
-    <nc r="A222" t="inlineStr">
-      <is>
-        <t>怎样查看comsol里面每个体的编号与物理区域的对应。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog184.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="565" sId="1">
-    <nc r="B222" t="inlineStr">
-      <is>
-        <t>有一个选择</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="566" sId="1" eol="1" ref="A223:XFD223" action="insertRow"/>
-  <rcc rId="567" sId="1">
-    <nc r="A223" t="inlineStr">
-      <is>
-        <t>DXF文件读取程序</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog185.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="568" sId="1" eol="1" ref="A224:XFD224" action="insertRow"/>
-  <rcc rId="569" sId="1">
-    <nc r="A224" t="inlineStr">
-      <is>
-        <t>加不加永磁公式有什么不一样</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="570" sId="1" eol="1" ref="A225:XFD225" action="insertRow"/>
-  <rcc rId="571" sId="1">
-    <nc r="A225" t="inlineStr">
-      <is>
-        <t>电磁力公式怎么计算？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="572" sId="1" eol="1" ref="A226:XFD226" action="insertRow"/>
-  <rcc rId="573" sId="1">
-    <nc r="A226" t="inlineStr">
-      <is>
-        <t>如何使用comsol分好网络？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="574" sId="1" eol="1" ref="A227:XFD227" action="insertRow"/>
-  <rcc rId="575" sId="1">
-    <nc r="A227" t="inlineStr">
-      <is>
-        <t>LATEX、plain TEX、conTEX有什么区别？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="576" sId="1" eol="1" ref="A228:XFD228" action="insertRow"/>
-  <rcc rId="577" sId="1">
-    <nc r="A228" t="inlineStr">
-      <is>
-        <t>如何让气隙附近分网更准</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="578" sId="1">
-    <nc r="B228" t="inlineStr">
-      <is>
-        <t>分网之前，选择边分网，然后选择气隙附近的边界，把边分成小段，然后选择三角单元分网，对电流区进行整齐分网，然后再选择三角单元分网，对其余部分进行分网。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="579" sId="1" eol="1" ref="A229:XFD229" action="insertRow"/>
-  <rcc rId="580" sId="1">
-    <nc r="A229" t="inlineStr">
-      <is>
-        <t>为了对比flux的计算结果，需要导出flux的分网数据</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="632" sId="1" eol="1" ref="A250:XFD250" action="insertRow"/>
-  <rcc rId="633" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A250">
-      <v>42687</v>
+  <rrc rId="1043" sId="1" eol="1" ref="A394:XFD394" action="insertRow"/>
+  <rcc rId="1044" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A394">
+      <v>42733</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4385,7 +3805,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A250:XFD250">
+  <rfmt sheetId="1" sqref="A394:XFD394">
     <dxf>
       <font>
         <b/>
@@ -4423,11 +3843,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="634" sId="1" eol="1" ref="A251:XFD251" action="insertRow"/>
-  <rcc rId="635" sId="1">
-    <nc r="A251" t="inlineStr">
+  <rrc rId="1045" sId="1" eol="1" ref="A395:XFD395" action="insertRow"/>
+  <rcc rId="1046" sId="1">
+    <nc r="A395" t="inlineStr">
       <is>
-        <t>画出三维轴对称的效果图，要用</t>
+        <t>啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊啊</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4435,13 +3855,13 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="586" sId="1" eol="1" ref="A232:XFD232" action="insertRow"/>
-  <rcc rId="587" sId="1">
-    <nc r="A232" t="inlineStr">
+  <rrc rId="1047" sId="1" eol="1" ref="A396:XFD396" action="insertRow"/>
+  <rcc rId="1048" sId="1">
+    <nc r="A396" t="inlineStr">
       <is>
-        <t>github好像别人都可以下载看到，也可以fork，但是不能对我的版本进行修改。</t>
+        <t>comsol怎么偏移一小段？？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4449,26 +3869,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="636" sId="1" eol="1" ref="A252:XFD252" action="insertRow"/>
-  <rcc rId="637" sId="1">
-    <nc r="A252" t="inlineStr">
-      <is>
-        <t>一切回到根本，麦克斯韦方程式。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="638" sId="1" eol="1" ref="A253:XFD253" action="insertRow"/>
-  <rcc rId="639" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A253">
-      <v>42688</v>
+  <rrc rId="1049" sId="1" eol="1" ref="A397:XFD397" action="insertRow"/>
+  <rcc rId="1050" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A397">
+      <v>42745</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4477,7 +3883,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A253:XFD253">
+  <rfmt sheetId="1" sqref="A397:XFD397">
     <dxf>
       <font>
         <b/>
@@ -4515,23 +3921,14 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="640" sId="1" numFmtId="19">
-    <oc r="A253">
-      <v>42688</v>
-    </oc>
-    <nc r="A253">
-      <v>42689</v>
-    </nc>
-  </rcc>
-  <rcc rId="641" sId="1">
-    <nc r="B248" t="inlineStr">
+  <rrc rId="1051" sId="1" eol="1" ref="A398:XFD398" action="insertRow"/>
+  <rcc rId="1052" sId="1">
+    <nc r="A398" t="inlineStr">
       <is>
-        <t>通过比对发现，两个结果相差不大，所以可以利用FEMM当中的算法来进行永磁计算。另外FEMM的作者只有一个人啊，而且是某个公司的首席科学家。</t>
+        <t>[主版本号].[次版本号].[补丁号]，通常用v做前缀。例如：v1.0.0
+每次能保证向后兼容的补丁升级，增加补丁号
+向后兼容的新功能加入，增加新API ，增加此版本号
+不向后兼容的新功能加入，增加新API ，增加主版本号</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4539,26 +3936,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="642" sId="1" eol="1" ref="A254:XFD254" action="insertRow"/>
-  <rcc rId="643" sId="1">
-    <nc r="A254" t="inlineStr">
-      <is>
-        <t>看懂了FEMM的程序！！</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="644" sId="1" eol="1" ref="A255:XFD255" action="insertRow"/>
-  <rcc rId="645" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A255">
-      <v>42691</v>
+  <rrc rId="921" sId="1" eol="1" ref="A367:XFD367" action="insertRow"/>
+  <rcc rId="922" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A367">
+      <v>42721</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4567,7 +3950,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A255:XFD255">
+  <rfmt sheetId="1" sqref="A367:XFD367">
     <dxf>
       <font>
         <b/>
@@ -4605,168 +3988,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="646" sId="1" eol="1" ref="A256:XFD256" action="insertRow"/>
-  <rcc rId="647" sId="1">
-    <nc r="A256" t="inlineStr">
+  <rrc rId="923" sId="1" eol="1" ref="A368:XFD368" action="insertRow"/>
+  <rcc rId="924" sId="1">
+    <nc r="A368" t="inlineStr">
       <is>
-        <t>确定了轴对称当中永磁的计算公式</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="648" sId="1">
-    <nc r="B256" t="inlineStr">
-      <is>
-        <t>用有限元法计算永磁电机磁场</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="649" sId="1" eol="1" ref="A257:XFD257" action="insertRow"/>
-  <rcc rId="650" sId="1">
-    <nc r="A257" t="inlineStr">
-      <is>
-        <t>Magnetic materials and 3D finite element modeling</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="652" sId="1">
-    <nc r="B257" t="inlineStr">
-      <is>
-        <t>小木虫上悬赏找到了！！！</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="653" sId="1" eol="1" ref="A258:XFD258" action="insertRow"/>
-  <rcc rId="654" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A258">
-      <v>42695</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A258:XFD258">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="655" sId="1" eol="1" ref="A259:XFD259" action="insertRow"/>
-  <rcc rId="656" sId="1">
-    <nc r="A259" t="inlineStr">
-      <is>
-        <t>MS Project:怎么在甘特图里面现实任务名称?</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="657" sId="1">
-    <nc r="B259" t="inlineStr">
-      <is>
-        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="658" sId="1">
-    <oc r="B259" t="inlineStr">
-      <is>
-        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B259" t="inlineStr">
-      <is>
-        <t>在甘特图视图中，单击“格式”&gt;“条形图样式”。Formats</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="659" sId="1" eol="1" ref="A260:XFD260" action="insertRow"/>
-  <rcc rId="660" sId="1">
-    <nc r="A260" t="inlineStr">
-      <is>
-        <t>FLUX 怎么查看某一点的A值？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="588" sId="1">
-    <nc r="B232" t="inlineStr">
-      <is>
-        <t>不介意</t>
+        <t>define，是宏替换，并不求值。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4776,11 +4002,22 @@
 
 <file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="661" sId="1" eol="1" ref="A261:XFD261" action="insertRow"/>
-  <rcc rId="662" sId="1">
-    <nc r="A261" t="inlineStr">
+  <rcc rId="1053" sId="1">
+    <oc r="A398" t="inlineStr">
       <is>
-        <t>comsol下面的那几个磁场研究是什么区别？</t>
+        <t>[主版本号].[次版本号].[补丁号]，通常用v做前缀。例如：v1.0.0
+每次能保证向后兼容的补丁升级，增加补丁号
+向后兼容的新功能加入，增加新API ，增加此版本号
+不向后兼容的新功能加入，增加新API ，增加主版本号</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="A398" t="inlineStr">
+      <is>
+        <t>[主版本号].[次版本号].[补丁号]，通常用v做前缀。例如：v1.0.0
+每次能保证向后兼容的补丁升级，增加补丁号
+向后兼容的新功能加入，增加新API ，增加次版本号
+不向后兼容的新功能加入，增加新API ，增加主版本号</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -4790,10 +4027,10 @@
 
 <file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="663" sId="1" eol="1" ref="A262:XFD262" action="insertRow"/>
-  <rcc rId="664" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A262">
-      <v>42696</v>
+  <rrc rId="1054" sId="1" eol="1" ref="A399:XFD399" action="insertRow"/>
+  <rcc rId="1055" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A399">
+      <v>42746</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4802,253 +4039,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A262:XFD262">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="665" sId="1" eol="1" ref="A263:XFD263" action="insertRow"/>
-  <rcc rId="666" sId="1">
-    <nc r="A263" t="inlineStr">
-      <is>
-        <t>FEMM使用的基函数并不是线性的，所以不应该直接照搬它的永磁代码啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="667" sId="1" eol="1" ref="A264:XFD264" action="insertRow"/>
-  <rcc rId="668" sId="1">
-    <nc r="A264" t="inlineStr">
-      <is>
-        <t>调试FEMM的代码。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="669" sId="1" eol="1" ref="A265:XFD265" action="insertRow"/>
-  <rcc rId="670" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A265">
-      <v>42697</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A265:XFD265">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="671" sId="1" eol="1" ref="A266:XFD266" action="insertRow"/>
-  <rcc rId="672" sId="1">
-    <nc r="A266" t="inlineStr">
-      <is>
-        <t>SDI boundaries</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="674" sId="1" eol="1" ref="A267:XFD267" action="insertRow"/>
-  <rcc rId="675" sId="1">
-    <nc r="A267" t="inlineStr">
-      <is>
-        <t>查看view result的代码</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="676" sId="1" eol="1" ref="A268:XFD268" action="insertRow"/>
-  <rcc rId="677" sId="1">
-    <nc r="A268" t="inlineStr">
-      <is>
-        <t>// need this loop to avoid singularities.  This just puts something
-  // on the main diagonal of nodes that are on the r=0 line.
-  // The program later sets these nodes to zero, but it's good to
-  // for scaling reasons to grab entries from the neighboring diagonals
-  // rather than just setting these entries to 1 or something....
-  for(j=0;j&lt;3;j++)
-   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="678" sId="1" eol="1" ref="A269:XFD269" action="insertRow"/>
-  <rcc rId="679" sId="1">
-    <nc r="A269" t="inlineStr">
-      <is>
-        <t>突然想到了一个好主意，利用typora，然后建立新的跟踪模板。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="680" sId="1" eol="1" ref="A270:XFD270" action="insertRow"/>
-  <rcc rId="681" sId="1">
-    <nc r="A270" t="inlineStr">
-      <is>
-        <t>pandoc</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="682" sId="1">
-    <oc r="A266" t="inlineStr">
-      <is>
-        <t>SDI boundaries</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A266" t="inlineStr">
-      <is>
-        <t>SDI boundaries</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="683" sId="1">
-    <oc r="A268" t="inlineStr">
-      <is>
-        <t>// need this loop to avoid singularities.  This just puts something
-  // on the main diagonal of nodes that are on the r=0 line.
-  // The program later sets these nodes to zero, but it's good to
-  // for scaling reasons to grab entries from the neighboring diagonals
-  // rather than just setting these entries to 1 or something....
-  for(j=0;j&lt;3;j++)
-   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A268" t="inlineStr">
-      <is>
-        <t>// need this loop to avoid singularities.  This just puts something
-  // on the main diagonal of nodes that are on the r=0 line.
-  // The program later sets these nodes to zero, but it's good to
-  // for scaling reasons to grab entries from the neighboring diagonals
-  // rather than just setting these entries to 1 or something....
-  for(j=0;j&lt;3;j++)
-   if (rn[j]&lt;1.e-06) Mx[j][j]+=Mx[0][0]+Mx[1][1]+Mx[2][2];</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="684" sId="1" eol="1" ref="A271:XFD271" action="insertRow"/>
-  <rcc rId="685" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A271">
-      <v>42698</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A271:XFD271">
+  <rfmt sheetId="1" sqref="A399:XFD399">
     <dxf>
       <font>
         <b/>
@@ -5086,247 +4077,382 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="686" sId="1" eol="1" ref="A272:XFD272" action="insertRow"/>
-  <rcc rId="687" sId="1">
-    <nc r="A272" t="inlineStr">
+  <rrc rId="1056" sId="1" eol="1" ref="A400:XFD400" action="insertRow"/>
+  <rcc rId="1057" sId="1">
+    <nc r="B400" t="inlineStr">
       <is>
-        <t>在ubuntu下面安装了java</t>
+        <t>C:\Qt\Qt5.4.2\5.4\msvc2013_64\bin\windeployqt.exe myexe.exe</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
-  <rcc rId="688" sId="1">
-    <nc r="B272" t="inlineStr">
+  <rcc rId="1058" sId="1">
+    <nc r="A400" t="inlineStr">
       <is>
-        <t>就是直接从Java官网下载安装包，然后解压，拷贝到一个目录，然后设置一下JAVA_HOME和CLASSPATH，就可以了。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="689" sId="1" eol="1" ref="A273:XFD273" action="insertRow"/>
-  <rcc rId="690" sId="1">
-    <nc r="A273" t="inlineStr">
-      <is>
-        <t>在ubuntu下面安装了smartgit，和另外一个Git。。感觉还好，总比单纯的命令强很多了。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="691" sId="1" eol="1" ref="A274:XFD274" action="insertRow"/>
-  <rcc rId="692" sId="1">
-    <nc r="A274" t="inlineStr">
-      <is>
-        <t>准备安装COMSOL linux，但是没有安装成功啊，说是缺少libwebgtk和什么LSB内核，不知道什么原因，暂时放弃。</t>
+        <t>QT5生成的exe自动拷贝依赖的dll并打包的方法</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
   </rcc>
   <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
+    <formula>'Q&amp;A'!$A$1:$A$322</formula>
+    <oldFormula>'Q&amp;A'!$A$1:$A$322</oldFormula>
   </rdn>
   <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="694" sId="1" eol="1" ref="A275:XFD275" action="insertRow"/>
-  <rcc rId="695" sId="1">
-    <nc r="A275" t="inlineStr">
-      <is>
-        <t>在ubuntu上面安装typora，结果那个下载命令不好使，在网上找到了一个下载链接，正在下载。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="696" sId="1" eol="1" ref="A276:XFD276" action="insertRow"/>
-  <rcc rId="697" sId="1">
-    <nc r="A276" t="inlineStr">
-      <is>
-        <t>在ubuntu上安装了一个下载工具，uget和aria2，安装很方便，按照官网照着做就很容易。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
+  <rfmt sheetId="1" sqref="A400:XFD400">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A398:XFD398">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A395:XFD396">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A393:XFD393">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A391:XFD391">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A385:XFD385">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A390:XFD390">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A389:XFD389">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A387:XFD387">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A386:XFD386">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A382:XFD382">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A378:XFD378">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A379:XFD379">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A377:XFD377">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A371:XFD371">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A368:XFD368">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="1" sqref="A15:XFD15 A42:XFD42 A44:XFD44">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A45:XFD45 A48:XFD48">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A50:XFD50">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A52:XFD52 A65:XFD66">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A68:XFD69 A73:XFD75">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A77:XFD77 A80:XFD80 A84:XFD84" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A77:XFD77 A80:XFD80 A84:XFD84">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A90:XFD90 A92:XFD92 A113:XFD113 A118:XFD118 A122:XFD122 A136:XFD136 A138:XFD138 A144:XFD144 A148:XFD148 A153:XFD154 A156:XFD156">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A157:XFD157">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A164:XFD165">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A169:XFD171">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A174:XFD174 A177:XFD177 A185:XFD186 A191:XFD191">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A192:XFD192 A194:XFD195 A200:XFD201 A210:XFD210">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A217:XFD217 A222:XFD222 A228:XFD228 A231:XFD233 A235:XFD235 A243:XFD243 A245:XFD245 A248:XFD248 A256:XFD257 A259:XFD259 A272:XFD275 A278:XFD278 A283:XFD283 A285:XFD286 A297:XFD297 A300:XFD300 A302:XFD303 A306:XFD307">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A316:XFD318 A324:XFD324 A326:XFD326">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A327:XFD327">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A331:XFD332 A335:XFD337">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A354:XFD354 A359:XFD359 A366:XFD366">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="A375:XFD375">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$1:$D$412</formula>
+    <oldFormula>'Q&amp;A'!$A$1:$C$1</oldFormula>
+  </rdn>
+  <rcv guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$D:$XFD</formula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F785157E_3338_49D1_8F88_C6A5BE082032_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>'Q&amp;A'!$A$1:$D$412</formula>
+    <oldFormula>'Q&amp;A'!$A$1:$D$412</oldFormula>
+  </rdn>
+  <rcv guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="589" sId="1" eol="1" ref="A233:XFD233" action="insertRow"/>
-  <rcc rId="590" sId="1">
-    <nc r="A233" t="inlineStr">
-      <is>
-        <t>添加永磁之后，程序需要哪些修改？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B233">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="591" sId="1">
-    <nc r="B233" t="inlineStr">
-      <is>
-        <t>1.几何模型发生了变化，之前的变化不一样了，新增加了永磁区域，最好是能够新建几个变量标识这几个区域，这样后面的程序就不用改了；
-2.单元装配方面，主要需要修改的是右侧，需要添加永磁激励；</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="592" sId="1" eol="1" ref="A234:XFD234" action="insertRow"/>
-  <rcc rId="593" sId="1">
-    <nc r="A234" t="inlineStr">
-      <is>
-        <t>两本书里讲的静磁场的单元装配公式不一样。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="698" sId="1" eol="1" ref="A277:XFD277" action="insertRow"/>
-  <rcc rId="699" sId="1">
-    <nc r="A277" t="inlineStr">
-      <is>
-        <t>git clone 了tortoisegit的源代码，准备研究研究，呵呵</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="700" sId="1" eol="1" ref="A278:XFD278" action="insertRow"/>
-  <rcc rId="701" sId="1">
-    <nc r="A278" t="inlineStr">
-      <is>
-        <t>研究了安装libwebgtk，没有搞明白，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="702" sId="1">
-    <nc r="B278" t="inlineStr">
-      <is>
-        <t>sudo apt-get install libwebkitgtk-1.0.0</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="703" sId="1">
-    <nc r="B275" t="inlineStr">
-      <is>
-        <t>https://typora.io/linux/typora_0.9.22_amd64.deb</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="704" sId="1">
-    <nc r="B274" t="inlineStr">
-      <is>
-        <t>sudo apt-get install lsb-core</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="705" sId="1">
-    <oc r="A278" t="inlineStr">
-      <is>
-        <t>研究了安装libwebgtk，没有搞明白，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A278" t="inlineStr">
-      <is>
-        <t>研究了安装libwebkitgtk，没有搞明白，</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="706" sId="1">
-    <nc r="B273" t="inlineStr">
-      <is>
-        <t>自己解决不了的问题让别人去解决。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="707" sId="1" eol="1" ref="A279:XFD279" action="insertRow"/>
-  <rcc rId="708" sId="1">
-    <nc r="A279" t="inlineStr">
-      <is>
-        <t>感觉电流、磁化强度啥的，跟形函数也没有什么关系啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="709" sId="1" eol="1" ref="A280:XFD280" action="insertRow"/>
-  <rcc rId="710" sId="1">
-    <nc r="A280" t="inlineStr">
-      <is>
-        <t>FEMM里面单元矩阵为啥会有xy两个呢？我猜他把一个给拆分了，之前确实B是由Bx和By两个分量组合的。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="711" sId="1" eol="1" ref="A281:XFD281" action="insertRow"/>
-  <rcc rId="712" sId="1">
-    <nc r="A281" t="inlineStr">
-      <is>
-        <t>FEMM当中Hc处理的部分，平面的和轴对称的是2倍的关系，应该是乘以2pi的缘故吧，所以应该没错啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="713" sId="1" eol="1" ref="A282:XFD282" action="insertRow"/>
-  <rcc rId="714" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A282">
-      <v>42699</v>
+  <rrc rId="925" sId="1" eol="1" ref="A369:XFD369" action="insertRow"/>
+  <rcc rId="926" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A369">
+      <v>42723</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5335,7 +4461,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A282:XFD282">
+  <rfmt sheetId="1" sqref="A369:XFD369">
     <dxf>
       <font>
         <b/>
@@ -5373,34 +4499,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="715" sId="1" eol="1" ref="A283:XFD283" action="insertRow"/>
-  <rcc rId="716" sId="1">
-    <nc r="A283" t="inlineStr">
+  <rrc rId="927" sId="1" eol="1" ref="A370:XFD370" action="insertRow"/>
+  <rcc rId="928" sId="1">
+    <nc r="A370" t="inlineStr">
       <is>
-        <t>我还是试试superlumt在Windows下编译能不能吧。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_D32DDA5F_3CB1_453E_AFB5_077E8E2B0FFC_.wvu.FilterData" hidden="1" oldHidden="1">
-    <formula>'Q&amp;A'!$A$196:$C$196</formula>
-    <oldFormula>'Q&amp;A'!$A$196:$C$196</oldFormula>
-  </rdn>
-  <rcv guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="718" sId="1">
-    <nc r="B283" t="inlineStr">
-      <is>
-        <t>Further remarks on SuperLU_MT Windows compilation:
-On Cygwin, both Pthread and OpenMP versions can be compiled without trouble, just like on linux.
-MinGW works with both Pthread and OpenMP, too. But for MinGW users, they have to enter each directory (SRC, CBLAS, EXAMPLE, etc) and run mingw32-make separately. It is not easy to get the highest level Makefile work with MinGW.
-Visual Studio only works with the OpenMP version. 
-The user needs to define the macro __OPENMP by editing the property of the VS project.</t>
+        <t>没看懂partition of unity</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5410,27 +4513,10 @@
 
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="594" sId="1">
-    <nc r="C226" t="inlineStr">
+  <rcc rId="929" sId="1">
+    <nc r="B359" t="inlineStr">
       <is>
-        <t xml:space="preserve">    </t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="595" sId="1" eol="1" ref="A235:XFD235" action="insertRow"/>
-  <rcc rId="596" sId="1">
-    <nc r="A235" t="inlineStr">
-      <is>
-        <t>永磁周围有线圈的话，会被充磁和退磁？线圈去掉之后，又可以恢复？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="597" sId="1">
-    <nc r="B235" t="inlineStr">
-      <is>
-        <t>如果是的话，如何通过公式来表达这个关系式？</t>
+        <t>Note that we abuse the word triangulation somewhat, since deal.II only implements triangulations made up of linear, quadrilateral, and hexahedral cells; triangles and tetrahedra are not supported.</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5438,13 +4524,21 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="719" sId="1" eol="1" ref="A284:XFD284" action="insertRow"/>
-  <rcc rId="720" sId="1">
-    <nc r="A284" t="inlineStr">
+  <rrc rId="930" sId="1" eol="1" ref="A371:XFD371" action="insertRow"/>
+  <rcc rId="931" sId="1">
+    <nc r="A371" t="inlineStr">
       <is>
-        <t>win7下编译superlumt3.1</t>
+        <t>svg文件怎么打开</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="932" sId="1">
+    <nc r="B371" t="inlineStr">
+      <is>
+        <t>浏览器就可以</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -5452,136 +4546,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="721" sId="1" eol="1" ref="A285:XFD285" action="insertRow"/>
-  <rcc rId="722" sId="1">
-    <nc r="A285" t="inlineStr">
-      <is>
-        <t>应该生成动态库还是静态库？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="723" sId="1">
-    <nc r="B285" t="inlineStr">
-      <is>
-        <t>静态库在程序编译时会被连接到目标代码中，程序运行时将不再需要该静态库。
-动态库在程序编译时并不会被连接到目标代码中，而是在程序运行是才被载入，因此在程序运行时还需要动态库存在。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="724" sId="1" eol="1" ref="A286:XFD286" action="insertRow"/>
-  <rcc rId="725" sId="1">
-    <nc r="A286" t="inlineStr">
-      <is>
-        <t>visual studio打开错误列表</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="726" sId="1">
-    <nc r="B286" t="inlineStr">
-      <is>
-        <t>视图</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="727" sId="1" eol="1" ref="A287:XFD287" action="insertRow"/>
-  <rcc rId="728" sId="1">
-    <nc r="A287" t="inlineStr">
-      <is>
-        <t>Visual Studio 项目中添加include, lib, dll库文件（*.h,*.lib,*.dll）
-应用程序使用外部库时需要进行加载，两种库的加载本质上都是一样：提供功能和功能的定义。vs2005 c++ 项目设置外部库方法如下：
-1. 添加编译所需要（依赖）的 lib 文件
-     在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;输入-&gt;附加依赖项”里填写“winsock.lib”，多个 lib 以空格隔开。等同于“#pragma comment(lib, "*.lib") ”语句。
-2. 添加库（libs）文件目录
-     方法 1：项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;常规-&gt;附加库目录”
-     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，选择对应平台，然后添加所需“库文件”目录
-     这个设置类似于设置环境变量，主要是为程序设置搜索的库目录，真正进行库加载还需要进行第一种设置！
-3. 添加包含（include）文件目录
-     方法 1：“项目-&gt;属性-&gt;配置属性-&gt;c/c++-&gt;常规-&gt;附加包含目录”
-     方法 2：[菜单]“工具-&gt;选项-&gt;项目和解决方案-&gt;c++ 目录”，添加所需“包括文件”目录
-     方法2类似于设置环境变量。
-4. 导入库（import）
-    在“项目-&gt;属性-&gt;配置属性-&gt;连接器-&gt;高级-&gt;导入库”填写需要生成的导入库
-相对路径的设置
-     在VS的工程中常常要设置头文件的包含路径，当然你可以使用绝对路径，但是如果你这样设置了你只能在你自己的机器上运行该工程；如果其他人拷贝你的工程到其他机器上就可能无法运行，这个是因为你在建工程时可能把工程放在了E:盘，但是其他人可能会把工程放在其他根目录下，这样会导致找不到头文件问题。
-对于新手，在设置绝对路径时往往会犯浑，他们不清楚这里的“相对”究竟是以什么位置为起点。其实这里的相对路径就是相当于工程文件（XXXX.vcproj）为起点零计算出的能找到包含所需头文件（也就是找包含所需头文件的include目录）的路径。
-例如你的工程文件（Count.vcproj）所在目录路径为：
-E:\projects\Count\Count\Count.vcproj
-该工程需要包含一个图片参数，该图片所在路径如下：
-E:\projects\Count\pic\pic01.jpg
-这里程序中的相对路径设置如下：
-..\\pic\\pic02.jpg
-程序代码中的参数路径设置时要用双斜线：
-例如：
-#include "..\TestLib\lib.h"
-#pragma comment(lib,"..\\debug\\TestLib.lib");</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="729" sId="1" eol="1" ref="A288:XFD288" action="insertRow"/>
-  <rcc rId="730" sId="1">
-    <nc r="A288" t="inlineStr">
-      <is>
-        <t>程序怎么知道使用那个dll啊</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="731" sId="1" eol="1" ref="A289:XFD289" action="insertRow"/>
-  <rcc rId="732" sId="1">
-    <nc r="A289" t="inlineStr">
-      <is>
-        <t>自己写的函数名与链接库里的函数名冲突了怎么办哪？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="733" sId="1" eol="1" ref="A290:XFD290" action="insertRow"/>
-  <rcc rId="734" sId="1">
-    <nc r="A290" t="inlineStr">
-      <is>
-        <t>（1）将SuperLU\SRC路径添加到C++\Additional Include Directories中；
-（2）再把路径D:\vs2010\MyProject\example_for _c++\下建的工程SuperLU\Release(此路径下包含文件SuperLu.lib)和路径D:\vs2010\MyProject\example_for _c++\下建的工程BLAS\Relese(此路径下包含文件BLAS.lib)添加到Linker-&gt;General-&gt;Additional Library Directories下；
-（3）将SuperLU.lib和BLAS.lib添加到Linker-&gt;Input-&gt;Additional Dependencies。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="735" sId="1" eol="1" ref="A291:XFD291" action="insertRow"/>
-  <rcc rId="736" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A291">
-      <v>42701</v>
+  <rrc rId="933" sId="1" eol="1" ref="A372:XFD372" action="insertRow"/>
+  <rcc rId="934" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="A372">
+      <v>42725</v>
     </nc>
     <odxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -5590,7 +4560,7 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </ndxf>
   </rcc>
-  <rfmt sheetId="1" sqref="A291:XFD291">
+  <rfmt sheetId="1" sqref="A372:XFD372">
     <dxf>
       <font>
         <b/>
@@ -5628,635 +4598,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
   </rfmt>
-  <rrc rId="737" sId="1" eol="1" ref="A292:XFD292" action="insertRow"/>
-  <rcc rId="738" sId="1">
-    <nc r="A292" t="inlineStr">
+  <rrc rId="935" sId="1" eol="1" ref="A373:XFD373" action="insertRow"/>
+  <rcc rId="936" sId="1">
+    <nc r="A373" t="inlineStr">
       <is>
-        <t>怎样求有限元内任一点的值？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="739" sId="1" eol="1" ref="A293:XFD293" action="insertRow"/>
-  <rcc rId="740" sId="1">
-    <nc r="A293" t="inlineStr">
-      <is>
-        <t>superLUMT的Windows版本编译通过了。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="741" sId="1" eol="1" ref="A294:XFD294" action="insertRow"/>
-  <rcc rId="742" sId="1">
-    <nc r="A294" t="inlineStr">
-      <is>
-        <t>我之前在ubuntu下面编译的时候记得改了很多东西啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="743" sId="1" eol="1" ref="A295:XFD295" action="insertRow"/>
-  <rcc rId="744" sId="1">
-    <nc r="A295" t="inlineStr">
-      <is>
-        <t>Generate import library (0.2.10 and after version)
-OpenBLAS already generated the import library "libopenblas.dll.a" for "libopenblas.dll".
-Use OpenBLAS .dll library in Visual Studio
-Copy the import library (before 0.2.10: "OPENBLAS_TOP_DIR/exports/libopenblas.lib", 0.2.10 and after: "OPENBLAS_TOP_DIR/libopenblas.dll.a") and .dll library "libopenblas.dll" into the same folder(The folder of your project that is going to use the BLAS library. You may need to add the libopenblas.dll.a to the linker input list: properties-&gt;Linker-&gt;Input).
-Please follow the documentation about using third-party .dll libraries in MS Visual Studio 2008 or 2010. Make sure to link against a library for the correct architecture. For example, you may receive an error such as "The application was unable to start correctly (0xc00007b)" which typically indicates a mismatch between 32/64-bit libraries.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="598" sId="1" eol="1" ref="A236:XFD236" action="insertRow"/>
-  <rcc rId="599" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A236">
-      <v>42684</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A236:XFD236">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="600" sId="1" eol="1" ref="A237:XFD237" action="insertRow"/>
-  <rcc rId="601" sId="1">
-    <nc r="A237" t="inlineStr">
-      <is>
-        <t>磁化强度矢量M</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="745" sId="1" eol="1" ref="A296:XFD296" action="insertRow"/>
-  <rcc rId="746" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A296">
-      <v>42702</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A296:XFD296">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="747" sId="1" eol="1" ref="A297:XFD297" action="insertRow"/>
-  <rcc rId="748" sId="1">
-    <nc r="A297" t="inlineStr">
-      <is>
-        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="749" sId="1">
-    <oc r="A297" t="inlineStr">
-      <is>
-        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="A297" t="inlineStr">
-      <is>
-        <t>qt产生的变量QTDIR是在一个.user的文件里保存着的，这个是QT生成的。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="750" sId="1" eol="1" ref="A298:XFD298" action="insertRow"/>
-  <rcc rId="751" sId="1">
-    <nc r="A298" t="inlineStr">
-      <is>
-        <t>C1083: Cannot open include file: 'stddef.h': No such file or directory</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="752" sId="1" eol="1" ref="A299:XFD299" action="insertRow"/>
-  <rcc rId="753" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A299">
-      <v>42703</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A299:XFD299">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="754" sId="1" eol="1" ref="A300:XFD300" action="insertRow"/>
-  <rcc rId="755" sId="1">
-    <nc r="A300" t="inlineStr">
-      <is>
-        <t>搜索Br，得到那个位置</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="756" sId="1" xfDxf="1" dxf="1">
-    <nc r="B300" t="inlineStr">
-      <is>
-        <t>void CFemmviewView::DisplayPointProperties(double px, double py)</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="757" sId="1" eol="1" ref="A301:XFD301" action="insertRow"/>
-  <rcc rId="758" sId="1">
-    <nc r="A301" t="inlineStr">
-      <is>
-        <t>MATLAB当中似乎没有&amp;&amp;和||，只有&amp;和|</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="759" sId="1" eol="1" ref="A302:XFD302" action="insertRow"/>
-  <rcc rId="760" sId="1">
-    <nc r="A302" t="inlineStr">
-      <is>
-        <t>求解出来的东西为什么不对称？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="761" sId="1">
-    <nc r="B302" t="inlineStr">
-      <is>
-        <t>模型不对称？？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="762" sId="1">
-    <oc r="B302" t="inlineStr">
-      <is>
-        <t>模型不对称？？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B302" t="inlineStr">
-      <is>
-        <t>模型不对称？？？模型不对称啊，这个模型不是特别的上下对称，所以。。。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="763" sId="1" eol="1" ref="A303:XFD303" action="insertRow"/>
-  <rcc rId="764" sId="1">
-    <nc r="A303" t="inlineStr">
-      <is>
-        <t>FEMM在reference部分提到了！！！</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="765" sId="1">
-    <nc r="B303" t="inlineStr">
-      <is>
-        <t>reference在附录前面。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="602" sId="1" eol="1" ref="A238:XFD238" action="insertRow"/>
-  <rcc rId="603" sId="1">
-    <nc r="A238" t="inlineStr">
-      <is>
-        <t>HB曲线和HM曲线一样吗？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="604" sId="1" eol="1" ref="A239:XFD239" action="insertRow"/>
-  <rcc rId="605" sId="1">
-    <nc r="A239" t="inlineStr">
-      <is>
-        <t>线圈产生的磁场会对永磁有什么影响吗？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="766" sId="1">
-    <oc r="B303" t="inlineStr">
-      <is>
-        <t>reference在附录前面。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B303" t="inlineStr">
-      <is>
-        <t>reference在附录前面。他参考的文献我看到过，但是没有仔细看啊。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="767" sId="1" eol="1" ref="A304:XFD304" action="insertRow"/>
-  <rcc rId="768" sId="1">
-    <nc r="A304" t="inlineStr">
-      <is>
-        <t>MATLAB里面怎么画半圆区域里面的等高线？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="769" sId="1" eol="1" ref="A305:XFD305" action="insertRow"/>
-  <rcc rId="770" sId="1">
-    <nc r="A305" t="inlineStr">
-      <is>
-        <t>FEMM当中miu0这部分并没有拿进去迭代计算，而是提取出来，最后才进行处理。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="771" sId="1" eol="1" ref="A306:XFD306" action="insertRow"/>
-  <rcc rId="772" sId="1">
-    <nc r="A306" t="inlineStr">
-      <is>
-        <t>轴对称的情况，如果要画等高线的话，就要进行处理。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="773" sId="1">
-    <nc r="B306" t="inlineStr">
-      <is>
-        <t>for (i = 0; i &lt; NumNodes; i++) {
-  L.b[i] = L.V[i] * c;
-  L.b[i] *= (meshnode[i].x*0.01 * 2 * PI);
- }</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B306">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="774" sId="1" eol="1" ref="A307:XFD307" action="insertRow"/>
-  <rcc rId="775" sId="1">
-    <nc r="A307" t="inlineStr">
-      <is>
-        <t>如何计算Contour？？</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="776" sId="1" eol="1" ref="A308:XFD308" action="insertRow"/>
-  <rcc rId="777" sId="1">
-    <nc r="A308" t="inlineStr">
-      <is>
-        <t>解决了二分法查找的bug</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="778" sId="1">
-    <nc r="B308" t="inlineStr">
-      <is>
-        <t>原因在于没有很好的处理开端和结束的索引情况。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="779" sId="1" eol="1" ref="A309:XFD309" action="insertRow"/>
-  <rcc rId="780" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A309">
-      <v>42704</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A309:XFD309">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="781" sId="1" eol="1" ref="A310:XFD310" action="insertRow"/>
-  <rcc rId="782" sId="1">
-    <nc r="A310" t="inlineStr">
-      <is>
-        <t>自己写一个针对有限元插值的contour函数</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="783" sId="1" eol="1" ref="A311:XFD311" action="insertRow"/>
-  <rcc rId="784" sId="1">
-    <nc r="A311" t="inlineStr">
-      <is>
-        <t>已经成功将程序移植到了Windows</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A311:XFD311">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A308:XFD308">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="785" sId="1">
-    <nc r="B297" t="inlineStr">
-      <is>
-        <t>如果编译的时候找不到qt的相关路径，看看.user文件当中有没有qtdir这个变量，没有的话把它加上。</t>
+        <t>为什么不在一个工程里进行，而非要建立几个工程？？？</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -6266,221 +4612,11 @@
 
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="606" sId="1" eol="1" ref="A240:XFD240" action="insertRow"/>
-  <rcc rId="607" sId="1">
-    <nc r="A240" t="inlineStr">
+  <rrc rId="937" sId="1" eol="1" ref="A374:XFD374" action="insertRow"/>
+  <rcc rId="938" sId="1">
+    <nc r="A374" t="inlineStr">
       <is>
-        <t>牛顿迭代法真的是计算雅可比矩阵啊</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="786" sId="1" eol="1" ref="A312:XFD312" action="insertRow"/>
-  <rcc rId="787" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A312">
-      <v>42705</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A312:XFD312">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="788" sId="1" eol="1" ref="A313:XFD313" action="insertRow"/>
-  <rcc rId="789" sId="1">
-    <nc r="A313" t="inlineStr">
-      <is>
-        <t>只有继承了QObject类的类，才具有信号槽的能力。所以，为了使用信号槽，必须继承QObject。凡是QObject类（不管是直接子类还是间接子类），都应该在第一行代码写上Q_OBJECT。不管是不是使用信号槽，都应该添加这个宏。这个宏的展开将为我们的类提供信号槽机制、国际化机制以及 Qt 提供的不基于 C++ RTTI 的反射能力。因此，如果你觉得你的类不需要使用信号槽，就不添加这个宏，就是错误的。其它很多操作都会依赖于这个宏。注意，这个宏将由 moc（我们会在后面章节中介绍 moc。这里你可以将其理解为一种预处理器，是比 C++ 预处理器更早执行的预处理器。） 做特殊处理，不仅仅是宏展开这么简单。moc 会读取标记了 Q_OBJECT 的头文件，生成以 moc_ 为前缀的文件，比如 newspaper.h 将生成 moc_newspaper.cpp。你可以到构建目录查看这个文件，看看到底增加了什么内容。注意，由于 moc 只处理头文件中的标记了Q_OBJECT的类声明，不会处理 cpp 文件中的类似声明。因此，如果我们的Newspaper和Reader类位于 main.cpp 中，是无法得到 moc 的处理的。解决方法是，我们手动调用 moc 工具处理 main.cpp，并且将 main.cpp 中的#include "newspaper.h"改为#include "moc_newspaper.h"就可以了。不过，这是相当繁琐的步骤，为了避免这样修改，我们还是将其放在头文件中。许多初学者会遇到莫名其妙的错误，一加上Q_OBJECT就出错，很大一部分是因为没有注意到这个宏应该放在头文件中。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="790" sId="1" eol="1" ref="A314:XFD314" action="insertRow"/>
-  <rcc rId="791" sId="1">
-    <nc r="A314" t="inlineStr">
-      <is>
-        <t>signals 块所列出的，就是该类的信号。信号就是一个个的函数名，返回值是 void（因为无法获得信号的返回值，所以也就无需返回任何值），参数是该类需要让外界知道的数据。信号作为函数名，不需要在 cpp 函数中添加任何实现（我们曾经说过，Qt 程序能够使用普通的 make 进行编译。没有实现的函数名怎么会通过编译？原因还是在 moc，moc 会帮我们实现信号函数所需要的函数体，所以说，moc 并不是单纯的将 Q_OBJECT 展开，而是做了很多额外的操作）。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog83.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="792" sId="1" eol="1" ref="A315:XFD315" action="insertRow"/>
-  <rcc rId="793" sId="1">
-    <nc r="A315" t="inlineStr">
-      <is>
-        <t>Qt 5 中，任何成员函数、static 函数、全局函数和 Lambda 表达式都可以作为槽函数。与信号函数不同，槽函数必须自己完成实现代码。槽函数就是普通的成员函数，因此作为成员函数，也会受到 public、private 等访问控制符的影响。（我们没有说信号也会受此影响，事实上，如果信号是 private 的，这个信号就不能在类的外面连接，也就没有任何意义。）</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog84.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="794" sId="1" eol="1" ref="A316:XFD316" action="insertRow"/>
-  <rcc rId="795" sId="1">
-    <nc r="A316" t="inlineStr">
-      <is>
-        <t>以后MATLAB安装不要按那么多，只安装一个MATLAB核心就够了，其他都不要。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog85.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="796" sId="1">
-    <nc r="B316" t="inlineStr">
-      <is>
-        <t>光这个就两个G，奶奶的</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog86.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="797" sId="1" eol="1" ref="A317:XFD317" action="insertRow"/>
-  <rcc rId="798" sId="1">
-    <nc r="A317" t="inlineStr">
-      <is>
-        <t>判断点在三角形内部的算法</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog87.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="799" sId="1">
-    <nc r="B317" t="inlineStr">
-      <is>
-        <t>Solve the following equation system:
-p = p0 + (p1 - p0) * s + (p2 - p0) * t
-The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
-s,t and 1 - s - t are called the barycentric coordinates of the point p.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B317">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog88.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="800" sId="1">
-    <oc r="B317" t="inlineStr">
-      <is>
-        <t>Solve the following equation system:
-p = p0 + (p1 - p0) * s + (p2 - p0) * t
-The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
-s,t and 1 - s - t are called the barycentric coordinates of the point p.</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B317" t="inlineStr">
-      <is>
-        <t>Solve the following equation system:
-p = p0 + (p1 - p0) * s + (p2 - p0) * t
-The point p is inside the triangle if 0 &lt;= s &lt;= 1 and 0 &lt;= t &lt;= 1 and s + t &lt;= 1.
-s,t and 1 - s - t are called the barycentric coordinates of the point p.
-float sign (fPoint p1, fPoint p2, fPoint p3)
-{
-    return (p1.x - p3.x) * (p2.y - p3.y) - (p2.x - p3.x) * (p1.y - p3.y);
-}
-bool PointInTriangle (fPoint pt, fPoint v1, fPoint v2, fPoint v3)
-{
-    bool b1, b2, b3;
-    b1 = sign(pt, v1, v2) &lt; 0.0f;
-    b2 = sign(pt, v2, v3) &lt; 0.0f;
-    b3 = sign(pt, v3, v1) &lt; 0.0f;
-    return ((b1 == b2) &amp;&amp; (b2 == b3));
-}</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog89.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="801" sId="1" eol="1" ref="A318:XFD318" action="insertRow"/>
-  <rcc rId="802" sId="1">
-    <nc r="A318" t="inlineStr">
-      <is>
-        <t>程序还有bug，只修改了开端的，没有修改结束的。二分法。</t>
+        <t>含永磁的程序在原来的程序上修改完成，并对比了牛顿迭代，结果差不多，还需要继续完善。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -6490,11 +4626,11 @@
 
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="608" sId="1" eol="1" ref="A241:XFD241" action="insertRow"/>
-  <rcc rId="609" sId="1">
-    <nc r="A241" t="inlineStr">
+  <rrc rId="939" sId="1" eol="1" ref="A375:XFD375" action="insertRow"/>
+  <rcc rId="940" sId="1">
+    <nc r="A375" t="inlineStr">
       <is>
-        <t>怎么样写模块？</t>
+        <t>不过现在的git啊，还是工程的总体真是一团乱啊，各种分支，项目，没有很好的设计。</t>
         <phoneticPr fontId="0" type="noConversion"/>
       </is>
     </nc>
@@ -6502,367 +4638,12 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="803" sId="1" eol="1" ref="A319:XFD319" action="insertRow"/>
-  <rcc rId="804" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A319">
-      <v>42706</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A319:XFD319">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog91.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="805" sId="1" eol="1" ref="A320:XFD320" action="insertRow"/>
-  <rcc rId="806" sId="1">
-    <nc r="A320" t="inlineStr">
-      <is>
-        <t>写完了自己的插值函数。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog92.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="807" sId="1">
-    <nc r="B318" t="inlineStr">
-      <is>
-        <t>还不确定是不是有这个bug，目前还没遇到。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog93.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="808" sId="1" eol="1" ref="A321:XFD321" action="insertRow"/>
-  <rcc rId="809" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A321">
-      <v>42707</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A321:XFD321">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="810" sId="1" eol="1" ref="A322:XFD322" action="insertRow"/>
-  <rcc rId="811" sId="1">
-    <nc r="A322" t="inlineStr">
-      <is>
-        <t>但是反过来，只想知道某一点的值，就不是那么容易了，你需要查找这个点在哪一个单元，这就不好弄了。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog94.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="812" sId="1" eol="1" ref="A323:XFD323" action="insertRow"/>
-  <rcc rId="813" sId="1" odxf="1" dxf="1" numFmtId="19">
-    <nc r="A323">
-      <v>42708</v>
-    </nc>
-    <odxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </odxf>
-    <ndxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="1" sqref="A323:XFD323">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thick">
-          <color auto="1"/>
-        </top>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="814" sId="1" eol="1" ref="A324:XFD324" action="insertRow"/>
-  <rcc rId="815" sId="1">
-    <nc r="A324" t="inlineStr">
-      <is>
-        <t>MATLAB画平行线</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="816" sId="1" xfDxf="1" dxf="1">
-    <nc r="B324" t="inlineStr">
-      <is>
-        <t>plot([1:10;0:9])</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <name val="方正报宋简体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" wrapText="1"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog95.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="817" sId="1" eol="1" ref="A325:XFD325" action="insertRow"/>
-  <rcc rId="818" sId="1">
-    <nc r="A325" t="inlineStr">
-      <is>
-        <t>当没有规定画点的数目的时候，plot函数画了多少个点，使得看起来像一条连续的直线。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog96.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="819" sId="1">
-    <nc r="B307" t="inlineStr">
-      <is>
-        <t>contour肯定是连续的，肯定是在附近找。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="820" sId="1" eol="1" ref="A326:XFD326" action="insertRow"/>
-  <rcc rId="821" sId="1">
-    <nc r="A326" t="inlineStr">
-      <is>
-        <t>关于contour的绘制</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="822" sId="1">
-    <nc r="B326" t="inlineStr">
-      <is>
-        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，但是似乎</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog97.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="823" sId="1">
-    <oc r="B326" t="inlineStr">
-      <is>
-        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，但是似乎</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </oc>
-    <nc r="B326" t="inlineStr">
-      <is>
-        <t>octave 4.0.0版本可以找到源程序，具体的在__contour__.cc文件内，这应该是一个底层的实现，其他的contour高级函数都会调用到它。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog98.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="824" sId="1" eol="1" ref="A327:XFD327" action="insertRow"/>
-  <rcc rId="825" sId="1">
-    <nc r="B327" t="inlineStr">
-      <is>
-        <t xml:space="preserve">
-举例说明，便能解决问题。
-&gt;&gt;A = [1 2 3 4;2 3 4 5;3 4 5 6];
-&gt;&gt;contourc(A,[2 3])
-%%解释函数格式：
-%{
-这里A的“[2 3]”有两层意思：
-1.寻找矩阵A中值为2和3的等值线（坐标），至于叫坐标见结果分析。
-2.值为2和3自然就有两层等值线。
-%}
-%%输出结果：
-%{
-ans =
-     2     2     1     3     3     2     1
-     2     1     2     3     1     2     3
-说明：
-1.要竖着看：
-第一列：      2
-                  2
-上面的2代表的数值为2的等值线，下面的2为等值线对应的坐标个数。
-接下来的两（对应2）列自然就是数值为2的坐标了(2,1)和(1,2)。
-同理，接下来的列(3,3)'，第一个代表数值为3的等值线，第二个代表的个数为3个。自然地，后面的3个为相应的坐标。
-补充：“坐标”就是说的矩阵的行列。例(2,1)即第二行第三列。
-至于n年前楼主说的问题是指寻找一层等值线数值为0.5的数值对应的坐标。
-%}
-%参考文献：octave.sourceforge.net/octave/function/contourc.html</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="1" sqref="B327">
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="826" sId="1">
-    <nc r="A327" t="inlineStr">
-      <is>
-        <t>Matlab的contourc 函数怎么用</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog99.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="827" sId="1" eol="1" ref="A328:XFD328" action="insertRow"/>
-  <rcc rId="828" sId="1">
-    <nc r="A328" t="inlineStr">
-      <is>
-        <t>严格的来说，使用方形来进行contour计算是不对的。</t>
-        <phoneticPr fontId="0" type="noConversion"/>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7185,19 +4966,19 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:C349"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="78.625" style="9" customWidth="1"/>
     <col min="3" max="3" width="24" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="9"/>
+    <col min="4" max="4" width="18" style="9" hidden="1"/>
+    <col min="5" max="16384" width="9" style="9" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -7276,11 +5057,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="16" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7414,11 +5195,11 @@
         <v>42452</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="10" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    <row r="42" spans="1:2" s="16" customFormat="1" ht="150.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="16" t="s">
         <v>95</v>
       </c>
     </row>
@@ -7427,19 +5208,19 @@
         <v>42453</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="10" customFormat="1" ht="240" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:2" s="16" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A44" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+    <row r="45" spans="1:2" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A45" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -7453,11 +5234,11 @@
         <v>42457</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="10" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+    <row r="48" spans="1:2" s="16" customFormat="1" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="16" t="s">
         <v>102</v>
       </c>
     </row>
@@ -7466,11 +5247,11 @@
         <v>42466</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="10" customFormat="1" ht="210" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+    <row r="50" spans="1:2" s="16" customFormat="1" ht="210" x14ac:dyDescent="0.15">
+      <c r="A50" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -7479,11 +5260,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="10" customFormat="1" ht="165" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+    <row r="52" spans="1:2" s="16" customFormat="1" ht="165" x14ac:dyDescent="0.15">
+      <c r="A52" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -7547,19 +5328,19 @@
         <v>42484</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+    <row r="65" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="16" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="10" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+    <row r="66" spans="1:2" s="16" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7568,19 +5349,19 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+    <row r="68" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A68" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="10" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+    <row r="69" spans="1:2" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="16" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7599,27 +5380,27 @@
         <v>127</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
+    <row r="73" spans="1:2" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A73" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="16" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
+    <row r="74" spans="1:2" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A74" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="10" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+    <row r="75" spans="1:2" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7628,11 +5409,11 @@
         <v>42487</v>
       </c>
     </row>
-    <row r="77" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
+    <row r="77" spans="1:2" s="34" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A77" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="34" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7646,11 +5427,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+    <row r="80" spans="1:2" s="34" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A80" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="34" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7669,11 +5450,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="10" t="s">
+    <row r="84" spans="1:2" s="34" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="34" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7702,11 +5483,11 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
+    <row r="90" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="16" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7715,11 +5496,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
+    <row r="92" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7823,11 +5604,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
+    <row r="113" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -7851,11 +5632,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="10" t="s">
+    <row r="118" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="16" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7874,11 +5655,11 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="122" spans="1:2" s="10" customFormat="1" ht="135" x14ac:dyDescent="0.15">
-      <c r="A122" s="10" t="s">
+    <row r="122" spans="1:2" s="16" customFormat="1" ht="135" x14ac:dyDescent="0.15">
+      <c r="A122" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -7947,11 +5728,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="16" t="s">
         <v>186</v>
       </c>
     </row>
@@ -7960,11 +5741,11 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="138" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A138" s="10" t="s">
+    <row r="138" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A138" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="16" t="s">
         <v>189</v>
       </c>
     </row>
@@ -7993,11 +5774,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="10" t="s">
+    <row r="144" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="16" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8016,11 +5797,11 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="148" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A148" s="10" t="s">
+    <row r="148" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A148" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="16" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8044,19 +5825,19 @@
         <v>42666</v>
       </c>
     </row>
-    <row r="153" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="10" t="s">
+    <row r="153" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="1:3" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="10" t="s">
+    <row r="154" spans="1:3" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="16" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8065,25 +5846,25 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="156" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
+    <row r="156" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A156" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A157" s="10" t="s">
+    <row r="157" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A157" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="C157" s="10">
+      <c r="C157" s="16">
         <v>2</v>
       </c>
     </row>
@@ -8153,25 +5934,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A164" s="10" t="s">
+    <row r="164" spans="1:3" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A164" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C164" s="10">
+      <c r="C164" s="16">
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A165" s="10" t="s">
+    <row r="165" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A165" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B165" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="C165" s="10">
+      <c r="C165" s="16">
         <v>10</v>
       </c>
     </row>
@@ -8208,36 +5989,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:3" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.15">
-      <c r="A169" s="10" t="s">
+    <row r="169" spans="1:3" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A169" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C169" s="10">
+      <c r="C169" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:3" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.15">
-      <c r="A170" s="10" t="s">
+    <row r="170" spans="1:3" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.15">
+      <c r="A170" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C170" s="10">
+      <c r="C170" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A171" s="10" t="s">
+    <row r="171" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A171" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C171" s="10">
+      <c r="C171" s="16">
         <v>16</v>
       </c>
     </row>
@@ -8263,14 +6044,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="1:3" s="10" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="10" t="s">
+    <row r="174" spans="1:3" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C174" s="10">
+      <c r="C174" s="16">
         <v>19</v>
       </c>
     </row>
@@ -8284,11 +6065,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="177" spans="1:2" s="10" customFormat="1" ht="225" x14ac:dyDescent="0.15">
-      <c r="A177" s="10" t="s">
+    <row r="177" spans="1:2" s="16" customFormat="1" ht="225" x14ac:dyDescent="0.15">
+      <c r="A177" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B177" s="15" t="s">
+      <c r="B177" s="35" t="s">
         <v>243</v>
       </c>
     </row>
@@ -8327,19 +6108,19 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="185" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="10" t="s">
+    <row r="185" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="10" t="s">
+    <row r="186" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="16" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8363,19 +6144,19 @@
         <v>255</v>
       </c>
     </row>
-    <row r="191" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A191" s="10" t="s">
+    <row r="191" spans="1:2" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A191" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="192" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="10" t="s">
+    <row r="192" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="16" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8384,19 +6165,19 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="194" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="10" t="s">
+    <row r="194" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="195" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="10" t="s">
+    <row r="195" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="16" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8420,19 +6201,19 @@
         <v>266</v>
       </c>
     </row>
-    <row r="200" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="10" t="s">
+    <row r="200" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="201" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A201" s="10" t="s">
+    <row r="201" spans="1:2" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A201" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="16" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8476,11 +6257,11 @@
         <v>42680</v>
       </c>
     </row>
-    <row r="210" spans="1:2" s="10" customFormat="1" ht="255.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="10" t="s">
+    <row r="210" spans="1:2" s="16" customFormat="1" ht="255.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="16" t="s">
         <v>278</v>
       </c>
     </row>
@@ -8514,11 +6295,11 @@
         <v>281</v>
       </c>
     </row>
-    <row r="217" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="10" t="s">
+    <row r="217" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="16" t="s">
         <v>284</v>
       </c>
     </row>
@@ -8542,11 +6323,11 @@
         <v>288</v>
       </c>
     </row>
-    <row r="222" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="10" t="s">
+    <row r="222" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="16" t="s">
         <v>290</v>
       </c>
     </row>
@@ -8578,11 +6359,11 @@
         <v>295</v>
       </c>
     </row>
-    <row r="228" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A228" s="10" t="s">
+    <row r="228" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A228" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="16" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8596,27 +6377,27 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="231" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A231" s="10" t="s">
+    <row r="231" spans="1:3" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:3" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A232" s="10" t="s">
+    <row r="232" spans="1:3" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A232" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="16" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="233" spans="1:3" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A233" s="10" t="s">
+    <row r="233" spans="1:3" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A233" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B233" s="15" t="s">
+      <c r="B233" s="35" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8625,11 +6406,11 @@
         <v>305</v>
       </c>
     </row>
-    <row r="235" spans="1:3" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="10" t="s">
+    <row r="235" spans="1:3" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="16" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8668,11 +6449,11 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:2" s="10" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="10" t="s">
+    <row r="243" spans="1:2" s="16" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="16" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8681,11 +6462,11 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="245" spans="1:2" s="10" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A245" s="10" t="s">
+    <row r="245" spans="1:2" s="16" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="36" t="s">
         <v>318</v>
       </c>
     </row>
@@ -8699,11 +6480,11 @@
         <v>42686</v>
       </c>
     </row>
-    <row r="248" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A248" s="10" t="s">
+    <row r="248" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A248" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="16" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8742,19 +6523,19 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="256" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A256" s="10" t="s">
+    <row r="256" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="16" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="257" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="10" t="s">
+    <row r="257" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="16" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8763,11 +6544,11 @@
         <v>42695</v>
       </c>
     </row>
-    <row r="259" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A259" s="10" t="s">
+    <row r="259" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="16" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8831,35 +6612,35 @@
         <v>42698</v>
       </c>
     </row>
-    <row r="272" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A272" s="10" t="s">
+    <row r="272" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A272" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="16" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="273" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A273" s="10" t="s">
+    <row r="273" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A273" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="B273" s="10" t="s">
+      <c r="B273" s="16" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="274" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A274" s="10" t="s">
+    <row r="274" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A274" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B274" s="10" t="s">
+      <c r="B274" s="16" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="275" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A275" s="10" t="s">
+    <row r="275" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A275" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="16" t="s">
         <v>349</v>
       </c>
     </row>
@@ -8873,11 +6654,11 @@
         <v>347</v>
       </c>
     </row>
-    <row r="278" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A278" s="10" t="s">
+    <row r="278" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="16" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8901,11 +6682,11 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="283" spans="1:2" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A283" s="10" t="s">
+    <row r="283" spans="1:2" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A283" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="16" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8914,19 +6695,19 @@
         <v>358</v>
       </c>
     </row>
-    <row r="285" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A285" s="10" t="s">
+    <row r="285" spans="1:2" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A285" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="286" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A286" s="10" t="s">
+    <row r="286" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="16" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8980,11 +6761,11 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="297" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A297" s="10" t="s">
+    <row r="297" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A297" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="16" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8998,11 +6779,11 @@
         <v>42703</v>
       </c>
     </row>
-    <row r="300" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A300" s="10" t="s">
+    <row r="300" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="16" t="s">
         <v>374</v>
       </c>
     </row>
@@ -9011,19 +6792,19 @@
         <v>375</v>
       </c>
     </row>
-    <row r="302" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A302" s="10" t="s">
+    <row r="302" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="16" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="303" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A303" s="10" t="s">
+    <row r="303" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="16" t="s">
         <v>379</v>
       </c>
     </row>
@@ -9037,27 +6818,27 @@
         <v>381</v>
       </c>
     </row>
-    <row r="306" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A306" s="10" t="s">
+    <row r="306" spans="1:2" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A306" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="B306" s="15" t="s">
+      <c r="B306" s="35" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="307" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A307" s="10" t="s">
+    <row r="307" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="16" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="308" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="17" t="s">
+    <row r="308" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="B308" s="17" t="s">
+      <c r="B308" s="16" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9071,8 +6852,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="311" spans="1:2" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="17" t="s">
+    <row r="311" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="16" t="s">
         <v>388</v>
       </c>
     </row>
@@ -9096,27 +6877,27 @@
         <v>392</v>
       </c>
     </row>
-    <row r="316" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A316" s="10" t="s">
+    <row r="316" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A316" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="317" spans="1:2" s="10" customFormat="1" ht="330" x14ac:dyDescent="0.15">
-      <c r="A317" s="10" t="s">
+    <row r="317" spans="1:2" s="16" customFormat="1" ht="330" x14ac:dyDescent="0.15">
+      <c r="A317" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="B317" s="15" t="s">
+      <c r="B317" s="35" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="318" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="10" t="s">
+    <row r="318" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A318" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="16" t="s">
         <v>399</v>
       </c>
     </row>
@@ -9145,11 +6926,11 @@
         <v>42708</v>
       </c>
     </row>
-    <row r="324" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="10" t="s">
+    <row r="324" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="16" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9158,19 +6939,19 @@
         <v>403</v>
       </c>
     </row>
-    <row r="326" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A326" s="10" t="s">
+    <row r="326" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A326" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="16" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="327" spans="1:2" s="10" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
-      <c r="A327" s="10" t="s">
+    <row r="327" spans="1:2" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.15">
+      <c r="A327" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B327" s="15" t="s">
+      <c r="B327" s="35" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9189,19 +6970,19 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="331" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A331" s="10" t="s">
+    <row r="331" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A331" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="16" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="332" spans="1:2" s="10" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A332" s="10" t="s">
+    <row r="332" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A332" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="16" t="s">
         <v>414</v>
       </c>
     </row>
@@ -9215,29 +6996,380 @@
         <v>415</v>
       </c>
     </row>
-    <row r="335" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A335" s="10" t="s">
+    <row r="335" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B335" s="16" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="336" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A336" s="10" t="s">
+    <row r="336" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A336" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="16" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="337" spans="1:1" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A337" s="10" t="s">
+    <row r="337" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A337" s="16" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A349" s="33"/>
+      <c r="B337" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="12">
+        <v>42711</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="12">
+        <v>42712</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" s="13" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A342" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B342" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="12">
+        <v>42715</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="12">
+        <v>42716</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="10" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="12">
+        <v>42718</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="10" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.15">
+      <c r="A354" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B354" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A355" s="10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A356" s="10" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A357" s="10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="10" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A359" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B359" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="12">
+        <v>42719</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="10" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A363" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" s="10" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A364" s="10" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="12">
+        <v>42720</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A366" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B366" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="12">
+        <v>42721</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A368" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="12">
+        <v>42723</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="B371" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="12">
+        <v>42725</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A374" s="10" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" s="16" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B375" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="12">
+        <v>42726</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="B377" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B378" s="18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A379" s="18" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="12">
+        <v>42729</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A382" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="B382" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" s="18" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B383" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="12">
+        <v>42730</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A385" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A387" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="12">
+        <v>42731</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="18" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="12">
+        <v>42732</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="12">
+        <v>42733</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" s="16" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A395" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="12">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" s="16" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A398" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" s="12" customFormat="1" ht="19.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="12">
+        <v>42746</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="B400" s="16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A412" s="17"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -9245,13 +7377,13 @@
   </protectedRanges>
   <dataConsolidate/>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A330">
-      <selection activeCell="A331" sqref="A331"/>
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" hiddenColumns="1">
+      <selection activeCell="A11" sqref="A11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}" scale="130" topLeftCell="A1161">
-      <selection activeCell="A1171" sqref="A1171"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}" scale="130" topLeftCell="A392">
+      <selection activeCell="A401" sqref="A401"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
     </customSheetView>
@@ -9288,460 +7420,460 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="18" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="32"/>
     </row>
     <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="32"/>
     </row>
     <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="32"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32"/>
     </row>
     <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
     </row>
     <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="32"/>
     </row>
     <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="32"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="32"/>
     </row>
     <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="29"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32"/>
     </row>
     <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
       <selection activeCell="J11" sqref="J11:L11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -22157,12 +20289,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
       <selection activeCell="D41" sqref="D41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
@@ -22187,7 +20319,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -22380,13 +20512,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
-      <selection activeCell="A33" sqref="A33"/>
+    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
+      <selection activeCell="A30" sqref="A30"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{F785157E-3338-49D1-8F88-C6A5BE082032}">
-      <selection activeCell="A30" sqref="A30"/>
+    <customSheetView guid="{D32DDA5F-3CB1-453E-AFB5-077E8E2B0FFC}">
+      <selection activeCell="A33" sqref="A33"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
